--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D36C092-20EF-4FA0-9E71-640BE1DDD263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950A81D8-5B5C-45B6-8018-83DAC4DF9721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,11 +229,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4111E909-4824-4295-8243-5AED1ECFAFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A2897D-894C-412C-9FE3-A98F034C70B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -173,13 +173,7 @@
     <t>방어봇 D1 스킬. 3초 동안 15%의 추가 내구력을 획득한다.</t>
   </si>
   <si>
-    <t>EFFECTIVE_HEALTH</t>
-  </si>
-  <si>
     <t>공격봇 A1 데미지. 매초 시전자 AP 120% 만큼 3초동안 부여.</t>
-  </si>
-  <si>
-    <t>DamageOverTimeByCasterAP</t>
   </si>
   <si>
     <t>지원봇 S1 스킬. 가장 체력이 낮은 아군 1명에게 시전자 AP의 200%만큼 보호막 생성. 보호막은 5초동안 유지된다.</t>
@@ -338,15 +332,27 @@
     <t>듀블4명</t>
   </si>
   <si>
-    <t>시너지트리거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DamageByCasterAD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SynergyTrigger_LAP</t>
+    <t>SynergyTrigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageOverTimeByCasterAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffOnce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFFECTIVE_HEALTH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,7 +360,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -380,13 +386,6 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -447,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -464,10 +463,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,22 +685,22 @@
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.1328125" customWidth="1"/>
+    <col min="4" max="4" width="31.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -743,7 +738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -779,7 +774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -815,7 +810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>600110</v>
       </c>
@@ -841,7 +836,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>600210</v>
       </c>
@@ -867,7 +862,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>600211</v>
       </c>
@@ -891,7 +886,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>600212</v>
       </c>
@@ -915,7 +910,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>600310</v>
       </c>
@@ -941,7 +936,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>600311</v>
       </c>
@@ -965,7 +960,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>600312</v>
       </c>
@@ -991,7 +986,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>600410</v>
       </c>
@@ -1017,7 +1012,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>600411</v>
       </c>
@@ -1026,7 +1021,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>30</v>
@@ -1043,7 +1038,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>600412</v>
       </c>
@@ -1067,7 +1062,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>610210</v>
       </c>
@@ -1081,7 +1076,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1095,7 +1090,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>610311</v>
       </c>
@@ -1103,10 +1098,10 @@
         <v>510310</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
@@ -1123,7 +1118,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>610410</v>
       </c>
@@ -1131,13 +1126,13 @@
         <v>510410</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1151,7 +1146,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>600510</v>
       </c>
@@ -1159,7 +1154,7 @@
         <v>500510</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>21</v>
@@ -1177,16 +1172,16 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>600511</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1197,13 +1192,13 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>600512</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>31</v>
@@ -1221,7 +1216,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>600610</v>
       </c>
@@ -1229,7 +1224,7 @@
         <v>500610</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>21</v>
@@ -1247,16 +1242,16 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>600611</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1269,16 +1264,16 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>600612</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
@@ -1293,7 +1288,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>600710</v>
       </c>
@@ -1301,7 +1296,7 @@
         <v>500710</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>21</v>
@@ -1321,19 +1316,19 @@
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>600711</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1347,13 +1342,13 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>600712</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>29</v>
@@ -1373,19 +1368,19 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>600713</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1399,7 +1394,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>600810</v>
       </c>
@@ -1407,7 +1402,7 @@
         <v>500810</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>21</v>
@@ -1425,19 +1420,19 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>600811</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1451,19 +1446,19 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>600812</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1477,386 +1472,395 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>600003</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="H30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>600004</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>600005</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>600006</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>600007</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>600008</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>600009</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>600010</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>600011</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>600012</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>600013</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>600014</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>600015</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>600016</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>600017</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>600018</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>600019</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>600020</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>600021</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>600022</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>600023</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H50">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>600024</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H51">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>600025</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H52">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>600026</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H53">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>600027</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>600028</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H55">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
+        <v>600029</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H56">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>600030</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>600031</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H58">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>600032</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H59">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
         <v>600001</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>600003</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="H31">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>600004</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>600005</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>600006</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>600007</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H35">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>600008</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H36">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>600009</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H37">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>600010</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>600011</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H39">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>600012</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H40">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>600013</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H41">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>600014</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H42">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>600015</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H43">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>600016</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H44">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>600017</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H45">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>600018</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H46">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>600019</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H47">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>600020</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H48">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>600021</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H49">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>600022</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H50">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>600023</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H51">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>600024</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H52">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>600025</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H53">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>600026</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H54">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>600027</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H55">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>600028</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H56">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>600029</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H57">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>600030</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H58">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>600031</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H59">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>600032</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H60">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C61" s="2"/>
-      <c r="D61" s="7"/>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C62" s="2"/>
-      <c r="D62" s="7"/>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C63" s="2"/>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="2"/>
-      <c r="D64" s="7"/>
-    </row>
-    <row r="65" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C65" s="2"/>
-      <c r="D65" s="7"/>
-    </row>
-    <row r="66" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C66" s="2"/>
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C67" s="2"/>
-      <c r="D67" s="7"/>
-    </row>
-    <row r="68" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C68" s="2"/>
-      <c r="D68" s="7"/>
-    </row>
-    <row r="69" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C69" s="2"/>
-      <c r="D69" s="7"/>
+      <c r="D69" s="3"/>
+      <c r="H69" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A2897D-894C-412C-9FE3-A98F034C70B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D582D9-48EF-473D-A2A2-A7D7CABD8F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7335" yWindow="735" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -353,6 +353,29 @@
   </si>
   <si>
     <t>EFFECTIVE_HEALTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건</t>
+  </si>
+  <si>
+    <t>조건부Func</t>
+  </si>
+  <si>
+    <t>ConditionCheck</t>
+  </si>
+  <si>
+    <t>ConditionFuncList</t>
+  </si>
+  <si>
+    <t>long[]</t>
+  </si>
+  <si>
+    <t>성택컨디션체크테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[600711,600712]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -387,8 +410,21 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +440,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -464,6 +506,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -682,25 +736,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" customWidth="1"/>
-    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.1328125" customWidth="1"/>
-    <col min="4" max="4" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -737,8 +792,14 @@
       <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -773,8 +834,14 @@
       <c r="L2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -809,8 +876,14 @@
       <c r="L3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>600110</v>
       </c>
@@ -835,8 +908,10 @@
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>600210</v>
       </c>
@@ -861,8 +936,10 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>600211</v>
       </c>
@@ -885,8 +962,10 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>600212</v>
       </c>
@@ -909,8 +988,10 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>600310</v>
       </c>
@@ -935,8 +1016,10 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>600311</v>
       </c>
@@ -959,8 +1042,10 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>600312</v>
       </c>
@@ -985,8 +1070,10 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>600410</v>
       </c>
@@ -1011,8 +1098,10 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>600411</v>
       </c>
@@ -1037,8 +1126,10 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>600412</v>
       </c>
@@ -1061,8 +1152,10 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>610210</v>
       </c>
@@ -1089,8 +1182,10 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>610311</v>
       </c>
@@ -1117,8 +1212,10 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>610410</v>
       </c>
@@ -1145,8 +1242,10 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>600510</v>
       </c>
@@ -1171,8 +1270,10 @@
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>600511</v>
       </c>
@@ -1191,8 +1292,10 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>600512</v>
       </c>
@@ -1215,8 +1318,10 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>600610</v>
       </c>
@@ -1241,8 +1346,10 @@
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>600611</v>
       </c>
@@ -1263,8 +1370,10 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>600612</v>
       </c>
@@ -1287,8 +1396,10 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>600710</v>
       </c>
@@ -1315,8 +1426,10 @@
         <v>600713</v>
       </c>
       <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>600711</v>
       </c>
@@ -1341,8 +1454,10 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>600712</v>
       </c>
@@ -1367,8 +1482,10 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>600713</v>
       </c>
@@ -1393,8 +1510,10 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>600810</v>
       </c>
@@ -1419,8 +1538,10 @@
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>600811</v>
       </c>
@@ -1445,8 +1566,10 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>600812</v>
       </c>
@@ -1471,8 +1594,10 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>600003</v>
       </c>
@@ -1483,8 +1608,10 @@
       <c r="H30">
         <v>-1</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>600004</v>
       </c>
@@ -1494,8 +1621,10 @@
       <c r="H31">
         <v>-1</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>600005</v>
       </c>
@@ -1505,8 +1634,10 @@
       <c r="H32">
         <v>-1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>600006</v>
       </c>
@@ -1516,8 +1647,10 @@
       <c r="H33">
         <v>-1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>600007</v>
       </c>
@@ -1527,8 +1660,10 @@
       <c r="H34">
         <v>-1</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>600008</v>
       </c>
@@ -1538,8 +1673,10 @@
       <c r="H35">
         <v>-1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>600009</v>
       </c>
@@ -1549,8 +1686,10 @@
       <c r="H36">
         <v>-1</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>600010</v>
       </c>
@@ -1560,8 +1699,10 @@
       <c r="H37">
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>600011</v>
       </c>
@@ -1571,8 +1712,10 @@
       <c r="H38">
         <v>-1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>600012</v>
       </c>
@@ -1582,8 +1725,10 @@
       <c r="H39">
         <v>-1</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>600013</v>
       </c>
@@ -1593,8 +1738,10 @@
       <c r="H40">
         <v>-1</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>600014</v>
       </c>
@@ -1604,8 +1751,10 @@
       <c r="H41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>600015</v>
       </c>
@@ -1615,8 +1764,10 @@
       <c r="H42">
         <v>-1</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>600016</v>
       </c>
@@ -1626,8 +1777,10 @@
       <c r="H43">
         <v>-1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>600017</v>
       </c>
@@ -1637,8 +1790,10 @@
       <c r="H44">
         <v>-1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>600018</v>
       </c>
@@ -1648,8 +1803,10 @@
       <c r="H45">
         <v>-1</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>600019</v>
       </c>
@@ -1659,8 +1816,10 @@
       <c r="H46">
         <v>-1</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>600020</v>
       </c>
@@ -1670,8 +1829,10 @@
       <c r="H47">
         <v>-1</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>600021</v>
       </c>
@@ -1681,8 +1842,10 @@
       <c r="H48">
         <v>-1</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>600022</v>
       </c>
@@ -1692,8 +1855,10 @@
       <c r="H49">
         <v>-1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>600023</v>
       </c>
@@ -1703,8 +1868,10 @@
       <c r="H50">
         <v>-1</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>600024</v>
       </c>
@@ -1714,8 +1881,10 @@
       <c r="H51">
         <v>-1</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>600025</v>
       </c>
@@ -1725,8 +1894,10 @@
       <c r="H52">
         <v>-1</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>600026</v>
       </c>
@@ -1736,8 +1907,10 @@
       <c r="H53">
         <v>-1</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>600027</v>
       </c>
@@ -1747,8 +1920,10 @@
       <c r="H54">
         <v>-1</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>600028</v>
       </c>
@@ -1758,8 +1933,10 @@
       <c r="H55">
         <v>-1</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>600029</v>
       </c>
@@ -1769,8 +1946,10 @@
       <c r="H56">
         <v>-1</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>600030</v>
       </c>
@@ -1780,8 +1959,10 @@
       <c r="H57">
         <v>-1</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>600031</v>
       </c>
@@ -1791,8 +1972,10 @@
       <c r="H58">
         <v>-1</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>600032</v>
       </c>
@@ -1802,8 +1985,10 @@
       <c r="H59">
         <v>-1</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>600001</v>
       </c>
@@ -1816,51 +2001,312 @@
       <c r="H60" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C61" s="2"/>
-      <c r="D61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="1:14" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>698765</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="M61" s="9">
+        <v>790000</v>
+      </c>
+      <c r="N61" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
       <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
       <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
       <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
       <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
       <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
       <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
       <c r="H69" s="3"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+    </row>
+    <row r="70" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+    </row>
+    <row r="71" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+    </row>
+    <row r="72" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+    </row>
+    <row r="73" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+    </row>
+    <row r="74" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+    </row>
+    <row r="75" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+    </row>
+    <row r="76" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+    </row>
+    <row r="77" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+    </row>
+    <row r="78" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+    </row>
+    <row r="79" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+    </row>
+    <row r="80" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+    </row>
+    <row r="81" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+    </row>
+    <row r="82" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+    </row>
+    <row r="83" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+    </row>
+    <row r="84" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+    </row>
+    <row r="85" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+    </row>
+    <row r="86" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+    </row>
+    <row r="87" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+    </row>
+    <row r="88" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+    </row>
+    <row r="89" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+    </row>
+    <row r="90" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+    </row>
+    <row r="91" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+    </row>
+    <row r="92" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+    </row>
+    <row r="93" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+    </row>
+    <row r="94" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+    </row>
+    <row r="95" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+    </row>
+    <row r="96" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+    </row>
+    <row r="97" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+    </row>
+    <row r="98" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+    </row>
+    <row r="99" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+    </row>
+    <row r="100" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+    </row>
+    <row r="101" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+    </row>
+    <row r="102" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+    </row>
+    <row r="103" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+    </row>
+    <row r="104" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+    </row>
+    <row r="105" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+    </row>
+    <row r="106" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+    </row>
+    <row r="107" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+    </row>
+    <row r="108" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+    </row>
+    <row r="109" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+    </row>
+    <row r="110" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+    </row>
+    <row r="111" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+    </row>
+    <row r="112" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+    </row>
+    <row r="113" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+    </row>
+    <row r="114" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+    </row>
+    <row r="115" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+    </row>
+    <row r="116" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+    </row>
+    <row r="117" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+    </row>
+    <row r="118" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+    </row>
+    <row r="119" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+    </row>
+    <row r="120" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+    </row>
+    <row r="121" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M121" s="9"/>
+      <c r="N121" s="9"/>
+    </row>
+    <row r="122" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+    </row>
+    <row r="123" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M123" s="9"/>
+      <c r="N123" s="9"/>
+    </row>
+    <row r="124" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+    </row>
+    <row r="125" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
+    </row>
+    <row r="126" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M126" s="9"/>
+      <c r="N126" s="9"/>
+    </row>
+    <row r="127" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M127" s="9"/>
+      <c r="N127" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D582D9-48EF-473D-A2A2-A7D7CABD8F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644D0D93-B612-41B7-A82E-05740863603E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="735" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="2625" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[600711,600712]</t>
+    <t>[600711.600712]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,8 +738,8 @@
   </sheetPr>
   <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -899,7 +899,9 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>-1</v>
+      </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE303908-EB6E-42B3-9397-E88432E007F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB13845-81B7-4DFA-81A5-8DB4ACD7E91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="145">
   <si>
     <t>ID</t>
   </si>
@@ -154,15 +154,9 @@
     <t>BUFF_AA</t>
   </si>
   <si>
-    <t>K Skill 1) 투사체 경로(PINGPONG)에 있던 적에게 순차적으로 CC 'LAYOFF' 6초간 부여</t>
-  </si>
-  <si>
     <t>APPLY_CC</t>
   </si>
   <si>
-    <t>LAYOFF</t>
-  </si>
-  <si>
     <t>K Skill 2) 투사체 경로(PINGPONG)에 있던 적에게 순차적으로 데미지 (시전자의 AP 120%)</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
     <t>DOT_BY_AP</t>
   </si>
   <si>
-    <t>지원봇 S1 Skill. 가장 HP가 낮은 아군 1명에게 시전자 AP의 200%만큼 SHIELD 생성, SHIELD는 5초동안 유지</t>
-  </si>
-  <si>
     <t>CREATE_SHIELD</t>
   </si>
   <si>
@@ -232,9 +223,6 @@
     <t>EXTEND_RANGE</t>
   </si>
   <si>
-    <t>그레이스 Skill 2) 대상과 범위 내 적에게 스플래시 데미지</t>
-  </si>
-  <si>
     <t>샤나 Skill MultiCasting:</t>
   </si>
   <si>
@@ -271,18 +259,12 @@
     <t>LAPLACIAN(K) Synergy Condition: 라플라시안 기물 중에 K만 존재하는가?</t>
   </si>
   <si>
-    <t>LAPLACIAN(K) Synergy:</t>
-  </si>
-  <si>
     <t>LAPLACIAN(K) Synergy Trigger 제거</t>
   </si>
   <si>
     <t>LAPLACIAN(J) Synergy Condition: 라플라시안 기물 중에 J만 존재하는가?</t>
   </si>
   <si>
-    <t>LAPLACIAN(J) Synergy:</t>
-  </si>
-  <si>
     <t>LAPLACIAN(J) Synergy Trigger 제거</t>
   </si>
   <si>
@@ -337,36 +319,9 @@
     <t>RANGED(4) Synergy: AD를 (20 + RANGED 실험체가 처치한 적의 수) 만큼 획득</t>
   </si>
   <si>
-    <t>SHIELD(2) Synergy Condition: 처음으로 HP가 50% 이하가 되었는가?</t>
-  </si>
-  <si>
-    <t>SHIELD(2) Synergy: 50%의 HP를 2초에 걸쳐 회복</t>
-  </si>
-  <si>
     <t>SHIELD_SYNERGY_HEAL</t>
   </si>
   <si>
-    <t>SHIELD(2) Synergy Trigger 제거</t>
-  </si>
-  <si>
-    <t>SHIELD(3) Synergy Condition: 처음으로 HP가 50% 이하가 되었는가?</t>
-  </si>
-  <si>
-    <t>SHIELD(3) Synergy: 70%의 HP를 2초에 걸쳐 회복</t>
-  </si>
-  <si>
-    <t>SHIELD(3) Synergy Trigger 제거</t>
-  </si>
-  <si>
-    <t>SHIELD(4) Synergy Condition: 처음으로 HP가 50% 이하가 되었는가?</t>
-  </si>
-  <si>
-    <t>SHIELD(4) Synergy: 150%의 HP를 2초에 걸쳐 회복</t>
-  </si>
-  <si>
-    <t>SHIELD(4) Synergy Trigger 제거</t>
-  </si>
-  <si>
     <t>MAGIC_WAND(2) Synergy: 마나를 얻을 때 마나를 25% 추가로 획득</t>
   </si>
   <si>
@@ -380,9 +335,6 @@
   </si>
   <si>
     <t>DUAL_BLADE(2) Synergy MultiCasting:</t>
-  </si>
-  <si>
-    <t>1) 전투 시작시, 적 진영의 후방으로 도약</t>
   </si>
   <si>
     <t>DUALBLADE_SYNERGY_JUMP</t>
@@ -402,6 +354,111 @@
   <si>
     <t>SYNERGY_TRIGGER</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K Skill 1) 투사체 경로(PINGPONG)에 있던 적에게 순차적으로 CC 'SHRED' 6초간 부여</t>
+  </si>
+  <si>
+    <t>SHRED</t>
+  </si>
+  <si>
+    <t>지원봇 S1 Skill. 가장 HP가 낮은 아군 1명에게 시전자 AP의 200%만큼 SHIELD 생성. SHIELD는 5초동안 유지</t>
+  </si>
+  <si>
+    <t>그레이스 Skill 2) 대상과 범위 내 적에게 스플래시 데미지 - 투사체 변경</t>
+  </si>
+  <si>
+    <t>CHANGE_PROJECTILE</t>
+  </si>
+  <si>
+    <t>LAPLACIAN(K) Synergy: 모든 아군 기본 공격시 추가 마나 5 획득</t>
+  </si>
+  <si>
+    <t>ADDMANA_ON_AA</t>
+  </si>
+  <si>
+    <t>LAPLACIAN(J) Synergy: 모든 아군 DAMAGE_REDUCTION 10% 획득</t>
+  </si>
+  <si>
+    <t>LAPLACIAN(M) Synergy Condition: 라플라시안 기물 중에 M만 존재하는가?</t>
+  </si>
+  <si>
+    <t>LAPLACIAN(M) Synergy Multicasting: 모든 아군 AD 혹은 AP 20% 증가</t>
+  </si>
+  <si>
+    <t>1) AD 20% 증가</t>
+  </si>
+  <si>
+    <t>2) AP 20% 증가</t>
+  </si>
+  <si>
+    <t>LAPLACIAN(M) Synergy Trigger 제거</t>
+  </si>
+  <si>
+    <t>4 LAPLACIAN Synergy Condition: 모든 라플라시안 기물이 존재하는가?</t>
+  </si>
+  <si>
+    <t>4 LAPLACIAN Synergy(0): 라플라시안 Synergy Multicasting</t>
+  </si>
+  <si>
+    <t>0690051.0690054.0690055.0690056.0690057</t>
+  </si>
+  <si>
+    <t>1) LAPLACIAN 기물 최대 체력 500 증가</t>
+  </si>
+  <si>
+    <t>INCREASE_MAX_HP</t>
+  </si>
+  <si>
+    <t>2) LAPLCAIAN 기물 최종 데미지 30% 증가</t>
+  </si>
+  <si>
+    <t>BUFF_TOTAL_DAMAGE</t>
+  </si>
+  <si>
+    <t>4 LAPLACIAN Synergy(1): 모든 아군 AS 20% 증가</t>
+  </si>
+  <si>
+    <t>4 LAPLACIAN Synergy(2): 모든 아군 기본 공격시 추가 마나 5 획득</t>
+  </si>
+  <si>
+    <t>4 LAPLACIAN Synergy(3): 모든 아군 DAMAGE_REDUCTION 10% 획득</t>
+  </si>
+  <si>
+    <t>4 LAPLACIAN Synergy(4): 모든 아군 AD 혹은 AP 20% 증가</t>
+  </si>
+  <si>
+    <t>4 LAPLACIAN Synergy Trigger 제거</t>
+  </si>
+  <si>
+    <t>ARMOR(2) Synergy Condition: 처음으로 HP가 50% 이하가 되었는가?</t>
+  </si>
+  <si>
+    <t>ARMOR(2) Synergy: 50%의 HP를 2초에 걸쳐 회복</t>
+  </si>
+  <si>
+    <t>ARMOR(2) Synergy Trigger 제거</t>
+  </si>
+  <si>
+    <t>ARMOR(3) Synergy Condition: 처음으로 HP가 50% 이하가 되었는가?</t>
+  </si>
+  <si>
+    <t>ARMOR(3) Synergy: 70%의 HP를 2초에 걸쳐 회복</t>
+  </si>
+  <si>
+    <t>ARMOR(3) Synergy Trigger 제거</t>
+  </si>
+  <si>
+    <t>ARMOR(4) Synergy Condition: 처음으로 HP가 50% 이하가 되었는가?</t>
+  </si>
+  <si>
+    <t>ARMOR(4) Synergy: 150%의 HP를 2초에 걸쳐 회복</t>
+  </si>
+  <si>
+    <t>ARMOR(4) Synergy Trigger 제거</t>
+  </si>
+  <si>
+    <t>1) 전투 시작시. 적 진영의 후방으로 도약</t>
   </si>
 </sst>
 </file>
@@ -546,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -582,6 +639,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,8 +863,8 @@
   </sheetPr>
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -992,15 +1052,15 @@
         <v>500210</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="H5" s="1">
         <v>6000</v>
@@ -1021,10 +1081,10 @@
         <v>520011</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
@@ -1050,10 +1110,10 @@
         <v>500310</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
@@ -1079,10 +1139,10 @@
         <v>500311</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>24</v>
@@ -1110,10 +1170,10 @@
         <v>500410</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
@@ -1141,10 +1201,10 @@
         <v>500411</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
@@ -1170,13 +1230,13 @@
         <v>510210</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1201,10 +1261,10 @@
         <v>510310</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
@@ -1232,10 +1292,10 @@
         <v>510410</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>29</v>
@@ -1263,10 +1323,10 @@
         <v>500510</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1290,10 +1350,10 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1313,10 +1373,10 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>24</v>
@@ -1342,15 +1402,17 @@
         <v>500610</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <v>6000</v>
+      </c>
       <c r="I17" s="1">
         <v>5</v>
       </c>
@@ -1369,15 +1431,13 @@
         <v>500611</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1">
@@ -1398,10 +1458,10 @@
         <v>500710</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1427,10 +1487,10 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>30</v>
@@ -1456,10 +1516,10 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>23</v>
@@ -1485,10 +1545,10 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>31</v>
@@ -1516,10 +1576,10 @@
         <v>500810</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1543,10 +1603,10 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>32</v>
@@ -1572,10 +1632,10 @@
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>29</v>
@@ -1601,7 +1661,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1626,16 +1686,22 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1">
         <v>-1</v>
       </c>
-      <c r="I27" s="1"/>
+      <c r="I27" s="1">
+        <v>2000</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1653,10 +1719,10 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1680,7 +1746,7 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1705,16 +1771,20 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1">
         <v>-1</v>
       </c>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1">
+        <v>5</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1732,10 +1802,10 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1759,7 +1829,7 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1784,16 +1854,22 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1">
         <v>-1</v>
       </c>
-      <c r="I33" s="1"/>
+      <c r="I33" s="1">
+        <v>1000</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1811,10 +1887,10 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1834,52 +1910,50 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>690120</v>
+        <v>690040</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1">
-        <v>7000</v>
-      </c>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="M35" s="1">
+        <v>790003</v>
+      </c>
+      <c r="N35" s="1">
+        <v>690041</v>
+      </c>
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>690121</v>
+        <v>690041</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1">
-        <v>-1</v>
-      </c>
+      <c r="H36" s="1"/>
       <c r="I36" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J36" s="1"/>
+        <v>690042</v>
+      </c>
+      <c r="J36" s="1">
+        <v>690043</v>
+      </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -1888,23 +1962,25 @@
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>690130</v>
+        <v>690042</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1">
-        <v>7000</v>
+        <v>-1</v>
       </c>
       <c r="I37" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -1915,24 +1991,26 @@
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>690131</v>
+        <v>690043</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1">
         <v>-1</v>
       </c>
-      <c r="I38" s="1"/>
+      <c r="I38" s="1">
+        <v>2000</v>
+      </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -1942,22 +2020,24 @@
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>690140</v>
+        <v>690044</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1">
-        <v>7000</v>
-      </c>
-      <c r="I39" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>690040</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -1967,23 +2047,17 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>690141</v>
+        <v>690050</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H40" s="1">
-        <v>2000</v>
-      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -1994,58 +2068,54 @@
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>690142</v>
+        <v>690051</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1">
-        <v>-1</v>
-      </c>
+      <c r="H41" s="1"/>
       <c r="I41" s="1">
-        <v>15000</v>
-      </c>
-      <c r="J41" s="1"/>
+        <v>690052</v>
+      </c>
+      <c r="J41" s="1">
+        <v>690053</v>
+      </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
+      <c r="M41" s="1">
+        <v>790004</v>
+      </c>
+      <c r="N41" s="16" t="s">
+        <v>125</v>
+      </c>
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>691020</v>
+        <v>690052</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1">
-        <v>-1</v>
-      </c>
+      <c r="H42" s="1"/>
       <c r="I42" s="1">
-        <v>5</v>
-      </c>
-      <c r="J42" s="1">
-        <v>50</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2054,29 +2124,23 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>691030</v>
+        <v>690053</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1">
-        <v>-1</v>
-      </c>
+      <c r="H43" s="1"/>
       <c r="I43" s="1">
-        <v>3</v>
-      </c>
-      <c r="J43" s="1">
-        <v>50</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2085,187 +2149,185 @@
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>691040</v>
+        <v>690054</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1">
         <v>-1</v>
       </c>
-      <c r="I44" s="1">
-        <v>2</v>
-      </c>
-      <c r="J44" s="1">
-        <v>50</v>
-      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1">
+        <v>690056</v>
+      </c>
       <c r="O44" s="1"/>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
-        <v>691120</v>
-      </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15">
-        <v>5</v>
-      </c>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
+      <c r="A45" s="1">
+        <v>690055</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1">
+        <v>1</v>
+      </c>
+      <c r="N45" s="1">
+        <v>690056</v>
+      </c>
+      <c r="O45" s="1"/>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
-        <v>691130</v>
-      </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15">
-        <v>10</v>
-      </c>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
+      <c r="A46" s="1">
+        <v>690056</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1">
+        <v>1</v>
+      </c>
+      <c r="N46" s="1">
+        <v>690056</v>
+      </c>
+      <c r="O46" s="1"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
-        <v>691140</v>
-      </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15">
-        <v>20</v>
-      </c>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
+      <c r="A47" s="1">
+        <v>690057</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1">
+        <v>690056</v>
+      </c>
+      <c r="O47" s="1"/>
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>691220</v>
+        <v>690058</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>690050</v>
+      </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="1">
-        <v>791200</v>
-      </c>
-      <c r="N48" s="1">
-        <v>691221</v>
-      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>691221</v>
+        <v>690120</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I49" s="1">
-        <v>5000</v>
-      </c>
+        <v>7000</v>
+      </c>
+      <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="1">
-        <v>1</v>
-      </c>
-      <c r="N49" s="1">
-        <v>691222</v>
-      </c>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
     <row r="50" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>691222</v>
+        <v>690121</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="I50" s="1">
-        <v>691220</v>
+        <v>3000</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -2276,82 +2338,76 @@
     </row>
     <row r="51" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>691230</v>
+        <v>690130</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="H51" s="1">
+        <v>7000</v>
+      </c>
+      <c r="I51" s="1">
+        <v>5000</v>
+      </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="1">
-        <v>791200</v>
-      </c>
-      <c r="N51" s="1">
-        <v>691231</v>
-      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>691231</v>
+        <v>690131</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I52" s="1">
-        <v>7000</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="1">
-        <v>1</v>
-      </c>
-      <c r="N52" s="1">
-        <v>691232</v>
-      </c>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
     <row r="53" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>691232</v>
+        <v>690140</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1">
-        <v>10</v>
-      </c>
-      <c r="I53" s="1">
-        <v>691230</v>
-      </c>
+        <v>7000</v>
+      </c>
+      <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -2361,47 +2417,49 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>691240</v>
+        <v>690141</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H54" s="1">
+        <v>2000</v>
+      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54" s="1">
-        <v>791200</v>
-      </c>
-      <c r="N54" s="1">
-        <v>691241</v>
-      </c>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>691241</v>
+        <v>690142</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1">
-        <v>2000</v>
+        <v>-1</v>
       </c>
       <c r="I55" s="1">
         <v>15000</v>
@@ -2409,35 +2467,35 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-      <c r="M55" s="1">
-        <v>1</v>
-      </c>
-      <c r="N55" s="1">
-        <v>691242</v>
-      </c>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>691242</v>
+        <v>691020</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="I56" s="1">
-        <v>691240</v>
-      </c>
-      <c r="J56" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="J56" s="1">
+        <v>50</v>
+      </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -2446,23 +2504,29 @@
     </row>
     <row r="57" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>691320</v>
+        <v>691030</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="H57" s="1">
+        <v>-1</v>
+      </c>
       <c r="I57" s="1">
-        <v>2500</v>
-      </c>
-      <c r="J57" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J57" s="1">
+        <v>50</v>
+      </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -2471,23 +2535,29 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>691330</v>
+        <v>691040</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="H58" s="1">
+        <v>-1</v>
+      </c>
       <c r="I58" s="1">
-        <v>5000</v>
-      </c>
-      <c r="J58" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="J58" s="1">
+        <v>50</v>
+      </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -2495,152 +2565,158 @@
       <c r="O58" s="1"/>
     </row>
     <row r="59" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>691340</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
+      <c r="A59" s="15">
+        <v>691120</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15">
+        <v>5</v>
+      </c>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
     </row>
     <row r="60" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>691420</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1">
-        <v>691421</v>
-      </c>
-      <c r="J60" s="1">
-        <v>691422</v>
-      </c>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
+      <c r="A60" s="15">
+        <v>691130</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15">
+        <v>10</v>
+      </c>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
     </row>
     <row r="61" spans="1:15" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>691421</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
+      <c r="A61" s="15">
+        <v>691140</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15">
+        <v>20</v>
+      </c>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
     </row>
     <row r="62" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>691422</v>
+        <v>691220</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I62" s="1">
-        <v>2500</v>
-      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
+      <c r="M62" s="1">
+        <v>791200</v>
+      </c>
+      <c r="N62" s="1">
+        <v>691221</v>
+      </c>
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>691430</v>
+        <v>691221</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E63" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="H63" s="1">
+        <v>2000</v>
+      </c>
       <c r="I63" s="1">
-        <v>691431</v>
-      </c>
-      <c r="J63" s="1">
-        <v>691432</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
+      <c r="M63" s="1">
+        <v>1</v>
+      </c>
+      <c r="N63" s="1">
+        <v>691222</v>
+      </c>
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>691431</v>
+        <v>691222</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+      <c r="H64" s="1">
+        <v>10</v>
+      </c>
+      <c r="I64" s="1">
+        <v>691220</v>
+      </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -2650,76 +2726,82 @@
     </row>
     <row r="65" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>691432</v>
+        <v>691230</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I65" s="1">
-        <v>5000</v>
-      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
+      <c r="M65" s="1">
+        <v>791200</v>
+      </c>
+      <c r="N65" s="1">
+        <v>691231</v>
+      </c>
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>691440</v>
+        <v>691231</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E66" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="H66" s="1">
+        <v>2000</v>
+      </c>
       <c r="I66" s="1">
-        <v>691441</v>
-      </c>
-      <c r="J66" s="1">
-        <v>691442</v>
-      </c>
+        <v>7000</v>
+      </c>
+      <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
+      <c r="M66" s="1">
+        <v>1</v>
+      </c>
+      <c r="N66" s="1">
+        <v>691232</v>
+      </c>
       <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>691441</v>
+        <v>691232</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="H67" s="1">
+        <v>10</v>
+      </c>
+      <c r="I67" s="1">
+        <v>691230</v>
+      </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -2729,166 +2811,487 @@
     </row>
     <row r="68" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>691442</v>
+        <v>691240</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I68" s="1">
-        <v>7500</v>
-      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
+      <c r="M68" s="1">
+        <v>791200</v>
+      </c>
+      <c r="N68" s="1">
+        <v>691241</v>
+      </c>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>691241</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I69" s="1">
+        <v>15000</v>
+      </c>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1">
+        <v>1</v>
+      </c>
+      <c r="N69" s="1">
+        <v>691242</v>
+      </c>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>691242</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1">
+        <v>10</v>
+      </c>
+      <c r="I70" s="1">
+        <v>691240</v>
+      </c>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+    </row>
+    <row r="71" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>691320</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1">
+        <v>2500</v>
+      </c>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+    </row>
+    <row r="72" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>691330</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+    </row>
+    <row r="73" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>691340</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+    </row>
+    <row r="74" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>691420</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1">
+        <v>691421</v>
+      </c>
+      <c r="J74" s="1">
+        <v>691422</v>
+      </c>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+    </row>
+    <row r="75" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>691421</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+    </row>
+    <row r="76" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>691422</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I76" s="1">
+        <v>2500</v>
+      </c>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+    </row>
+    <row r="77" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>691430</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1">
+        <v>691431</v>
+      </c>
+      <c r="J77" s="1">
+        <v>691432</v>
+      </c>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+    </row>
+    <row r="78" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>691431</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+    </row>
+    <row r="79" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>691432</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I79" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+    </row>
+    <row r="80" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>691440</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1">
+        <v>691441</v>
+      </c>
+      <c r="J80" s="1">
+        <v>691442</v>
+      </c>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+    </row>
+    <row r="81" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>691441</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+    </row>
+    <row r="82" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>691442</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I82" s="1">
+        <v>7500</v>
+      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+    </row>
+    <row r="83" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>600001</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H69" s="3">
+      <c r="D83" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H83" s="3">
         <v>-1</v>
       </c>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-    </row>
-    <row r="70" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
-        <v>698765</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="M70" s="8">
-        <v>790000</v>
-      </c>
-      <c r="N70" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-    </row>
-    <row r="72" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-    </row>
-    <row r="73" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-    </row>
-    <row r="74" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-    </row>
-    <row r="75" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-    </row>
-    <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-    </row>
-    <row r="77" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-    </row>
-    <row r="78" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-    </row>
-    <row r="79" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-    </row>
-    <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-    </row>
-    <row r="81" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-    </row>
-    <row r="82" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-    </row>
-    <row r="83" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
     </row>
-    <row r="84" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-    </row>
-    <row r="85" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <v>698765</v>
+      </c>
+      <c r="B84" s="8"/>
+      <c r="C84" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8">
+        <v>790000</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O84" s="8"/>
+    </row>
+    <row r="85" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
     </row>
-    <row r="86" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
     </row>
-    <row r="87" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M87" s="8"/>
       <c r="N87" s="8"/>
     </row>
-    <row r="88" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
     </row>
-    <row r="89" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M89" s="8"/>
       <c r="N89" s="8"/>
     </row>
-    <row r="90" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
     </row>
-    <row r="91" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M91" s="8"/>
       <c r="N91" s="8"/>
     </row>
-    <row r="92" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M92" s="8"/>
       <c r="N92" s="8"/>
     </row>
-    <row r="93" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M93" s="8"/>
       <c r="N93" s="8"/>
     </row>
-    <row r="94" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M94" s="8"/>
       <c r="N94" s="8"/>
     </row>
-    <row r="95" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M95" s="8"/>
       <c r="N95" s="8"/>
     </row>
-    <row r="96" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M96" s="8"/>
       <c r="N96" s="8"/>
     </row>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB13845-81B7-4DFA-81A5-8DB4ACD7E91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88352FA-0C79-4B4F-84C2-7EC5127B9C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="145">
   <si>
     <t>ID</t>
   </si>
@@ -550,7 +550,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -599,11 +599,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -642,6 +651,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,8 +875,8 @@
   </sheetPr>
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3207,79 +3219,217 @@
       <c r="O82" s="1"/>
     </row>
     <row r="83" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="8">
+        <v>698765</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="10"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8">
+        <v>790000</v>
+      </c>
+      <c r="N83" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O83" s="8"/>
+    </row>
+    <row r="84" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>600001</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H84" s="3">
         <v>-1</v>
       </c>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-    </row>
-    <row r="84" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8">
-        <v>698765</v>
-      </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D84" s="10"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8">
-        <v>790000</v>
-      </c>
-      <c r="N84" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O84" s="8"/>
-    </row>
-    <row r="85" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I84" s="17">
+        <v>1</v>
+      </c>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+    </row>
+    <row r="85" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>600002</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H85" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I85" s="17">
+        <v>2</v>
+      </c>
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
     </row>
-    <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>600003</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H86" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I86" s="17">
+        <v>3</v>
+      </c>
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
     </row>
-    <row r="87" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>600004</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H87" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I87" s="17">
+        <v>4</v>
+      </c>
       <c r="M87" s="8"/>
       <c r="N87" s="8"/>
     </row>
-    <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>600005</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H88" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I88" s="17">
+        <v>5</v>
+      </c>
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
     </row>
-    <row r="89" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>600006</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I89" s="17">
+        <v>6</v>
+      </c>
       <c r="M89" s="8"/>
       <c r="N89" s="8"/>
     </row>
-    <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>600007</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H90" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I90" s="17">
+        <v>7</v>
+      </c>
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
     </row>
-    <row r="91" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>600008</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I91" s="17">
+        <v>8</v>
+      </c>
       <c r="M91" s="8"/>
       <c r="N91" s="8"/>
     </row>
-    <row r="92" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>600009</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H92" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I92" s="17">
+        <v>9</v>
+      </c>
       <c r="M92" s="8"/>
       <c r="N92" s="8"/>
     </row>
-    <row r="93" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>600010</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H93" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I93" s="17">
+        <v>10</v>
+      </c>
       <c r="M93" s="8"/>
       <c r="N93" s="8"/>
     </row>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88352FA-0C79-4B4F-84C2-7EC5127B9C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6728A9B7-0DD6-4C73-91E6-F0F10ECDD0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="148">
   <si>
     <t>ID</t>
   </si>
@@ -459,6 +459,16 @@
   </si>
   <si>
     <t>1) 전투 시작시. 적 진영의 후방으로 도약</t>
+  </si>
+  <si>
+    <t>LAPLACIAN(2) NO BUFF, ONLY ICON</t>
+  </si>
+  <si>
+    <t>LAPLACIAN(3) NO BUFF, ONLY ICON</t>
+  </si>
+  <si>
+    <t>아무것도없는거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -550,7 +560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -608,11 +618,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -652,7 +692,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -875,8 +921,8 @@
   </sheetPr>
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2058,75 +2104,61 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>690050</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+      <c r="A40" s="18">
+        <v>690002</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>690051</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1">
-        <v>690052</v>
-      </c>
-      <c r="J41" s="1">
-        <v>690053</v>
-      </c>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1">
-        <v>790004</v>
-      </c>
-      <c r="N41" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="O41" s="1"/>
+      <c r="A41" s="19">
+        <v>690003</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>690052</v>
+        <v>690050</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1">
-        <v>500</v>
-      </c>
+      <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2136,90 +2168,92 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>690053</v>
+        <v>690051</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J43" s="1"/>
+        <v>690052</v>
+      </c>
+      <c r="J43" s="1">
+        <v>690053</v>
+      </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="M43" s="1">
+        <v>790004</v>
+      </c>
+      <c r="N43" s="16" t="s">
+        <v>125</v>
+      </c>
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>690054</v>
+        <v>690052</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1">
+        <v>500</v>
+      </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="1">
-        <v>1</v>
-      </c>
-      <c r="N44" s="1">
-        <v>690056</v>
-      </c>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>690055</v>
+        <v>690053</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1">
+        <v>3000</v>
+      </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="1">
-        <v>1</v>
-      </c>
-      <c r="N45" s="1">
-        <v>690056</v>
-      </c>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>690056</v>
+        <v>690054</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2242,11 +2276,11 @@
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>690057</v>
+        <v>690055</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2269,77 +2303,77 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>690058</v>
+        <v>690056</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1">
-        <v>1</v>
-      </c>
-      <c r="I48" s="1">
-        <v>690050</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="M48" s="1">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1">
+        <v>690056</v>
+      </c>
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>690120</v>
+        <v>690057</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1">
-        <v>7000</v>
+        <v>-1</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="M49" s="1">
+        <v>1</v>
+      </c>
+      <c r="N49" s="1">
+        <v>690056</v>
+      </c>
       <c r="O49" s="1"/>
     </row>
     <row r="50" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>690121</v>
+        <v>690058</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I50" s="1">
-        <v>3000</v>
+        <v>690050</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -2350,11 +2384,11 @@
     </row>
     <row r="51" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>690130</v>
+        <v>690120</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>82</v>
@@ -2365,9 +2399,7 @@
       <c r="H51" s="1">
         <v>7000</v>
       </c>
-      <c r="I51" s="1">
-        <v>5000</v>
-      </c>
+      <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2377,11 +2409,11 @@
     </row>
     <row r="52" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>690131</v>
+        <v>690121</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>51</v>
@@ -2394,7 +2426,9 @@
       <c r="H52" s="1">
         <v>-1</v>
       </c>
-      <c r="I52" s="1"/>
+      <c r="I52" s="1">
+        <v>3000</v>
+      </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -2404,11 +2438,11 @@
     </row>
     <row r="53" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>690140</v>
+        <v>690130</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>82</v>
@@ -2419,7 +2453,9 @@
       <c r="H53" s="1">
         <v>7000</v>
       </c>
-      <c r="I53" s="1"/>
+      <c r="I53" s="1">
+        <v>5000</v>
+      </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -2429,22 +2465,22 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>690141</v>
+        <v>690131</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F54" s="1"/>
-      <c r="G54" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="G54" s="1"/>
       <c r="H54" s="1">
-        <v>2000</v>
+        <v>-1</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2456,26 +2492,22 @@
     </row>
     <row r="55" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>690142</v>
+        <v>690140</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I55" s="1">
-        <v>15000</v>
-      </c>
+        <v>7000</v>
+      </c>
+      <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -2485,29 +2517,25 @@
     </row>
     <row r="56" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>691020</v>
+        <v>690141</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="H56" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I56" s="1">
-        <v>5</v>
-      </c>
-      <c r="J56" s="1">
-        <v>50</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -2516,29 +2544,27 @@
     </row>
     <row r="57" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>691030</v>
+        <v>690142</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1">
         <v>-1</v>
       </c>
       <c r="I57" s="1">
-        <v>3</v>
-      </c>
-      <c r="J57" s="1">
-        <v>50</v>
-      </c>
+        <v>15000</v>
+      </c>
+      <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -2547,11 +2573,11 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>691040</v>
+        <v>691020</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>91</v>
@@ -2565,7 +2591,7 @@
         <v>-1</v>
       </c>
       <c r="I58" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J58" s="1">
         <v>50</v>
@@ -2577,62 +2603,74 @@
       <c r="O58" s="1"/>
     </row>
     <row r="59" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15">
-        <v>691120</v>
-      </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15">
-        <v>5</v>
-      </c>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
+      <c r="A59" s="1">
+        <v>691030</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>3</v>
+      </c>
+      <c r="J59" s="1">
+        <v>50</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
     </row>
     <row r="60" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15">
-        <v>691130</v>
-      </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15">
-        <v>10</v>
-      </c>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
+      <c r="A60" s="1">
+        <v>691040</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I60" s="1">
+        <v>2</v>
+      </c>
+      <c r="J60" s="1">
+        <v>50</v>
+      </c>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
     </row>
     <row r="61" spans="1:15" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
-        <v>691140</v>
+        <v>691120</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>95</v>
@@ -2642,7 +2680,7 @@
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
       <c r="I61" s="15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
@@ -2652,302 +2690,302 @@
       <c r="O61" s="15"/>
     </row>
     <row r="62" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>691220</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1">
-        <v>791200</v>
-      </c>
-      <c r="N62" s="1">
-        <v>691221</v>
-      </c>
-      <c r="O62" s="1"/>
+      <c r="A62" s="15">
+        <v>691130</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15">
+        <v>10</v>
+      </c>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
     </row>
     <row r="63" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>691221</v>
-      </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I63" s="1">
-        <v>5000</v>
-      </c>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1">
-        <v>1</v>
-      </c>
-      <c r="N63" s="1">
-        <v>691222</v>
-      </c>
-      <c r="O63" s="1"/>
+      <c r="A63" s="15">
+        <v>691140</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15">
+        <v>20</v>
+      </c>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
     </row>
     <row r="64" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>691222</v>
+        <v>691220</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="1">
-        <v>10</v>
-      </c>
-      <c r="I64" s="1">
-        <v>691220</v>
-      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
+      <c r="M64" s="1">
+        <v>791200</v>
+      </c>
+      <c r="N64" s="1">
+        <v>691221</v>
+      </c>
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>691230</v>
+        <v>691221</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+      <c r="H65" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I65" s="1">
+        <v>5000</v>
+      </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
-        <v>791200</v>
+        <v>1</v>
       </c>
       <c r="N65" s="1">
-        <v>691231</v>
+        <v>691222</v>
       </c>
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>691231</v>
+        <v>691222</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="I66" s="1">
-        <v>7000</v>
+        <v>691220</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="1">
-        <v>1</v>
-      </c>
-      <c r="N66" s="1">
-        <v>691232</v>
-      </c>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>691232</v>
+        <v>691230</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="1">
-        <v>10</v>
-      </c>
-      <c r="I67" s="1">
-        <v>691230</v>
-      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
+      <c r="M67" s="1">
+        <v>791200</v>
+      </c>
+      <c r="N67" s="1">
+        <v>691231</v>
+      </c>
       <c r="O67" s="1"/>
     </row>
     <row r="68" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>691240</v>
+        <v>691231</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
+      <c r="H68" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I68" s="1">
+        <v>7000</v>
+      </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
-        <v>791200</v>
+        <v>1</v>
       </c>
       <c r="N68" s="1">
-        <v>691241</v>
+        <v>691232</v>
       </c>
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>691241</v>
+        <v>691232</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="I69" s="1">
-        <v>15000</v>
+        <v>691230</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="1">
-        <v>1</v>
-      </c>
-      <c r="N69" s="1">
-        <v>691242</v>
-      </c>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
     <row r="70" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>691242</v>
+        <v>691240</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="1">
-        <v>10</v>
-      </c>
-      <c r="I70" s="1">
-        <v>691240</v>
-      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
+      <c r="M70" s="1">
+        <v>791200</v>
+      </c>
+      <c r="N70" s="1">
+        <v>691241</v>
+      </c>
       <c r="O70" s="1"/>
     </row>
     <row r="71" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>691320</v>
+        <v>691241</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E71" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="H71" s="1">
+        <v>2000</v>
+      </c>
       <c r="I71" s="1">
-        <v>2500</v>
+        <v>15000</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
+      <c r="M71" s="1">
+        <v>1</v>
+      </c>
+      <c r="N71" s="1">
+        <v>691242</v>
+      </c>
       <c r="O71" s="1"/>
     </row>
     <row r="72" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>691330</v>
+        <v>691242</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
+      <c r="H72" s="1">
+        <v>10</v>
+      </c>
       <c r="I72" s="1">
-        <v>5000</v>
+        <v>691240</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -2958,11 +2996,11 @@
     </row>
     <row r="73" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>691340</v>
+        <v>691320</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>100</v>
@@ -2972,7 +3010,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -2983,25 +3021,23 @@
     </row>
     <row r="74" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>691420</v>
+        <v>691330</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1">
-        <v>691421</v>
-      </c>
-      <c r="J74" s="1">
-        <v>691422</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -3010,20 +3046,22 @@
     </row>
     <row r="75" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>691421</v>
+        <v>691340</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
+      <c r="I75" s="1">
+        <v>10000</v>
+      </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -3033,27 +3071,25 @@
     </row>
     <row r="76" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>691422</v>
+        <v>691420</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="1">
-        <v>-1</v>
-      </c>
+      <c r="H76" s="1"/>
       <c r="I76" s="1">
-        <v>2500</v>
-      </c>
-      <c r="J76" s="1"/>
+        <v>691421</v>
+      </c>
+      <c r="J76" s="1">
+        <v>691422</v>
+      </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
@@ -3062,25 +3098,21 @@
     </row>
     <row r="77" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>691430</v>
+        <v>691421</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="1">
-        <v>691431</v>
-      </c>
-      <c r="J77" s="1">
-        <v>691432</v>
-      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -3089,20 +3121,26 @@
     </row>
     <row r="78" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>691431</v>
+        <v>691422</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E78" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="H78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I78" s="1">
+        <v>2500</v>
+      </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -3112,27 +3150,25 @@
     </row>
     <row r="79" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>691432</v>
+        <v>691430</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="1">
-        <v>-1</v>
-      </c>
+      <c r="H79" s="1"/>
       <c r="I79" s="1">
-        <v>5000</v>
-      </c>
-      <c r="J79" s="1"/>
+        <v>691431</v>
+      </c>
+      <c r="J79" s="1">
+        <v>691432</v>
+      </c>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -3141,25 +3177,21 @@
     </row>
     <row r="80" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>691440</v>
+        <v>691431</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="1">
-        <v>691441</v>
-      </c>
-      <c r="J80" s="1">
-        <v>691442</v>
-      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
@@ -3168,20 +3200,26 @@
     </row>
     <row r="81" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>691441</v>
+        <v>691432</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E81" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
+      <c r="H81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I81" s="1">
+        <v>5000</v>
+      </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -3191,99 +3229,111 @@
     </row>
     <row r="82" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>691442</v>
+        <v>691440</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="1">
-        <v>-1</v>
-      </c>
+      <c r="H82" s="1"/>
       <c r="I82" s="1">
-        <v>7500</v>
-      </c>
-      <c r="J82" s="1"/>
+        <v>691441</v>
+      </c>
+      <c r="J82" s="1">
+        <v>691442</v>
+      </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8">
+    <row r="83" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>691441</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+    </row>
+    <row r="84" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>691442</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I84" s="1">
+        <v>7500</v>
+      </c>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+    </row>
+    <row r="85" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
         <v>698765</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="9" t="s">
+      <c r="B85" s="8"/>
+      <c r="C85" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8">
+      <c r="D85" s="10"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8">
         <v>790000</v>
       </c>
-      <c r="N83" s="11" t="s">
+      <c r="N85" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O83" s="8"/>
-    </row>
-    <row r="84" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>600001</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H84" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I84" s="17">
-        <v>1</v>
-      </c>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-    </row>
-    <row r="85" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>600002</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H85" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I85" s="17">
-        <v>2</v>
-      </c>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
     </row>
     <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>600003</v>
+        <v>600001</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>33</v>
@@ -3295,14 +3345,14 @@
         <v>-1</v>
       </c>
       <c r="I86" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
     </row>
     <row r="87" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>600004</v>
+        <v>600002</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>33</v>
@@ -3314,14 +3364,14 @@
         <v>-1</v>
       </c>
       <c r="I87" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M87" s="8"/>
       <c r="N87" s="8"/>
     </row>
     <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>600005</v>
+        <v>600003</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>33</v>
@@ -3333,14 +3383,14 @@
         <v>-1</v>
       </c>
       <c r="I88" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
     </row>
     <row r="89" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>600006</v>
+        <v>600004</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>33</v>
@@ -3352,14 +3402,14 @@
         <v>-1</v>
       </c>
       <c r="I89" s="17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M89" s="8"/>
       <c r="N89" s="8"/>
     </row>
     <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>600007</v>
+        <v>600005</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>33</v>
@@ -3371,14 +3421,14 @@
         <v>-1</v>
       </c>
       <c r="I90" s="17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
     </row>
     <row r="91" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>600008</v>
+        <v>600006</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>33</v>
@@ -3390,14 +3440,14 @@
         <v>-1</v>
       </c>
       <c r="I91" s="17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M91" s="8"/>
       <c r="N91" s="8"/>
     </row>
     <row r="92" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>600009</v>
+        <v>600007</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>33</v>
@@ -3409,14 +3459,14 @@
         <v>-1</v>
       </c>
       <c r="I92" s="17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M92" s="8"/>
       <c r="N92" s="8"/>
     </row>
     <row r="93" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>600010</v>
+        <v>600008</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>33</v>
@@ -3428,20 +3478,57 @@
         <v>-1</v>
       </c>
       <c r="I93" s="17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M93" s="8"/>
       <c r="N93" s="8"/>
     </row>
-    <row r="94" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>600009</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I94" s="17">
+        <v>9</v>
+      </c>
       <c r="M94" s="8"/>
       <c r="N94" s="8"/>
     </row>
-    <row r="95" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>600010</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H95" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I95" s="17">
+        <v>10</v>
+      </c>
       <c r="M95" s="8"/>
       <c r="N95" s="8"/>
     </row>
-    <row r="96" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D96" s="3"/>
       <c r="M96" s="8"/>
       <c r="N96" s="8"/>
     </row>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6728A9B7-0DD6-4C73-91E6-F0F10ECDD0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AEF8C4-9240-4D91-B6E7-B8F52705698A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="149">
   <si>
     <t>ID</t>
   </si>
@@ -395,42 +395,15 @@
     <t>LAPLACIAN(M) Synergy Trigger 제거</t>
   </si>
   <si>
-    <t>4 LAPLACIAN Synergy Condition: 모든 라플라시안 기물이 존재하는가?</t>
-  </si>
-  <si>
-    <t>4 LAPLACIAN Synergy(0): 라플라시안 Synergy Multicasting</t>
-  </si>
-  <si>
-    <t>0690051.0690054.0690055.0690056.0690057</t>
-  </si>
-  <si>
     <t>1) LAPLACIAN 기물 최대 체력 500 증가</t>
   </si>
   <si>
     <t>INCREASE_MAX_HP</t>
   </si>
   <si>
-    <t>2) LAPLCAIAN 기물 최종 데미지 30% 증가</t>
-  </si>
-  <si>
     <t>BUFF_TOTAL_DAMAGE</t>
   </si>
   <si>
-    <t>4 LAPLACIAN Synergy(1): 모든 아군 AS 20% 증가</t>
-  </si>
-  <si>
-    <t>4 LAPLACIAN Synergy(2): 모든 아군 기본 공격시 추가 마나 5 획득</t>
-  </si>
-  <si>
-    <t>4 LAPLACIAN Synergy(3): 모든 아군 DAMAGE_REDUCTION 10% 획득</t>
-  </si>
-  <si>
-    <t>4 LAPLACIAN Synergy(4): 모든 아군 AD 혹은 AP 20% 증가</t>
-  </si>
-  <si>
-    <t>4 LAPLACIAN Synergy Trigger 제거</t>
-  </si>
-  <si>
     <t>ARMOR(2) Synergy Condition: 처음으로 HP가 50% 이하가 되었는가?</t>
   </si>
   <si>
@@ -461,13 +434,46 @@
     <t>1) 전투 시작시. 적 진영의 후방으로 도약</t>
   </si>
   <si>
-    <t>LAPLACIAN(2) NO BUFF, ONLY ICON</t>
-  </si>
-  <si>
-    <t>LAPLACIAN(3) NO BUFF, ONLY ICON</t>
-  </si>
-  <si>
     <t>아무것도없는거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECK_CONDITION</t>
+  </si>
+  <si>
+    <t>4 LAPLACIAN Synergy(1): LAPLACIAN BUFF Synergy Multicasting</t>
+  </si>
+  <si>
+    <t>2) LAPLACIAN 기물 최종 데미지 30% 증가</t>
+  </si>
+  <si>
+    <t>4 LAPLACIAN Synergy(2): ALLY BUFF Synergy Multicasting</t>
+  </si>
+  <si>
+    <t>1) 모든 아군 AS 20% 증가</t>
+  </si>
+  <si>
+    <t>2) 모든 아군 기본 공격시 추가 마나 5 획득</t>
+  </si>
+  <si>
+    <t>3) 모든 아군 DAMAGE_REDUCTION 10% 획득</t>
+  </si>
+  <si>
+    <t>4) 모든 아군 AD 20% 증가</t>
+  </si>
+  <si>
+    <t>5) 모든 아군 AP 20% 증가</t>
+  </si>
+  <si>
+    <t>input5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAMAGE_REDUCTION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -633,26 +639,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -689,18 +680,13 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -919,10 +905,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O127"/>
+  <dimension ref="A1:P125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -931,14 +917,14 @@
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="106.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -975,15 +961,18 @@
       <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1018,17 +1007,20 @@
       <c r="L2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1063,15 +1055,18 @@
       <c r="L3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>600110</v>
       </c>
@@ -1101,8 +1096,9 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>600210</v>
       </c>
@@ -1130,8 +1126,9 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>600211</v>
       </c>
@@ -1159,8 +1156,9 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>600310</v>
       </c>
@@ -1188,8 +1186,9 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>600311</v>
       </c>
@@ -1219,8 +1218,9 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>600410</v>
       </c>
@@ -1250,8 +1250,9 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>600411</v>
       </c>
@@ -1279,8 +1280,9 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>610210</v>
       </c>
@@ -1310,8 +1312,9 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>610311</v>
       </c>
@@ -1341,8 +1344,9 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>610410</v>
       </c>
@@ -1372,8 +1376,9 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>600510</v>
       </c>
@@ -1401,8 +1406,9 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>600511</v>
       </c>
@@ -1424,8 +1430,9 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>600512</v>
       </c>
@@ -1451,8 +1458,9 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>600610</v>
       </c>
@@ -1480,8 +1488,9 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>600611</v>
       </c>
@@ -1507,8 +1516,9 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>600710</v>
       </c>
@@ -1538,8 +1548,9 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>600711</v>
       </c>
@@ -1567,8 +1578,9 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>600712</v>
       </c>
@@ -1596,8 +1608,9 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>600713</v>
       </c>
@@ -1625,8 +1638,9 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>600810</v>
       </c>
@@ -1654,8 +1668,9 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>600811</v>
       </c>
@@ -1683,8 +1698,9 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>600812</v>
       </c>
@@ -1712,8 +1728,9 @@
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="14"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>690010</v>
       </c>
@@ -1721,7 +1738,9 @@
       <c r="C26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1730,15 +1749,16 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1">
+      <c r="M26" s="1"/>
+      <c r="N26" s="1">
         <v>790000</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <v>690011</v>
       </c>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>690011</v>
       </c>
@@ -1763,15 +1783,16 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="1">
+      <c r="M27" s="1"/>
+      <c r="N27" s="1">
         <v>1</v>
       </c>
-      <c r="N27" s="1">
+      <c r="O27" s="1">
         <v>690012</v>
       </c>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>690012</v>
       </c>
@@ -1797,8 +1818,9 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>690020</v>
       </c>
@@ -1806,7 +1828,9 @@
       <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1815,15 +1839,16 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="1">
+      <c r="M29" s="1"/>
+      <c r="N29" s="1">
         <v>790001</v>
       </c>
-      <c r="N29" s="1">
+      <c r="O29" s="1">
         <v>690021</v>
       </c>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>690021</v>
       </c>
@@ -1846,15 +1871,16 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1">
+      <c r="M30" s="1"/>
+      <c r="N30" s="1">
         <v>1</v>
       </c>
-      <c r="N30" s="1">
+      <c r="O30" s="1">
         <v>690022</v>
       </c>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>690022</v>
       </c>
@@ -1880,8 +1906,9 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>690030</v>
       </c>
@@ -1889,7 +1916,9 @@
       <c r="C32" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1898,15 +1927,16 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1">
+      <c r="M32" s="1"/>
+      <c r="N32" s="1">
         <v>790002</v>
       </c>
-      <c r="N32" s="1">
+      <c r="O32" s="1">
         <v>690031</v>
       </c>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>690031</v>
       </c>
@@ -1931,15 +1961,16 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="1">
+      <c r="M33" s="1"/>
+      <c r="N33" s="1">
         <v>1</v>
       </c>
-      <c r="N33" s="1">
+      <c r="O33" s="1">
         <v>690032</v>
       </c>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>690032</v>
       </c>
@@ -1965,8 +1996,9 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>690040</v>
       </c>
@@ -1974,7 +2006,9 @@
       <c r="C35" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1983,15 +2017,16 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1">
+      <c r="M35" s="1"/>
+      <c r="N35" s="1">
         <v>790003</v>
       </c>
-      <c r="N35" s="1">
+      <c r="O35" s="1">
         <v>690041</v>
       </c>
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>690041</v>
       </c>
@@ -2017,8 +2052,9 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>690042</v>
       </c>
@@ -2046,8 +2082,9 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>690043</v>
       </c>
@@ -2075,8 +2112,9 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>690044</v>
       </c>
@@ -2102,77 +2140,95 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18">
-        <v>690002</v>
-      </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-    </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
-        <v>690003</v>
-      </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
+        <v>690050</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17">
+        <v>690051</v>
+      </c>
+      <c r="J40" s="17">
+        <v>690052</v>
+      </c>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>690051</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1">
+        <v>500</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>690050</v>
+        <v>690052</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="1">
+        <v>3000</v>
+      </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
-    </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>690051</v>
+        <v>690060</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>60</v>
@@ -2182,38 +2238,44 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1">
-        <v>690052</v>
+        <v>690061</v>
       </c>
       <c r="J43" s="1">
-        <v>690053</v>
-      </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
+        <v>690062</v>
+      </c>
+      <c r="K43" s="1">
+        <v>690063</v>
+      </c>
+      <c r="L43" s="1">
+        <v>690064</v>
+      </c>
       <c r="M43" s="1">
-        <v>790004</v>
-      </c>
-      <c r="N43" s="16" t="s">
-        <v>125</v>
+        <v>690065</v>
       </c>
       <c r="O43" s="1"/>
-    </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>690052</v>
+        <v>690061</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="H44" s="1">
+        <v>-1</v>
+      </c>
       <c r="I44" s="1">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2221,24 +2283,27 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
-    </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>690053</v>
+        <v>690062</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="H45" s="1">
+        <v>-1</v>
+      </c>
       <c r="I45" s="1">
-        <v>3000</v>
+        <v>5</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -2246,134 +2311,145 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>690054</v>
+        <v>690063</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1">
         <v>-1</v>
       </c>
-      <c r="I46" s="1"/>
+      <c r="I46" s="1">
+        <v>1000</v>
+      </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="1">
-        <v>1</v>
-      </c>
-      <c r="N46" s="1">
-        <v>690056</v>
-      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>690055</v>
+        <v>690064</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1">
         <v>-1</v>
       </c>
-      <c r="I47" s="1"/>
+      <c r="I47" s="1">
+        <v>2000</v>
+      </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="1">
-        <v>1</v>
-      </c>
-      <c r="N47" s="1">
-        <v>690056</v>
-      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-    </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>690056</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1">
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>690065</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14">
         <v>-1</v>
       </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1">
-        <v>1</v>
-      </c>
-      <c r="N48" s="1">
-        <v>690056</v>
-      </c>
-      <c r="O48" s="1"/>
-    </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="14">
+        <v>2000</v>
+      </c>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+    </row>
+    <row r="49" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>690057</v>
+        <v>690120</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D49" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1">
-        <v>-1</v>
+        <v>7000</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="1">
-        <v>1</v>
-      </c>
-      <c r="N49" s="1">
-        <v>690056</v>
-      </c>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-    </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>690058</v>
+        <v>690121</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I50" s="1">
-        <v>690050</v>
+        <v>3000</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -2381,14 +2457,15 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
-    </row>
-    <row r="51" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>690120</v>
+        <v>690130</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>82</v>
@@ -2399,21 +2476,24 @@
       <c r="H51" s="1">
         <v>7000</v>
       </c>
-      <c r="I51" s="1"/>
+      <c r="I51" s="1">
+        <v>5000</v>
+      </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
-    </row>
-    <row r="52" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>690121</v>
+        <v>690131</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>51</v>
@@ -2426,23 +2506,22 @@
       <c r="H52" s="1">
         <v>-1</v>
       </c>
-      <c r="I52" s="1">
-        <v>3000</v>
-      </c>
+      <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
-    </row>
-    <row r="53" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>690130</v>
+        <v>690140</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>82</v>
@@ -2453,34 +2532,33 @@
       <c r="H53" s="1">
         <v>7000</v>
       </c>
-      <c r="I53" s="1">
-        <v>5000</v>
-      </c>
+      <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
-    </row>
-    <row r="54" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>690131</v>
+        <v>690141</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="H54" s="1">
-        <v>-1</v>
+        <v>2000</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2489,95 +2567,109 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
-    </row>
-    <row r="55" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>690140</v>
+        <v>690142</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1">
-        <v>7000</v>
-      </c>
-      <c r="I55" s="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I55" s="1">
+        <v>15000</v>
+      </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
-    </row>
-    <row r="56" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>690141</v>
+        <v>691020</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="F56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="1"/>
       <c r="H56" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I56" s="1">
+        <v>5</v>
+      </c>
+      <c r="J56" s="1">
+        <v>50</v>
+      </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
-    </row>
-    <row r="57" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P56" s="1"/>
+    </row>
+    <row r="57" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>690142</v>
+        <v>691030</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F57" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1">
         <v>-1</v>
       </c>
       <c r="I57" s="1">
-        <v>15000</v>
-      </c>
-      <c r="J57" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J57" s="1">
+        <v>50</v>
+      </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
-    </row>
-    <row r="58" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P57" s="1"/>
+    </row>
+    <row r="58" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>691020</v>
+        <v>691040</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>91</v>
@@ -2591,7 +2683,7 @@
         <v>-1</v>
       </c>
       <c r="I58" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J58" s="1">
         <v>50</v>
@@ -2601,76 +2693,67 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
-    </row>
-    <row r="59" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>691030</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I59" s="1">
-        <v>3</v>
-      </c>
-      <c r="J59" s="1">
-        <v>50</v>
-      </c>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-    </row>
-    <row r="60" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>691040</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I60" s="1">
-        <v>2</v>
-      </c>
-      <c r="J60" s="1">
-        <v>50</v>
-      </c>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-    </row>
-    <row r="61" spans="1:15" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P58" s="1"/>
+    </row>
+    <row r="59" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15">
+        <v>691120</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15">
+        <v>5</v>
+      </c>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+    </row>
+    <row r="60" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15">
+        <v>691130</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15">
+        <v>10</v>
+      </c>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+    </row>
+    <row r="61" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
-        <v>691120</v>
+        <v>691140</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>95</v>
@@ -2680,7 +2763,7 @@
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
       <c r="I61" s="15">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
@@ -2688,304 +2771,321 @@
       <c r="M61" s="15"/>
       <c r="N61" s="15"/>
       <c r="O61" s="15"/>
-    </row>
-    <row r="62" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="15">
-        <v>691130</v>
-      </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15">
-        <v>10</v>
-      </c>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-    </row>
-    <row r="63" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15">
-        <v>691140</v>
-      </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15">
-        <v>20</v>
-      </c>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-    </row>
-    <row r="64" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P61" s="15"/>
+    </row>
+    <row r="62" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>691220</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1">
+        <v>791200</v>
+      </c>
+      <c r="O62" s="1">
+        <v>691221</v>
+      </c>
+      <c r="P62" s="1"/>
+    </row>
+    <row r="63" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>691221</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I63" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1">
+        <v>1</v>
+      </c>
+      <c r="O63" s="1">
+        <v>691222</v>
+      </c>
+      <c r="P63" s="1"/>
+    </row>
+    <row r="64" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>691220</v>
+        <v>691222</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+      <c r="H64" s="1">
+        <v>10</v>
+      </c>
+      <c r="I64" s="1">
+        <v>691220</v>
+      </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="1">
-        <v>791200</v>
-      </c>
-      <c r="N64" s="1">
-        <v>691221</v>
-      </c>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-    </row>
-    <row r="65" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P64" s="1"/>
+    </row>
+    <row r="65" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>691221</v>
+        <v>691230</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I65" s="1">
-        <v>5000</v>
-      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="1">
-        <v>1</v>
-      </c>
+      <c r="M65" s="1"/>
       <c r="N65" s="1">
-        <v>691222</v>
-      </c>
-      <c r="O65" s="1"/>
-    </row>
-    <row r="66" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>791200</v>
+      </c>
+      <c r="O65" s="1">
+        <v>691231</v>
+      </c>
+      <c r="P65" s="1"/>
+    </row>
+    <row r="66" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>691222</v>
+        <v>691231</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E66" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="I66" s="1">
-        <v>691220</v>
+        <v>7000</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-    </row>
-    <row r="67" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N66" s="1">
+        <v>1</v>
+      </c>
+      <c r="O66" s="1">
+        <v>691232</v>
+      </c>
+      <c r="P66" s="1"/>
+    </row>
+    <row r="67" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>691230</v>
+        <v>691232</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D67" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="H67" s="1">
+        <v>10</v>
+      </c>
+      <c r="I67" s="1">
+        <v>691230</v>
+      </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="1">
-        <v>791200</v>
-      </c>
-      <c r="N67" s="1">
-        <v>691231</v>
-      </c>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
       <c r="O67" s="1"/>
-    </row>
-    <row r="68" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P67" s="1"/>
+    </row>
+    <row r="68" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>691231</v>
+        <v>691240</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I68" s="1">
-        <v>7000</v>
-      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="1">
-        <v>1</v>
-      </c>
+      <c r="M68" s="1"/>
       <c r="N68" s="1">
-        <v>691232</v>
-      </c>
-      <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>791200</v>
+      </c>
+      <c r="O68" s="1">
+        <v>691241</v>
+      </c>
+      <c r="P68" s="1"/>
+    </row>
+    <row r="69" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>691232</v>
+        <v>691241</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E69" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="I69" s="1">
-        <v>691230</v>
+        <v>15000</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-    </row>
-    <row r="70" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N69" s="1">
+        <v>1</v>
+      </c>
+      <c r="O69" s="1">
+        <v>691242</v>
+      </c>
+      <c r="P69" s="1"/>
+    </row>
+    <row r="70" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>691240</v>
+        <v>691242</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D70" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="H70" s="1">
+        <v>10</v>
+      </c>
+      <c r="I70" s="1">
+        <v>691240</v>
+      </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="1">
-        <v>791200</v>
-      </c>
-      <c r="N70" s="1">
-        <v>691241</v>
-      </c>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
       <c r="O70" s="1"/>
-    </row>
-    <row r="71" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>691241</v>
+        <v>691320</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="1">
-        <v>2000</v>
-      </c>
+      <c r="H71" s="1"/>
       <c r="I71" s="1">
-        <v>15000</v>
+        <v>2500</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-      <c r="M71" s="1">
-        <v>1</v>
-      </c>
-      <c r="N71" s="1">
-        <v>691242</v>
-      </c>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
       <c r="O71" s="1"/>
-    </row>
-    <row r="72" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P71" s="1"/>
+    </row>
+    <row r="72" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>691242</v>
+        <v>691330</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="1">
-        <v>10</v>
-      </c>
+      <c r="H72" s="1"/>
       <c r="I72" s="1">
-        <v>691240</v>
+        <v>5000</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -2993,14 +3093,15 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
-    </row>
-    <row r="73" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P72" s="1"/>
+    </row>
+    <row r="73" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>691320</v>
+        <v>691340</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>100</v>
@@ -3010,7 +3111,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -3018,322 +3119,321 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
-    </row>
-    <row r="74" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P73" s="1"/>
+    </row>
+    <row r="74" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>691330</v>
+        <v>691420</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1">
-        <v>5000</v>
-      </c>
-      <c r="J74" s="1"/>
+        <v>691421</v>
+      </c>
+      <c r="J74" s="1">
+        <v>691422</v>
+      </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
-    </row>
-    <row r="75" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P74" s="1"/>
+    </row>
+    <row r="75" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>691340</v>
+        <v>691421</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1">
-        <v>10000</v>
-      </c>
+      <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
-    </row>
-    <row r="76" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P75" s="1"/>
+    </row>
+    <row r="76" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>691420</v>
+        <v>691422</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E76" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="H76" s="1">
+        <v>-1</v>
+      </c>
       <c r="I76" s="1">
-        <v>691421</v>
-      </c>
-      <c r="J76" s="1">
-        <v>691422</v>
-      </c>
+        <v>2500</v>
+      </c>
+      <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
-    </row>
-    <row r="77" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P76" s="1"/>
+    </row>
+    <row r="77" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>691421</v>
+        <v>691430</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="I77" s="1">
+        <v>691431</v>
+      </c>
+      <c r="J77" s="1">
+        <v>691432</v>
+      </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
-    </row>
-    <row r="78" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P77" s="1"/>
+    </row>
+    <row r="78" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>691422</v>
+        <v>691431</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I78" s="1">
-        <v>2500</v>
-      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
-    </row>
-    <row r="79" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P78" s="1"/>
+    </row>
+    <row r="79" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>691430</v>
+        <v>691432</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E79" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="H79" s="1">
+        <v>-1</v>
+      </c>
       <c r="I79" s="1">
-        <v>691431</v>
-      </c>
-      <c r="J79" s="1">
-        <v>691432</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
-    </row>
-    <row r="80" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P79" s="1"/>
+    </row>
+    <row r="80" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>691431</v>
+        <v>691440</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
+      <c r="I80" s="1">
+        <v>691441</v>
+      </c>
+      <c r="J80" s="1">
+        <v>691442</v>
+      </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
-    </row>
-    <row r="81" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P80" s="1"/>
+    </row>
+    <row r="81" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>691432</v>
+        <v>691441</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I81" s="1">
-        <v>5000</v>
-      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
-    </row>
-    <row r="82" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P81" s="1"/>
+    </row>
+    <row r="82" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>691440</v>
+        <v>691442</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E82" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="H82" s="1">
+        <v>-1</v>
+      </c>
       <c r="I82" s="1">
-        <v>691441</v>
-      </c>
-      <c r="J82" s="1">
-        <v>691442</v>
-      </c>
+        <v>7500</v>
+      </c>
+      <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
-    </row>
-    <row r="83" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>691441</v>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-    </row>
-    <row r="84" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>691442</v>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1">
+      <c r="P82" s="1"/>
+    </row>
+    <row r="83" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
+        <v>698765</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="10"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8">
+        <v>790000</v>
+      </c>
+      <c r="O83" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P83" s="8"/>
+    </row>
+    <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>600001</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H84" s="3">
         <v>-1</v>
       </c>
-      <c r="I84" s="1">
-        <v>7500</v>
-      </c>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-    </row>
-    <row r="85" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="8">
-        <v>698765</v>
-      </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D85" s="10"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8">
-        <v>790000</v>
-      </c>
-      <c r="N85" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="I84" s="16">
+        <v>1</v>
+      </c>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+    </row>
+    <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>600002</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H85" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I85" s="16">
+        <v>2</v>
+      </c>
+      <c r="N85" s="8"/>
       <c r="O85" s="8"/>
     </row>
-    <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>600001</v>
+        <v>600003</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>33</v>
@@ -3344,15 +3444,15 @@
       <c r="H86" s="3">
         <v>-1</v>
       </c>
-      <c r="I86" s="17">
-        <v>1</v>
-      </c>
-      <c r="M86" s="8"/>
+      <c r="I86" s="16">
+        <v>3</v>
+      </c>
       <c r="N86" s="8"/>
-    </row>
-    <row r="87" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O86" s="8"/>
+    </row>
+    <row r="87" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>600002</v>
+        <v>600004</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>33</v>
@@ -3363,15 +3463,15 @@
       <c r="H87" s="3">
         <v>-1</v>
       </c>
-      <c r="I87" s="17">
-        <v>2</v>
-      </c>
-      <c r="M87" s="8"/>
+      <c r="I87" s="16">
+        <v>4</v>
+      </c>
       <c r="N87" s="8"/>
-    </row>
-    <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O87" s="8"/>
+    </row>
+    <row r="88" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>600003</v>
+        <v>600005</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>33</v>
@@ -3382,15 +3482,15 @@
       <c r="H88" s="3">
         <v>-1</v>
       </c>
-      <c r="I88" s="17">
-        <v>3</v>
-      </c>
-      <c r="M88" s="8"/>
+      <c r="I88" s="16">
+        <v>5</v>
+      </c>
       <c r="N88" s="8"/>
-    </row>
-    <row r="89" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O88" s="8"/>
+    </row>
+    <row r="89" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>600004</v>
+        <v>600006</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>33</v>
@@ -3401,15 +3501,15 @@
       <c r="H89" s="3">
         <v>-1</v>
       </c>
-      <c r="I89" s="17">
-        <v>4</v>
-      </c>
-      <c r="M89" s="8"/>
+      <c r="I89" s="16">
+        <v>6</v>
+      </c>
       <c r="N89" s="8"/>
-    </row>
-    <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O89" s="8"/>
+    </row>
+    <row r="90" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>600005</v>
+        <v>600007</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>33</v>
@@ -3420,15 +3520,15 @@
       <c r="H90" s="3">
         <v>-1</v>
       </c>
-      <c r="I90" s="17">
-        <v>5</v>
-      </c>
-      <c r="M90" s="8"/>
+      <c r="I90" s="16">
+        <v>7</v>
+      </c>
       <c r="N90" s="8"/>
-    </row>
-    <row r="91" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O90" s="8"/>
+    </row>
+    <row r="91" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>600006</v>
+        <v>600008</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>33</v>
@@ -3439,15 +3539,15 @@
       <c r="H91" s="3">
         <v>-1</v>
       </c>
-      <c r="I91" s="17">
-        <v>6</v>
-      </c>
-      <c r="M91" s="8"/>
+      <c r="I91" s="16">
+        <v>8</v>
+      </c>
       <c r="N91" s="8"/>
-    </row>
-    <row r="92" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O91" s="8"/>
+    </row>
+    <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>600007</v>
+        <v>600009</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>33</v>
@@ -3458,15 +3558,15 @@
       <c r="H92" s="3">
         <v>-1</v>
       </c>
-      <c r="I92" s="17">
-        <v>7</v>
-      </c>
-      <c r="M92" s="8"/>
+      <c r="I92" s="16">
+        <v>9</v>
+      </c>
       <c r="N92" s="8"/>
-    </row>
-    <row r="93" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O92" s="8"/>
+    </row>
+    <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>600008</v>
+        <v>600010</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>33</v>
@@ -3477,184 +3577,146 @@
       <c r="H93" s="3">
         <v>-1</v>
       </c>
-      <c r="I93" s="17">
-        <v>8</v>
-      </c>
-      <c r="M93" s="8"/>
+      <c r="I93" s="16">
+        <v>10</v>
+      </c>
       <c r="N93" s="8"/>
-    </row>
-    <row r="94" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O93" s="8"/>
+    </row>
+    <row r="94" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>600009</v>
+        <v>0</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I94" s="17">
-        <v>9</v>
-      </c>
-      <c r="M94" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="D94" s="3"/>
       <c r="N94" s="8"/>
-    </row>
-    <row r="95" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>600010</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H95" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I95" s="17">
-        <v>10</v>
-      </c>
-      <c r="M95" s="8"/>
+      <c r="O94" s="8"/>
+    </row>
+    <row r="95" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N95" s="8"/>
-    </row>
-    <row r="96" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>0</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D96" s="3"/>
-      <c r="M96" s="8"/>
+      <c r="O95" s="8"/>
+    </row>
+    <row r="96" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N96" s="8"/>
-    </row>
-    <row r="97" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M97" s="8"/>
+      <c r="O96" s="8"/>
+    </row>
+    <row r="97" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N97" s="8"/>
-    </row>
-    <row r="98" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M98" s="8"/>
+      <c r="O97" s="8"/>
+    </row>
+    <row r="98" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N98" s="8"/>
-    </row>
-    <row r="99" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M99" s="8"/>
+      <c r="O98" s="8"/>
+    </row>
+    <row r="99" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N99" s="8"/>
-    </row>
-    <row r="100" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M100" s="8"/>
+      <c r="O99" s="8"/>
+    </row>
+    <row r="100" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N100" s="8"/>
-    </row>
-    <row r="101" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M101" s="8"/>
+      <c r="O100" s="8"/>
+    </row>
+    <row r="101" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N101" s="8"/>
-    </row>
-    <row r="102" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M102" s="8"/>
+      <c r="O101" s="8"/>
+    </row>
+    <row r="102" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N102" s="8"/>
-    </row>
-    <row r="103" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M103" s="8"/>
+      <c r="O102" s="8"/>
+    </row>
+    <row r="103" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N103" s="8"/>
-    </row>
-    <row r="104" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M104" s="8"/>
+      <c r="O103" s="8"/>
+    </row>
+    <row r="104" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N104" s="8"/>
-    </row>
-    <row r="105" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M105" s="8"/>
+      <c r="O104" s="8"/>
+    </row>
+    <row r="105" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N105" s="8"/>
-    </row>
-    <row r="106" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M106" s="8"/>
+      <c r="O105" s="8"/>
+    </row>
+    <row r="106" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N106" s="8"/>
-    </row>
-    <row r="107" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M107" s="8"/>
+      <c r="O106" s="8"/>
+    </row>
+    <row r="107" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N107" s="8"/>
-    </row>
-    <row r="108" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M108" s="8"/>
+      <c r="O107" s="8"/>
+    </row>
+    <row r="108" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N108" s="8"/>
-    </row>
-    <row r="109" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M109" s="8"/>
+      <c r="O108" s="8"/>
+    </row>
+    <row r="109" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N109" s="8"/>
-    </row>
-    <row r="110" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M110" s="8"/>
+      <c r="O109" s="8"/>
+    </row>
+    <row r="110" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N110" s="8"/>
-    </row>
-    <row r="111" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M111" s="8"/>
+      <c r="O110" s="8"/>
+    </row>
+    <row r="111" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N111" s="8"/>
-    </row>
-    <row r="112" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M112" s="8"/>
+      <c r="O111" s="8"/>
+    </row>
+    <row r="112" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N112" s="8"/>
-    </row>
-    <row r="113" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M113" s="8"/>
+      <c r="O112" s="8"/>
+    </row>
+    <row r="113" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N113" s="8"/>
-    </row>
-    <row r="114" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M114" s="8"/>
+      <c r="O113" s="8"/>
+    </row>
+    <row r="114" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N114" s="8"/>
-    </row>
-    <row r="115" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M115" s="8"/>
+      <c r="O114" s="8"/>
+    </row>
+    <row r="115" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N115" s="8"/>
-    </row>
-    <row r="116" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M116" s="8"/>
+      <c r="O115" s="8"/>
+    </row>
+    <row r="116" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N116" s="8"/>
-    </row>
-    <row r="117" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M117" s="8"/>
+      <c r="O116" s="8"/>
+    </row>
+    <row r="117" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N117" s="8"/>
-    </row>
-    <row r="118" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M118" s="8"/>
+      <c r="O117" s="8"/>
+    </row>
+    <row r="118" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N118" s="8"/>
-    </row>
-    <row r="119" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M119" s="8"/>
+      <c r="O118" s="8"/>
+    </row>
+    <row r="119" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N119" s="8"/>
-    </row>
-    <row r="120" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M120" s="8"/>
+      <c r="O119" s="8"/>
+    </row>
+    <row r="120" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N120" s="8"/>
-    </row>
-    <row r="121" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M121" s="8"/>
+      <c r="O120" s="8"/>
+    </row>
+    <row r="121" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N121" s="8"/>
-    </row>
-    <row r="122" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M122" s="8"/>
+      <c r="O121" s="8"/>
+    </row>
+    <row r="122" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N122" s="8"/>
-    </row>
-    <row r="123" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M123" s="8"/>
+      <c r="O122" s="8"/>
+    </row>
+    <row r="123" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N123" s="8"/>
-    </row>
-    <row r="124" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M124" s="8"/>
+      <c r="O123" s="8"/>
+    </row>
+    <row r="124" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N124" s="8"/>
-    </row>
-    <row r="125" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M125" s="8"/>
+      <c r="O124" s="8"/>
+    </row>
+    <row r="125" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N125" s="8"/>
-    </row>
-    <row r="126" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M126" s="8"/>
-      <c r="N126" s="8"/>
-    </row>
-    <row r="127" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M127" s="8"/>
-      <c r="N127" s="8"/>
+      <c r="O125" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AEF8C4-9240-4D91-B6E7-B8F52705698A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6151AC-735D-436B-A42D-CA26798A18B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -687,6 +687,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -907,24 +910,24 @@
   </sheetPr>
   <dimension ref="A1:P125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="106.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -972,7 +975,7 @@
       </c>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="25.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1066,7 +1069,7 @@
       </c>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>600110</v>
       </c>
@@ -1098,7 +1101,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>600210</v>
       </c>
@@ -1128,7 +1131,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="13">
         <v>600211</v>
       </c>
@@ -1158,7 +1161,7 @@
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>600310</v>
       </c>
@@ -1188,7 +1191,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>600311</v>
       </c>
@@ -1220,7 +1223,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>600410</v>
       </c>
@@ -1252,7 +1255,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>600411</v>
       </c>
@@ -1282,7 +1285,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>610210</v>
       </c>
@@ -1314,7 +1317,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>610311</v>
       </c>
@@ -1346,7 +1349,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>610410</v>
       </c>
@@ -1378,7 +1381,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>600510</v>
       </c>
@@ -1408,7 +1411,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>600511</v>
       </c>
@@ -1432,7 +1435,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>600512</v>
       </c>
@@ -1460,7 +1463,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>600610</v>
       </c>
@@ -1490,7 +1493,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>600611</v>
       </c>
@@ -1518,7 +1521,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>600710</v>
       </c>
@@ -1550,7 +1553,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>600711</v>
       </c>
@@ -1580,7 +1583,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>600712</v>
       </c>
@@ -1610,7 +1613,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>600713</v>
       </c>
@@ -1640,7 +1643,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>600810</v>
       </c>
@@ -1670,7 +1673,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>600811</v>
       </c>
@@ -1700,7 +1703,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="14">
         <v>600812</v>
       </c>
@@ -1730,7 +1733,7 @@
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>690010</v>
       </c>
@@ -1744,7 +1747,9 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1">
+        <v>-1</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1758,7 +1763,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>690011</v>
       </c>
@@ -1792,7 +1797,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>690012</v>
       </c>
@@ -1820,7 +1825,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>690020</v>
       </c>
@@ -1834,7 +1839,9 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1">
+        <v>-1</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1848,7 +1855,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>690021</v>
       </c>
@@ -1880,7 +1887,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>690022</v>
       </c>
@@ -1908,7 +1915,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>690030</v>
       </c>
@@ -1922,7 +1929,9 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1">
+        <v>-1</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1936,7 +1945,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>690031</v>
       </c>
@@ -1970,7 +1979,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>690032</v>
       </c>
@@ -1998,7 +2007,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>690040</v>
       </c>
@@ -2012,7 +2021,9 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1">
+        <v>-1</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2026,7 +2037,7 @@
       </c>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>690041</v>
       </c>
@@ -2040,7 +2051,9 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <v>-1</v>
+      </c>
       <c r="I36" s="1">
         <v>690042</v>
       </c>
@@ -2054,7 +2067,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>690042</v>
       </c>
@@ -2070,7 +2083,7 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1">
+      <c r="H37" s="19">
         <v>-1</v>
       </c>
       <c r="I37" s="1">
@@ -2084,7 +2097,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>690043</v>
       </c>
@@ -2114,7 +2127,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>690044</v>
       </c>
@@ -2142,7 +2155,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="17">
         <v>690050</v>
       </c>
@@ -2156,7 +2169,9 @@
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="H40" s="17">
+        <v>-1</v>
+      </c>
       <c r="I40" s="17">
         <v>690051</v>
       </c>
@@ -2170,7 +2185,7 @@
       <c r="O40" s="17"/>
       <c r="P40" s="17"/>
     </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>690051</v>
       </c>
@@ -2184,7 +2199,9 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="H41" s="1">
+        <v>-1</v>
+      </c>
       <c r="I41" s="1">
         <v>500</v>
       </c>
@@ -2196,7 +2213,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>690052</v>
       </c>
@@ -2210,7 +2227,9 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1">
+        <v>-1</v>
+      </c>
       <c r="I42" s="1">
         <v>3000</v>
       </c>
@@ -2222,7 +2241,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>690060</v>
       </c>
@@ -2236,7 +2255,9 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1">
+        <v>-1</v>
+      </c>
       <c r="I43" s="1">
         <v>690061</v>
       </c>
@@ -2255,7 +2276,7 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>690061</v>
       </c>
@@ -2285,7 +2306,7 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>690062</v>
       </c>
@@ -2313,7 +2334,7 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>690063</v>
       </c>
@@ -2343,7 +2364,7 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>690064</v>
       </c>
@@ -2373,7 +2394,7 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="14">
         <v>690065</v>
       </c>
@@ -2403,7 +2424,7 @@
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
     </row>
-    <row r="49" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>690120</v>
       </c>
@@ -2429,7 +2450,7 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>690121</v>
       </c>
@@ -2459,7 +2480,7 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>690130</v>
       </c>
@@ -2487,7 +2508,7 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>690131</v>
       </c>
@@ -2515,7 +2536,7 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>690140</v>
       </c>
@@ -2541,7 +2562,7 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>690141</v>
       </c>
@@ -2569,7 +2590,7 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>690142</v>
       </c>
@@ -2599,7 +2620,7 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>691020</v>
       </c>
@@ -2631,7 +2652,7 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>691030</v>
       </c>
@@ -2663,7 +2684,7 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
     </row>
-    <row r="58" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>691040</v>
       </c>
@@ -2695,7 +2716,7 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
     </row>
-    <row r="59" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="15">
         <v>691120</v>
       </c>
@@ -2721,7 +2742,7 @@
       <c r="O59" s="15"/>
       <c r="P59" s="15"/>
     </row>
-    <row r="60" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="15">
         <v>691130</v>
       </c>
@@ -2747,7 +2768,7 @@
       <c r="O60" s="15"/>
       <c r="P60" s="15"/>
     </row>
-    <row r="61" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="15">
         <v>691140</v>
       </c>
@@ -2773,7 +2794,7 @@
       <c r="O61" s="15"/>
       <c r="P61" s="15"/>
     </row>
-    <row r="62" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>691220</v>
       </c>
@@ -2801,7 +2822,7 @@
       </c>
       <c r="P62" s="1"/>
     </row>
-    <row r="63" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>691221</v>
       </c>
@@ -2835,7 +2856,7 @@
       </c>
       <c r="P63" s="1"/>
     </row>
-    <row r="64" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>691222</v>
       </c>
@@ -2863,7 +2884,7 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
     </row>
-    <row r="65" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>691230</v>
       </c>
@@ -2891,7 +2912,7 @@
       </c>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>691231</v>
       </c>
@@ -2925,7 +2946,7 @@
       </c>
       <c r="P66" s="1"/>
     </row>
-    <row r="67" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>691232</v>
       </c>
@@ -2953,7 +2974,7 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
     </row>
-    <row r="68" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>691240</v>
       </c>
@@ -2981,7 +3002,7 @@
       </c>
       <c r="P68" s="1"/>
     </row>
-    <row r="69" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>691241</v>
       </c>
@@ -3015,7 +3036,7 @@
       </c>
       <c r="P69" s="1"/>
     </row>
-    <row r="70" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>691242</v>
       </c>
@@ -3043,7 +3064,7 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>691320</v>
       </c>
@@ -3069,7 +3090,7 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
     </row>
-    <row r="72" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>691330</v>
       </c>
@@ -3095,7 +3116,7 @@
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
     </row>
-    <row r="73" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>691340</v>
       </c>
@@ -3121,7 +3142,7 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
     </row>
-    <row r="74" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>691420</v>
       </c>
@@ -3149,7 +3170,7 @@
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
     </row>
-    <row r="75" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>691421</v>
       </c>
@@ -3173,7 +3194,7 @@
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
     </row>
-    <row r="76" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>691422</v>
       </c>
@@ -3203,7 +3224,7 @@
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
     </row>
-    <row r="77" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>691430</v>
       </c>
@@ -3231,7 +3252,7 @@
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
     </row>
-    <row r="78" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>691431</v>
       </c>
@@ -3255,7 +3276,7 @@
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
     </row>
-    <row r="79" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>691432</v>
       </c>
@@ -3285,7 +3306,7 @@
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
     </row>
-    <row r="80" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>691440</v>
       </c>
@@ -3313,7 +3334,7 @@
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
     </row>
-    <row r="81" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>691441</v>
       </c>
@@ -3337,7 +3358,7 @@
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
     </row>
-    <row r="82" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>691442</v>
       </c>
@@ -3367,7 +3388,7 @@
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
     </row>
-    <row r="83" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="8">
         <v>698765</v>
       </c>
@@ -3393,7 +3414,7 @@
       </c>
       <c r="P83" s="8"/>
     </row>
-    <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>600001</v>
       </c>
@@ -3412,7 +3433,7 @@
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
     </row>
-    <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>600002</v>
       </c>
@@ -3431,7 +3452,7 @@
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
     </row>
-    <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>600003</v>
       </c>
@@ -3450,7 +3471,7 @@
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
     </row>
-    <row r="87" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>600004</v>
       </c>
@@ -3469,7 +3490,7 @@
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
     </row>
-    <row r="88" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>600005</v>
       </c>
@@ -3488,7 +3509,7 @@
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
     </row>
-    <row r="89" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>600006</v>
       </c>
@@ -3507,7 +3528,7 @@
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
     </row>
-    <row r="90" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>600007</v>
       </c>
@@ -3526,7 +3547,7 @@
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
     </row>
-    <row r="91" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>600008</v>
       </c>
@@ -3545,7 +3566,7 @@
       <c r="N91" s="8"/>
       <c r="O91" s="8"/>
     </row>
-    <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>600009</v>
       </c>
@@ -3564,7 +3585,7 @@
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
     </row>
-    <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>600010</v>
       </c>
@@ -3583,7 +3604,7 @@
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
     </row>
-    <row r="94" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>0</v>
       </c>
@@ -3594,127 +3615,127 @@
       <c r="N94" s="8"/>
       <c r="O94" s="8"/>
     </row>
-    <row r="95" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N95" s="8"/>
       <c r="O95" s="8"/>
     </row>
-    <row r="96" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N96" s="8"/>
       <c r="O96" s="8"/>
     </row>
-    <row r="97" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N97" s="8"/>
       <c r="O97" s="8"/>
     </row>
-    <row r="98" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N98" s="8"/>
       <c r="O98" s="8"/>
     </row>
-    <row r="99" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N99" s="8"/>
       <c r="O99" s="8"/>
     </row>
-    <row r="100" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
     </row>
-    <row r="101" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N101" s="8"/>
       <c r="O101" s="8"/>
     </row>
-    <row r="102" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N102" s="8"/>
       <c r="O102" s="8"/>
     </row>
-    <row r="103" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N103" s="8"/>
       <c r="O103" s="8"/>
     </row>
-    <row r="104" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N104" s="8"/>
       <c r="O104" s="8"/>
     </row>
-    <row r="105" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N105" s="8"/>
       <c r="O105" s="8"/>
     </row>
-    <row r="106" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N106" s="8"/>
       <c r="O106" s="8"/>
     </row>
-    <row r="107" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N107" s="8"/>
       <c r="O107" s="8"/>
     </row>
-    <row r="108" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
     </row>
-    <row r="109" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N109" s="8"/>
       <c r="O109" s="8"/>
     </row>
-    <row r="110" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
     </row>
-    <row r="111" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N111" s="8"/>
       <c r="O111" s="8"/>
     </row>
-    <row r="112" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N112" s="8"/>
       <c r="O112" s="8"/>
     </row>
-    <row r="113" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N113" s="8"/>
       <c r="O113" s="8"/>
     </row>
-    <row r="114" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N114" s="8"/>
       <c r="O114" s="8"/>
     </row>
-    <row r="115" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N115" s="8"/>
       <c r="O115" s="8"/>
     </row>
-    <row r="116" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N116" s="8"/>
       <c r="O116" s="8"/>
     </row>
-    <row r="117" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N117" s="8"/>
       <c r="O117" s="8"/>
     </row>
-    <row r="118" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
     </row>
-    <row r="119" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N119" s="8"/>
       <c r="O119" s="8"/>
     </row>
-    <row r="120" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N120" s="8"/>
       <c r="O120" s="8"/>
     </row>
-    <row r="121" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N121" s="8"/>
       <c r="O121" s="8"/>
     </row>
-    <row r="122" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
     </row>
-    <row r="123" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N123" s="8"/>
       <c r="O123" s="8"/>
     </row>
-    <row r="124" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N124" s="8"/>
       <c r="O124" s="8"/>
     </row>
-    <row r="125" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N125" s="8"/>
       <c r="O125" s="8"/>
     </row>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6151AC-735D-436B-A42D-CA26798A18B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7BF8EB-95DA-4DFB-8C22-7BC79A79FD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="156">
   <si>
     <t>ID</t>
   </si>
@@ -244,9 +244,6 @@
     <t>2) AP 60% 증가</t>
   </si>
   <si>
-    <t>LAPLACIAN(L) Synergy Condition: 라플라시안 기물 중에 L만 존재하는가?</t>
-  </si>
-  <si>
     <t>LAPLACIAN(L) Synergy: 모든 아군 AS 20% 증가</t>
   </si>
   <si>
@@ -474,6 +471,135 @@
   </si>
   <si>
     <t>DAMAGE_REDUCTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAPLACIAN_ENTRYPOINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LAPLACIAN(L) Synergy Condition: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라플라시안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>존재하는가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAPLACIAN L check entry point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAPLACIAN K check entry point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAPLACIAN J check entry point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAPLACIAN M check entry point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAPLACIAN ALL check entry point 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAPLACIAN ALL check entry point 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,7 +692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -639,11 +765,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -687,7 +839,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -908,26 +1066,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P125"/>
+  <dimension ref="A1:P131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" customWidth="1"/>
-    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="106.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -965,7 +1123,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>34</v>
@@ -975,7 +1133,7 @@
       </c>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16" ht="25.9" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1011,7 +1169,7 @@
         <v>8</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>36</v>
@@ -1023,7 +1181,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1059,7 +1217,7 @@
         <v>10</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>10</v>
@@ -1069,7 +1227,7 @@
       </c>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>600110</v>
       </c>
@@ -1101,7 +1259,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>600210</v>
       </c>
@@ -1109,7 +1267,7 @@
         <v>500210</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>43</v>
@@ -1117,7 +1275,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" s="1">
         <v>6000</v>
@@ -1131,7 +1289,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>600211</v>
       </c>
@@ -1161,7 +1319,7 @@
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>600310</v>
       </c>
@@ -1191,7 +1349,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>600311</v>
       </c>
@@ -1223,7 +1381,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>600410</v>
       </c>
@@ -1255,7 +1413,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>600411</v>
       </c>
@@ -1285,7 +1443,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>610210</v>
       </c>
@@ -1317,7 +1475,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>610311</v>
       </c>
@@ -1349,7 +1507,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>610410</v>
       </c>
@@ -1357,7 +1515,7 @@
         <v>510410</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>58</v>
@@ -1381,7 +1539,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>600510</v>
       </c>
@@ -1411,7 +1569,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>600511</v>
       </c>
@@ -1435,7 +1593,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>600512</v>
       </c>
@@ -1463,7 +1621,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>600610</v>
       </c>
@@ -1493,7 +1651,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>600611</v>
       </c>
@@ -1501,10 +1659,10 @@
         <v>500611</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1521,7 +1679,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>600710</v>
       </c>
@@ -1553,7 +1711,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>600711</v>
       </c>
@@ -1583,7 +1741,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>600712</v>
       </c>
@@ -1613,7 +1771,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>600713</v>
       </c>
@@ -1643,7 +1801,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>600810</v>
       </c>
@@ -1673,7 +1831,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>600811</v>
       </c>
@@ -1703,7 +1861,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>600812</v>
       </c>
@@ -1733,138 +1891,136 @@
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>690010</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1">
-        <v>790000</v>
-      </c>
-      <c r="O26" s="1">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19">
+        <v>-1</v>
+      </c>
+      <c r="I26" s="1">
         <v>690011</v>
       </c>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>690011</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1">
         <v>-1</v>
       </c>
-      <c r="I27" s="1">
-        <v>2000</v>
-      </c>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1">
-        <v>1</v>
+        <v>790000</v>
       </c>
       <c r="O27" s="1">
         <v>690012</v>
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>690012</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I28" s="1">
-        <v>690010</v>
+        <v>2000</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>690013</v>
+      </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>690020</v>
+        <v>690013</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>137</v>
+        <v>74</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I29" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>690010</v>
+      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1">
-        <v>790001</v>
-      </c>
-      <c r="O29" s="1">
-        <v>690021</v>
-      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>690021</v>
+        <v>690020</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>116</v>
+      <c r="C30" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1873,58 +2029,56 @@
         <v>-1</v>
       </c>
       <c r="I30" s="1">
-        <v>5</v>
+        <v>690021</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1">
-        <v>1</v>
-      </c>
-      <c r="O30" s="1">
-        <v>690022</v>
-      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>690022</v>
+        <v>690021</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="1" t="s">
         <v>76</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1">
-        <v>690020</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+      <c r="N31" s="1">
+        <v>790001</v>
+      </c>
+      <c r="O31" s="1">
+        <v>690022</v>
+      </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>690030</v>
+        <v>690022</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>137</v>
+        <v>114</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1932,72 +2086,68 @@
       <c r="H32" s="1">
         <v>-1</v>
       </c>
-      <c r="I32" s="1"/>
+      <c r="I32" s="1">
+        <v>5</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1">
-        <v>790002</v>
+        <v>1</v>
       </c>
       <c r="O32" s="1">
-        <v>690031</v>
+        <v>690023</v>
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>690031</v>
+        <v>690023</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1">
-        <v>1000</v>
+        <v>690020</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1">
-        <v>1</v>
-      </c>
-      <c r="O33" s="1">
-        <v>690032</v>
-      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>690032</v>
+        <v>690030</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>76</v>
+      <c r="C34" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I34" s="1">
-        <v>690030</v>
+        <v>690031</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2007,16 +2157,16 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>690040</v>
+        <v>690031</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2030,64 +2180,66 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1">
-        <v>790003</v>
+        <v>790002</v>
       </c>
       <c r="O35" s="1">
-        <v>690041</v>
+        <v>690032</v>
       </c>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>690041</v>
+        <v>690032</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1">
         <v>-1</v>
       </c>
       <c r="I36" s="1">
-        <v>690042</v>
-      </c>
-      <c r="J36" s="1">
-        <v>690043</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>690033</v>
+      </c>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>690042</v>
+        <v>690033</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="19">
-        <v>-1</v>
+      <c r="H37" s="1">
+        <v>1</v>
       </c>
       <c r="I37" s="1">
-        <v>2000</v>
+        <v>690030</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2097,27 +2249,25 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>690043</v>
+        <v>690040</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C38" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1">
         <v>-1</v>
       </c>
       <c r="I38" s="1">
-        <v>2000</v>
+        <v>690041</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2127,83 +2277,87 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>690044</v>
+        <v>690041</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>76</v>
+        <v>117</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1">
-        <v>1</v>
-      </c>
-      <c r="I39" s="1">
-        <v>690040</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+      <c r="N39" s="1">
+        <v>790003</v>
+      </c>
+      <c r="O39" s="1">
+        <v>690042</v>
+      </c>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="17">
-        <v>690050</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="17" t="s">
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>690042</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I40" s="17">
-        <v>690051</v>
-      </c>
-      <c r="J40" s="17">
-        <v>690052</v>
-      </c>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I40" s="1">
+        <v>690042</v>
+      </c>
+      <c r="J40" s="1">
+        <v>690043</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>690051</v>
+        <v>690043</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E41" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1">
+      <c r="H41" s="3">
         <v>-1</v>
       </c>
       <c r="I41" s="1">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2213,25 +2367,27 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>690052</v>
+        <v>690044</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E42" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1">
         <v>-1</v>
       </c>
       <c r="I42" s="1">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2241,120 +2397,109 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>690060</v>
+        <v>690045</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I43" s="1">
-        <v>690061</v>
-      </c>
-      <c r="J43" s="1">
-        <v>690062</v>
-      </c>
-      <c r="K43" s="1">
-        <v>690063</v>
-      </c>
-      <c r="L43" s="1">
-        <v>690064</v>
-      </c>
-      <c r="M43" s="1">
-        <v>690065</v>
-      </c>
+        <v>690040</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>690061</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1">
-        <v>-1</v>
-      </c>
+        <v>690050</v>
+      </c>
+      <c r="B44" s="21"/>
+      <c r="C44" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
       <c r="I44" s="1">
-        <v>2000</v>
-      </c>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>690051</v>
+      </c>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>690062</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1">
+        <v>690051</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17">
         <v>-1</v>
       </c>
       <c r="I45" s="1">
-        <v>5</v>
-      </c>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>690052</v>
+      </c>
+      <c r="J45" s="1">
+        <v>690053</v>
+      </c>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>690063</v>
+        <v>690052</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>148</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1">
         <v>-1</v>
       </c>
       <c r="I46" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -2364,27 +2509,25 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>690064</v>
+        <v>690053</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1">
         <v>-1</v>
       </c>
       <c r="I47" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2394,69 +2537,74 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
-        <v>690065</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I48" s="14">
-        <v>2000</v>
-      </c>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-    </row>
-    <row r="49" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>690060</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1">
+        <v>690061</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>690120</v>
+        <v>690061</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1">
-        <v>7000</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>690062</v>
+      </c>
+      <c r="J49" s="1">
+        <v>690063</v>
+      </c>
+      <c r="K49" s="1">
+        <v>690064</v>
+      </c>
+      <c r="L49" s="1">
+        <v>690065</v>
+      </c>
+      <c r="M49" s="1">
+        <v>690066</v>
+      </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>690121</v>
+        <v>690062</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>51</v>
@@ -2470,7 +2618,7 @@
         <v>-1</v>
       </c>
       <c r="I50" s="1">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -2480,25 +2628,25 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>690130</v>
+        <v>690063</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1">
-        <v>7000</v>
+        <v>-1</v>
       </c>
       <c r="I51" s="1">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -2508,26 +2656,28 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>690131</v>
+        <v>690064</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1">
         <v>-1</v>
       </c>
-      <c r="I52" s="1"/>
+      <c r="I52" s="1">
+        <v>1000</v>
+      </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -2536,24 +2686,28 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="1">
-        <v>690140</v>
+    <row r="53" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>690065</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E53" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1">
-        <v>7000</v>
-      </c>
-      <c r="I53" s="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I53" s="1">
+        <v>2000</v>
+      </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -2562,56 +2716,54 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>690141</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H54" s="1">
+        <v>690066</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I54" s="14">
         <v>2000</v>
       </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+    </row>
+    <row r="55" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>690142</v>
+        <v>690120</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I55" s="1">
-        <v>15000</v>
-      </c>
+        <v>7000</v>
+      </c>
+      <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -2620,31 +2772,29 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>691020</v>
+        <v>690121</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1">
         <v>-1</v>
       </c>
       <c r="I56" s="1">
-        <v>5</v>
-      </c>
-      <c r="J56" s="1">
-        <v>50</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -2652,31 +2802,27 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>691030</v>
+        <v>690130</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1">
-        <v>-1</v>
+        <v>7000</v>
       </c>
       <c r="I57" s="1">
-        <v>3</v>
-      </c>
-      <c r="J57" s="1">
-        <v>50</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -2684,31 +2830,27 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
     </row>
-    <row r="58" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>691040</v>
+        <v>690131</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1">
         <v>-1</v>
       </c>
-      <c r="I58" s="1">
-        <v>2</v>
-      </c>
-      <c r="J58" s="1">
-        <v>50</v>
-      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -2716,167 +2858,179 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
     </row>
-    <row r="59" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="15">
-        <v>691120</v>
-      </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15">
-        <v>5</v>
-      </c>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-    </row>
-    <row r="60" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="15">
-        <v>691130</v>
-      </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15">
-        <v>10</v>
-      </c>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-    </row>
-    <row r="61" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="15">
-        <v>691140</v>
-      </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15">
-        <v>20</v>
-      </c>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-    </row>
-    <row r="62" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>690140</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1">
+        <v>7000</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+    </row>
+    <row r="60" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>690141</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H60" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+    </row>
+    <row r="61" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>690142</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I61" s="1">
+        <v>15000</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+    </row>
+    <row r="62" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>691220</v>
+        <v>691020</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>137</v>
+        <v>89</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="H62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I62" s="1">
+        <v>5</v>
+      </c>
+      <c r="J62" s="1">
+        <v>50</v>
+      </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-      <c r="N62" s="1">
-        <v>791200</v>
-      </c>
-      <c r="O62" s="1">
-        <v>691221</v>
-      </c>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
       <c r="P62" s="1"/>
     </row>
-    <row r="63" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>691221</v>
+        <v>691030</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F63" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1">
-        <v>2000</v>
+        <v>-1</v>
       </c>
       <c r="I63" s="1">
-        <v>5000</v>
-      </c>
-      <c r="J63" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J63" s="1">
+        <v>50</v>
+      </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
-      <c r="N63" s="1">
-        <v>1</v>
-      </c>
-      <c r="O63" s="1">
-        <v>691222</v>
-      </c>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
       <c r="P63" s="1"/>
     </row>
-    <row r="64" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>691222</v>
+        <v>691040</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="I64" s="1">
-        <v>691220</v>
-      </c>
-      <c r="J64" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="J64" s="1">
+        <v>50</v>
+      </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -2884,106 +3038,94 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
     </row>
-    <row r="65" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="1">
-        <v>691230</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1">
-        <v>791200</v>
-      </c>
-      <c r="O65" s="1">
-        <v>691231</v>
-      </c>
-      <c r="P65" s="1"/>
-    </row>
-    <row r="66" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="1">
-        <v>691231</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I66" s="1">
-        <v>7000</v>
-      </c>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1">
-        <v>1</v>
-      </c>
-      <c r="O66" s="1">
-        <v>691232</v>
-      </c>
-      <c r="P66" s="1"/>
-    </row>
-    <row r="67" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="1">
-        <v>691232</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1">
+    <row r="65" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="15">
+        <v>691120</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15">
+        <v>5</v>
+      </c>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+    </row>
+    <row r="66" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="15">
+        <v>691130</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15">
         <v>10</v>
       </c>
-      <c r="I67" s="1">
-        <v>691230</v>
-      </c>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-    </row>
-    <row r="68" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+    </row>
+    <row r="67" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="15">
+        <v>691140</v>
+      </c>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15">
+        <v>20</v>
+      </c>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+    </row>
+    <row r="68" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>691240</v>
+        <v>691220</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -2998,20 +3140,20 @@
         <v>791200</v>
       </c>
       <c r="O68" s="1">
-        <v>691241</v>
+        <v>691221</v>
       </c>
       <c r="P68" s="1"/>
     </row>
-    <row r="69" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>691241</v>
+        <v>691221</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>24</v>
@@ -3022,7 +3164,7 @@
         <v>2000</v>
       </c>
       <c r="I69" s="1">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -3032,20 +3174,20 @@
         <v>1</v>
       </c>
       <c r="O69" s="1">
-        <v>691242</v>
+        <v>691222</v>
       </c>
       <c r="P69" s="1"/>
     </row>
-    <row r="70" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>691242</v>
+        <v>691222</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3054,7 +3196,7 @@
         <v>10</v>
       </c>
       <c r="I70" s="1">
-        <v>691240</v>
+        <v>691220</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -3064,75 +3206,87 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>691320</v>
+        <v>691230</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>100</v>
+        <v>128</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1">
-        <v>2500</v>
-      </c>
+      <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
+      <c r="N71" s="1">
+        <v>791200</v>
+      </c>
+      <c r="O71" s="1">
+        <v>691231</v>
+      </c>
       <c r="P71" s="1"/>
     </row>
-    <row r="72" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>691330</v>
+        <v>691231</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E72" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
+      <c r="H72" s="1">
+        <v>2000</v>
+      </c>
       <c r="I72" s="1">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
+      <c r="N72" s="1">
+        <v>1</v>
+      </c>
+      <c r="O72" s="1">
+        <v>691232</v>
+      </c>
       <c r="P72" s="1"/>
     </row>
-    <row r="73" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>691340</v>
+        <v>691232</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+      <c r="H73" s="1">
+        <v>10</v>
+      </c>
       <c r="I73" s="1">
-        <v>10000</v>
+        <v>691230</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -3142,79 +3296,87 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
     </row>
-    <row r="74" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>691420</v>
+        <v>691240</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>60</v>
+        <v>131</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="1">
-        <v>691421</v>
-      </c>
-      <c r="J74" s="1">
-        <v>691422</v>
-      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
+      <c r="N74" s="1">
+        <v>791200</v>
+      </c>
+      <c r="O74" s="1">
+        <v>691241</v>
+      </c>
       <c r="P74" s="1"/>
     </row>
-    <row r="75" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>691421</v>
+        <v>691241</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E75" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
+      <c r="H75" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I75" s="1">
+        <v>15000</v>
+      </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
+      <c r="N75" s="1">
+        <v>1</v>
+      </c>
+      <c r="O75" s="1">
+        <v>691242</v>
+      </c>
       <c r="P75" s="1"/>
     </row>
-    <row r="76" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>691422</v>
+        <v>691242</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I76" s="1">
-        <v>2500</v>
+        <v>691240</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -3224,27 +3386,25 @@
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
     </row>
-    <row r="77" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>691430</v>
+        <v>691320</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1">
-        <v>691431</v>
-      </c>
-      <c r="J77" s="1">
-        <v>691432</v>
-      </c>
+        <v>2500</v>
+      </c>
+      <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -3252,22 +3412,24 @@
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
     </row>
-    <row r="78" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>691431</v>
+        <v>691330</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="I78" s="1">
+        <v>5000</v>
+      </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -3276,27 +3438,23 @@
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
     </row>
-    <row r="79" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>691432</v>
+        <v>691340</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="1">
-        <v>-1</v>
-      </c>
+      <c r="H79" s="1"/>
       <c r="I79" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -3306,13 +3464,13 @@
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
     </row>
-    <row r="80" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>691440</v>
+        <v>691420</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>60</v>
@@ -3322,10 +3480,10 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1">
-        <v>691441</v>
+        <v>691421</v>
       </c>
       <c r="J80" s="1">
-        <v>691442</v>
+        <v>691422</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -3334,16 +3492,16 @@
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
     </row>
-    <row r="81" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>691441</v>
+        <v>691421</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -3358,13 +3516,13 @@
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
     </row>
-    <row r="82" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>691442</v>
+        <v>691422</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>51</v>
@@ -3378,7 +3536,7 @@
         <v>-1</v>
       </c>
       <c r="I82" s="1">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -3388,356 +3546,520 @@
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
     </row>
-    <row r="83" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="8">
+    <row r="83" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>691430</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1">
+        <v>691431</v>
+      </c>
+      <c r="J83" s="1">
+        <v>691432</v>
+      </c>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+    </row>
+    <row r="84" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>691431</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+    </row>
+    <row r="85" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>691432</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I85" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+    </row>
+    <row r="86" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>691440</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1">
+        <v>691441</v>
+      </c>
+      <c r="J86" s="1">
+        <v>691442</v>
+      </c>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+    </row>
+    <row r="87" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>691441</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+    </row>
+    <row r="88" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>691442</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I88" s="1">
+        <v>7500</v>
+      </c>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+    </row>
+    <row r="89" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
         <v>698765</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="9" t="s">
+      <c r="B89" s="8"/>
+      <c r="C89" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8">
+      <c r="D89" s="10"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8">
         <v>790000</v>
       </c>
-      <c r="O83" s="11" t="s">
+      <c r="O89" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P83" s="8"/>
-    </row>
-    <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84">
+      <c r="P89" s="8"/>
+    </row>
+    <row r="90" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>600001</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H84" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I84" s="16">
-        <v>1</v>
-      </c>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-    </row>
-    <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85">
-        <v>600002</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H85" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I85" s="16">
-        <v>2</v>
-      </c>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
-    </row>
-    <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86">
-        <v>600003</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H86" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I86" s="16">
-        <v>3</v>
-      </c>
-      <c r="N86" s="8"/>
-      <c r="O86" s="8"/>
-    </row>
-    <row r="87" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87">
-        <v>600004</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H87" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I87" s="16">
-        <v>4</v>
-      </c>
-      <c r="N87" s="8"/>
-      <c r="O87" s="8"/>
-    </row>
-    <row r="88" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88">
-        <v>600005</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H88" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I88" s="16">
-        <v>5</v>
-      </c>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
-    </row>
-    <row r="89" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89">
-        <v>600006</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I89" s="16">
-        <v>6</v>
-      </c>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-    </row>
-    <row r="90" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90">
-        <v>600007</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H90" s="3">
         <v>-1</v>
       </c>
       <c r="I90" s="16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
     </row>
-    <row r="91" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>600008</v>
+        <v>600002</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H91" s="3">
         <v>-1</v>
       </c>
       <c r="I91" s="16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N91" s="8"/>
       <c r="O91" s="8"/>
     </row>
-    <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>600009</v>
+        <v>600003</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H92" s="3">
         <v>-1</v>
       </c>
       <c r="I92" s="16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
     </row>
-    <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>600010</v>
+        <v>600004</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H93" s="3">
         <v>-1</v>
       </c>
       <c r="I93" s="16">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
     </row>
-    <row r="94" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>0</v>
+        <v>600005</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D94" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I94" s="16">
+        <v>5</v>
+      </c>
       <c r="N94" s="8"/>
       <c r="O94" s="8"/>
     </row>
-    <row r="95" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>600006</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H95" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I95" s="16">
+        <v>6</v>
+      </c>
       <c r="N95" s="8"/>
       <c r="O95" s="8"/>
     </row>
-    <row r="96" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>600007</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I96" s="16">
+        <v>7</v>
+      </c>
       <c r="N96" s="8"/>
       <c r="O96" s="8"/>
     </row>
-    <row r="97" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>600008</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H97" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I97" s="16">
+        <v>8</v>
+      </c>
       <c r="N97" s="8"/>
       <c r="O97" s="8"/>
     </row>
-    <row r="98" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>600009</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H98" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I98" s="16">
+        <v>9</v>
+      </c>
       <c r="N98" s="8"/>
       <c r="O98" s="8"/>
     </row>
-    <row r="99" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>600010</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H99" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I99" s="16">
+        <v>10</v>
+      </c>
       <c r="N99" s="8"/>
       <c r="O99" s="8"/>
     </row>
-    <row r="100" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D100" s="3"/>
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
     </row>
-    <row r="101" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N101" s="8"/>
       <c r="O101" s="8"/>
     </row>
-    <row r="102" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N102" s="8"/>
       <c r="O102" s="8"/>
     </row>
-    <row r="103" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N103" s="8"/>
       <c r="O103" s="8"/>
     </row>
-    <row r="104" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N104" s="8"/>
       <c r="O104" s="8"/>
     </row>
-    <row r="105" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N105" s="8"/>
       <c r="O105" s="8"/>
     </row>
-    <row r="106" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N106" s="8"/>
       <c r="O106" s="8"/>
     </row>
-    <row r="107" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N107" s="8"/>
       <c r="O107" s="8"/>
     </row>
-    <row r="108" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
     </row>
-    <row r="109" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N109" s="8"/>
       <c r="O109" s="8"/>
     </row>
-    <row r="110" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
     </row>
-    <row r="111" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N111" s="8"/>
       <c r="O111" s="8"/>
     </row>
-    <row r="112" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N112" s="8"/>
       <c r="O112" s="8"/>
     </row>
-    <row r="113" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N113" s="8"/>
       <c r="O113" s="8"/>
     </row>
-    <row r="114" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N114" s="8"/>
       <c r="O114" s="8"/>
     </row>
-    <row r="115" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N115" s="8"/>
       <c r="O115" s="8"/>
     </row>
-    <row r="116" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N116" s="8"/>
       <c r="O116" s="8"/>
     </row>
-    <row r="117" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N117" s="8"/>
       <c r="O117" s="8"/>
     </row>
-    <row r="118" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
     </row>
-    <row r="119" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N119" s="8"/>
       <c r="O119" s="8"/>
     </row>
-    <row r="120" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N120" s="8"/>
       <c r="O120" s="8"/>
     </row>
-    <row r="121" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N121" s="8"/>
       <c r="O121" s="8"/>
     </row>
-    <row r="122" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
     </row>
-    <row r="123" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N123" s="8"/>
       <c r="O123" s="8"/>
     </row>
-    <row r="124" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N124" s="8"/>
       <c r="O124" s="8"/>
     </row>
-    <row r="125" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N125" s="8"/>
       <c r="O125" s="8"/>
+    </row>
+    <row r="126" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N126" s="8"/>
+      <c r="O126" s="8"/>
+    </row>
+    <row r="127" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N127" s="8"/>
+      <c r="O127" s="8"/>
+    </row>
+    <row r="128" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N128" s="8"/>
+      <c r="O128" s="8"/>
+    </row>
+    <row r="129" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N129" s="8"/>
+      <c r="O129" s="8"/>
+    </row>
+    <row r="130" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N130" s="8"/>
+      <c r="O130" s="8"/>
+    </row>
+    <row r="131" spans="14:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N131" s="8"/>
+      <c r="O131" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7BF8EB-95DA-4DFB-8C22-7BC79A79FD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F855A2-46DC-4F1A-82B9-BF2252212481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -842,7 +842,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1068,8 +1068,8 @@
   </sheetPr>
   <dimension ref="A1:P131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3478,7 +3478,9 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="H80" s="1">
+        <v>-1</v>
+      </c>
       <c r="I80" s="1">
         <v>691421</v>
       </c>
@@ -3506,7 +3508,9 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="H81" s="1">
+        <v>-1</v>
+      </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -3560,7 +3564,9 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+      <c r="H83" s="1">
+        <v>-1</v>
+      </c>
       <c r="I83" s="1">
         <v>691431</v>
       </c>
@@ -3588,7 +3594,9 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="H84" s="1">
+        <v>-1</v>
+      </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -3642,7 +3650,9 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
+      <c r="H86" s="1">
+        <v>-1</v>
+      </c>
       <c r="I86" s="1">
         <v>691441</v>
       </c>
@@ -3670,7 +3680,9 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
+      <c r="H87" s="1">
+        <v>-1</v>
+      </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F855A2-46DC-4F1A-82B9-BF2252212481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B03BF5E-F006-4488-BDDE-BCA2C4AA1D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="8535" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -363,9 +363,6 @@
   </si>
   <si>
     <t>그레이스 Skill 2) 대상과 범위 내 적에게 스플래시 데미지 - 투사체 변경</t>
-  </si>
-  <si>
-    <t>CHANGE_PROJECTILE</t>
   </si>
   <si>
     <t>LAPLACIAN(K) Synergy: 모든 아군 기본 공격시 추가 마나 5 획득</t>
@@ -600,6 +597,10 @@
   </si>
   <si>
     <t>LAPLACIAN ALL check entry point 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANGE_AA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,8 +1069,8 @@
   </sheetPr>
   <dimension ref="A1:P131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1123,7 +1124,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>34</v>
@@ -1169,7 +1170,7 @@
         <v>8</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>36</v>
@@ -1217,7 +1218,7 @@
         <v>10</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>10</v>
@@ -1662,14 +1663,16 @@
         <v>112</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>6000</v>
+      </c>
       <c r="I18" s="1">
-        <v>15000</v>
+        <v>500611</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1897,10 +1900,10 @@
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -1925,10 +1928,10 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2017,10 +2020,10 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2048,7 +2051,7 @@
         <v>76</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2075,10 +2078,10 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2135,10 +2138,10 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2166,7 +2169,7 @@
         <v>78</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2193,7 +2196,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>51</v>
@@ -2255,10 +2258,10 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2283,10 +2286,10 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2313,7 +2316,7 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>60</v>
@@ -2343,7 +2346,7 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>51</v>
@@ -2373,7 +2376,7 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>51</v>
@@ -2403,7 +2406,7 @@
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>75</v>
@@ -2431,10 +2434,10 @@
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
@@ -2457,7 +2460,7 @@
       </c>
       <c r="B45" s="17"/>
       <c r="C45" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>60</v>
@@ -2487,10 +2490,10 @@
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2515,10 +2518,10 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2543,10 +2546,10 @@
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2569,7 +2572,7 @@
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>60</v>
@@ -2604,7 +2607,7 @@
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>51</v>
@@ -2634,10 +2637,10 @@
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2662,13 +2665,13 @@
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -2692,7 +2695,7 @@
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>51</v>
@@ -2722,7 +2725,7 @@
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>51</v>
@@ -3122,10 +3125,10 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3150,7 +3153,7 @@
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>97</v>
@@ -3184,7 +3187,7 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>75</v>
@@ -3212,10 +3215,10 @@
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3240,7 +3243,7 @@
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>97</v>
@@ -3274,7 +3277,7 @@
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>75</v>
@@ -3302,10 +3305,10 @@
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3330,7 +3333,7 @@
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>97</v>
@@ -3364,7 +3367,7 @@
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>75</v>
@@ -3500,7 +3503,7 @@
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>103</v>
@@ -3586,7 +3589,7 @@
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>103</v>
@@ -3672,7 +3675,7 @@
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>103</v>
@@ -3943,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D100" s="3"/>
       <c r="N100" s="8"/>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE874D21-C840-4779-AA75-8A106D9E415E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A47A397-8CBC-4D8F-8A74-BD380185911C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,9 +481,6 @@
     <t>BUFF_ONCE_BY_AP</t>
   </si>
   <si>
-    <t>DEFENSE</t>
-  </si>
-  <si>
     <t>2) MAGIC_RESIST를 AP의 50%만큼 추가로 획득함.</t>
   </si>
   <si>
@@ -723,6 +720,10 @@
   </si>
   <si>
     <t>아무것도없는거</t>
+  </si>
+  <si>
+    <t>ARMOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1165,8 +1166,8 @@
   </sheetPr>
   <dimension ref="A1:P133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2157,7 +2158,7 @@
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>40</v>
@@ -2185,7 +2186,7 @@
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>40</v>
@@ -2241,7 +2242,7 @@
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>40</v>
@@ -2269,7 +2270,7 @@
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>40</v>
@@ -2327,7 +2328,7 @@
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>40</v>
@@ -2355,7 +2356,7 @@
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>40</v>
@@ -2383,7 +2384,7 @@
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>40</v>
@@ -2531,7 +2532,7 @@
         <v>143</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -2555,13 +2556,13 @@
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>143</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -2585,7 +2586,7 @@
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>56</v>
@@ -2615,13 +2616,13 @@
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>143</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -2645,13 +2646,13 @@
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>143</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -2675,7 +2676,7 @@
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>56</v>
@@ -2705,13 +2706,13 @@
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>143</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -2735,13 +2736,13 @@
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>143</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -3503,10 +3504,10 @@
         <v>510410</v>
       </c>
       <c r="C79" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>29</v>
@@ -3866,7 +3867,7 @@
         <v>93</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -4015,7 +4016,7 @@
         <v>500810</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>56</v>
@@ -4105,7 +4106,7 @@
         <v>500811</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>48</v>
@@ -4137,7 +4138,7 @@
         <v>500910</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>50</v>
@@ -4165,7 +4166,7 @@
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>40</v>
@@ -4173,7 +4174,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H101" s="1">
         <v>2000</v>
@@ -4195,7 +4196,7 @@
         <v>501010</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>50</v>
@@ -4225,7 +4226,7 @@
         <v>501110</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>42</v>
@@ -4255,7 +4256,7 @@
         <v>501111</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>42</v>
@@ -4285,7 +4286,7 @@
         <v>501210</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>143</v>
@@ -4315,7 +4316,7 @@
         <v>501211</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>56</v>
@@ -4343,7 +4344,7 @@
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>48</v>
@@ -4373,7 +4374,7 @@
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>48</v>
@@ -4405,10 +4406,10 @@
         <v>501310</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>24</v>
@@ -4437,7 +4438,7 @@
         <v>501311</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>40</v>
@@ -4445,7 +4446,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H110" s="1">
         <v>3000</v>
@@ -4467,7 +4468,7 @@
         <v>501410</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>40</v>
@@ -4475,7 +4476,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H111" s="1">
         <v>3000</v>
@@ -4495,10 +4496,10 @@
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
@@ -4527,13 +4528,13 @@
         <v>501511</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
@@ -4557,7 +4558,7 @@
         <v>501710</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -4583,7 +4584,7 @@
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>42</v>
@@ -4613,7 +4614,7 @@
         <v>501810</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>42</v>
@@ -4641,7 +4642,7 @@
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -4669,10 +4670,10 @@
         <v>501811</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -4695,7 +4696,7 @@
         <v>501910</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>56</v>
@@ -4723,7 +4724,7 @@
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>42</v>
@@ -4751,7 +4752,7 @@
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>40</v>
@@ -4759,7 +4760,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H121" s="1">
         <v>1500</v>
@@ -4781,10 +4782,10 @@
         <v>502010</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>29</v>
@@ -4811,10 +4812,10 @@
       </c>
       <c r="B123" s="16"/>
       <c r="C123" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E123" s="16"/>
       <c r="F123" s="16"/>
@@ -4834,10 +4835,10 @@
       </c>
       <c r="B124" s="16"/>
       <c r="C124" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E124" s="16"/>
       <c r="F124" s="16"/>
@@ -4857,10 +4858,10 @@
       </c>
       <c r="B125" s="16"/>
       <c r="C125" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E125" s="16"/>
       <c r="F125" s="16"/>
@@ -4880,10 +4881,10 @@
       </c>
       <c r="B126" s="16"/>
       <c r="C126" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E126" s="16"/>
       <c r="F126" s="16"/>
@@ -4903,10 +4904,10 @@
       </c>
       <c r="B127" s="16"/>
       <c r="C127" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E127" s="16"/>
       <c r="F127" s="16"/>
@@ -4926,10 +4927,10 @@
       </c>
       <c r="B128" s="16"/>
       <c r="C128" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E128" s="16"/>
       <c r="F128" s="16"/>
@@ -4949,10 +4950,10 @@
       </c>
       <c r="B129" s="16"/>
       <c r="C129" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E129" s="16"/>
       <c r="F129" s="16"/>
@@ -4972,10 +4973,10 @@
       </c>
       <c r="B130" s="16"/>
       <c r="C130" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E130" s="16"/>
       <c r="F130" s="16"/>
@@ -4995,10 +4996,10 @@
       </c>
       <c r="B131" s="16"/>
       <c r="C131" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E131" s="16"/>
       <c r="F131" s="16"/>
@@ -5018,10 +5019,10 @@
       </c>
       <c r="B132" s="16"/>
       <c r="C132" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E132" s="16"/>
       <c r="F132" s="16"/>
@@ -5039,7 +5040,7 @@
       </c>
       <c r="B133" s="16"/>
       <c r="C133" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D133" s="16"/>
       <c r="E133" s="16"/>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A47A397-8CBC-4D8F-8A74-BD380185911C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF6BEED-F039-45EC-993D-6A5E27BC9002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="197">
   <si>
     <t>ID</t>
   </si>
@@ -1166,8 +1166,8 @@
   </sheetPr>
   <dimension ref="A1:P133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4676,11 +4676,17 @@
         <v>180</v>
       </c>
       <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
+      <c r="F118" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
+      <c r="I118" s="1">
+        <v>20000</v>
+      </c>
+      <c r="J118" s="1">
+        <v>1000</v>
+      </c>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF6BEED-F039-45EC-993D-6A5E27BC9002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6B07C4-2B78-4B0F-9075-D9A4E4C9B51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4035" yWindow="1245" windowWidth="24720" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="179">
   <si>
     <t>ID</t>
   </si>
@@ -202,18 +202,9 @@
     <t>DAMAGE_BY_AD</t>
   </si>
   <si>
-    <t>방어봇 D1 Skill. 3초 동안 15%의 추가 DAMAGE_REDUCTION 획득</t>
-  </si>
-  <si>
     <t>DAMAGE_REDUCTION</t>
   </si>
   <si>
-    <t>공격봇 A1 데미지. 매초 시전자 AP 120% 만큼 3초동안 부여</t>
-  </si>
-  <si>
-    <t>DOT_BY_AP</t>
-  </si>
-  <si>
     <t>비비안 Skill MultiCasting:</t>
   </si>
   <si>
@@ -229,12 +220,6 @@
     <t>2) AD의 100%만큼 HP 회복</t>
   </si>
   <si>
-    <t>그레이스 Skill 1) AA RANGE 확장</t>
-  </si>
-  <si>
-    <t>EXTEND_RANGE</t>
-  </si>
-  <si>
     <t>샤나 Skill MultiCasting:</t>
   </si>
   <si>
@@ -328,9 +313,6 @@
     <t>SHRED</t>
   </si>
   <si>
-    <t>그레이스 Skill 2) 대상과 범위 내 적에게 스플래시 데미지 - 투사체 변경</t>
-  </si>
-  <si>
     <t>LAPLACIAN(K) Synergy: 모든 아군 기본 공격시 추가 마나 5 획득</t>
   </si>
   <si>
@@ -445,21 +427,6 @@
     <t>모든 아군 AS 150% 증가</t>
   </si>
   <si>
-    <t>QUANTUM_WASHER(2) Synergy Multicasting:</t>
-  </si>
-  <si>
-    <t>SUNDER</t>
-  </si>
-  <si>
-    <t>QUANTUM_WASHER(3) Synergy Multicasting:</t>
-  </si>
-  <si>
-    <t>QUANTUM_WASHER(4) Synergy Multicasting:</t>
-  </si>
-  <si>
-    <t>CRIPPLE</t>
-  </si>
-  <si>
     <t>TIDY(1): 1단계 MECHA:TIDY 소환</t>
   </si>
   <si>
@@ -475,9 +442,6 @@
     <t>TEAM3(2) Synergy Multicasting:</t>
   </si>
   <si>
-    <t>1) DEFENSE를 AP의 50%만큼 추가로 획득함.</t>
-  </si>
-  <si>
     <t>BUFF_ONCE_BY_AP</t>
   </si>
   <si>
@@ -490,24 +454,15 @@
     <t>TEAM3(3) Synergy Multicasting:</t>
   </si>
   <si>
-    <t>1) DEFENSE를 AP의 70%만큼 추가로 획득함.</t>
-  </si>
-  <si>
     <t>2) MAGIC_RESIST를 AP의 70%만큼 추가로 획득함.</t>
   </si>
   <si>
     <t>TEAM3(4) Synergy Multicasting:</t>
   </si>
   <si>
-    <t>1) DEFENSE를 AP의 100%만큼 추가로 획득함.</t>
-  </si>
-  <si>
     <t>2) MAGIC_RESIST를 AP의 100%만큼 추가로 획득함.</t>
   </si>
   <si>
-    <t>지원봇 S1 Skill. 가장 HP가 낮은 아군 1명에게 시전자 AP의 200%만큼 BARRIER 생성. BARRIER는 5초동안 유지</t>
-  </si>
-  <si>
     <t>CREATE_BARRIER</t>
   </si>
   <si>
@@ -517,9 +472,6 @@
     <t>엠마 Skill 2) 본인 버프: AP 60% 증가</t>
   </si>
   <si>
-    <t>유나 Skill 1) 주변 1칸 내의 적에게 AD의 50%에 해당하는 피해</t>
-  </si>
-  <si>
     <t>유나 Skill 2) 주변 1칸 내의 적에게 2초간 SILENCE 부여</t>
   </si>
   <si>
@@ -529,12 +481,6 @@
     <t>리사 Skill: 3타 (대상 및 대상과 가까운 적 2명에게 AD의 20%에 해당하는 피해)</t>
   </si>
   <si>
-    <t>나츠키 Skill 1) 대상을 AP의 30%의 피해를 6번 줍니다.</t>
-  </si>
-  <si>
-    <t>나츠키 Skill 2) 대상을 AP의 30%의 피해를 (이번 전투에서 스킬을 사용한 횟수)만큼 줍니다.</t>
-  </si>
-  <si>
     <t>아메 Skill 1) 가장 체력이 낮은 아군 2명을 AP의 30%만큼 회복</t>
   </si>
   <si>
@@ -562,175 +508,110 @@
     <t>CHARM</t>
   </si>
   <si>
-    <t>아델 Skill 2) 3초간 AD의 150%의 피해를 입힘.</t>
-  </si>
-  <si>
-    <t>DOT_BY_AD</t>
-  </si>
-  <si>
     <t>이시스 Skill: 가장 가까운 아군 1명의 AS를 3초간 100% 증가.</t>
   </si>
   <si>
     <t>BARRIER</t>
   </si>
   <si>
-    <t>Skill Condition: 기본 공격에 맞았는가?</t>
-  </si>
-  <si>
-    <t>Skill: 인접한 적에게 주문력의 100%에 해당하는 마법 피해를 가합니다.</t>
-  </si>
-  <si>
-    <t>Skill 1) 주문력의 200%에 해당하는 마법 피해를 가합니다.</t>
-  </si>
-  <si>
-    <t>Skill Condition: 해당 스킬 사용으로 적의 현재 체력이 최대 체력의 10% 미만이 되었는가?</t>
-  </si>
-  <si>
-    <t>Skill 2) 적 즉시 사망.</t>
-  </si>
-  <si>
-    <t>KILL_ENEMY</t>
-  </si>
-  <si>
-    <t>Skill Multicasting:</t>
-  </si>
-  <si>
-    <t>1) 주변 1칸 내의 적에게 주문력의 50%에 해당하는 마법 피해를 줍니다.</t>
-  </si>
-  <si>
     <t>2) 주변 1칸 내의 적에게 1.5초간 침묵을 부여함.</t>
   </si>
   <si>
-    <t>1열에 있는 아군들에게 주문력의 100%에 비례한 보호막을 생성함.</t>
+    <t>st</t>
+  </si>
+  <si>
+    <t>SYNERGY_TRIGGER</t>
+  </si>
+  <si>
+    <t>아무것도없는거</t>
+  </si>
+  <si>
+    <t>QUANTUM_WASHER(2) Synergy: 스킬 사용 시 해당 적에게 2초간 'SUNDER' 및 'SHRED' 부여</t>
+  </si>
+  <si>
+    <t>QUANTUM_CC_2</t>
+  </si>
+  <si>
+    <t>QUANTUM_WASHER(3) Synergy: 스킬 사용 시 해당 적에게 4초간 'SUNDER' 및 'SHRED' 부여</t>
+  </si>
+  <si>
+    <t>QUANTUM_WASHER(4) Synergy: 스킬 사용 시 해당 적에게 6초간 'CRIPPLE'및 'SUNDER' 및 'SHRED' 부여</t>
+  </si>
+  <si>
+    <t>QUANTUM_CC_3</t>
+  </si>
+  <si>
+    <t>1) ARMOR를 AP의 50%만큼 추가로 획득함.</t>
+  </si>
+  <si>
+    <t>ARMOR</t>
+  </si>
+  <si>
+    <t>1) ARMOR를 AP의 70%만큼 추가로 획득함.</t>
+  </si>
+  <si>
+    <t>1) ARMOR를 AP의 100%만큼 추가로 획득함.</t>
+  </si>
+  <si>
+    <t>그레이스 Skill: 대상과 범위 내 적에게 스플래시 데미지 (다른 평타로 대체)</t>
+  </si>
+  <si>
+    <t>CHANGE_AA</t>
+  </si>
+  <si>
+    <t>LISA_PASSIVE_AA</t>
+  </si>
+  <si>
+    <t>리사 Passive: 3타가 바뀜</t>
+  </si>
+  <si>
+    <t>CHANGE_AA_BY_AA_COUNT</t>
+  </si>
+  <si>
+    <t>터틀 Skill Condition: 적의 공격 대상인가?</t>
+  </si>
+  <si>
+    <t>터틀 Skill: 인접한 적에게 주문력의 100%에 해당하는 마법 피해를 가합니다.</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1) </t>
+      <t xml:space="preserve">래빗 Skill: </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C5700"/>
-        <rFont val="Arial"/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>스킬에 닿은 적에게 2초간 'SUNDER' 부여</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2) </t>
+      <t>주문력의 200%에 해당하는 마법 피해를 가하고,</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C5700"/>
-        <rFont val="Arial"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>스킬에 닿은 적에게 2초간 'SHRED' 부여</t>
+      <t xml:space="preserve"> 적의 체력이 10% 이하라면 즉시 처형합니다.</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C5700"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>스킬에 닿은 적에게 4초간 'SUNDER' 부여</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C5700"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>스킬에 닿은 적에게 4초간 'SHRED' 부여</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C5700"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>스킬에 닿은 적에게 6초간 'CRIPPLE' 부여</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C5700"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>스킬에 닿은 적에게 6초간 'SUNDER' 부여</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C5700"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>스킬에 닿은 적에게 6초간 'SHRED' 부여</t>
-    </r>
-  </si>
-  <si>
-    <t>CHANGE_AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st</t>
-  </si>
-  <si>
-    <t>SYNERGY_TRIGGER</t>
-  </si>
-  <si>
-    <t>아무것도없는거</t>
-  </si>
-  <si>
-    <t>ARMOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>KILL_ENEMY_UNDER_HP</t>
+  </si>
+  <si>
+    <t>갤럭시 Skill Multicasting:</t>
+  </si>
+  <si>
+    <t>포시티아 Skill: 전투를 시작했을 때 1열에 배치해둔 아군들에게 주문력의 100%에 비례한 보호막을 생성함.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -757,29 +638,21 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -818,18 +691,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
+        <fgColor rgb="FFF4CCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,13 +741,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -907,30 +772,23 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="보통" xfId="1" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1164,10 +1022,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P133"/>
+  <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1222,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>33</v>
@@ -1268,7 +1126,7 @@
         <v>8</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>35</v>
@@ -1332,10 +1190,10 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1362,7 +1220,7 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>48</v>
@@ -1382,8 +1240,12 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8">
+        <v>690012</v>
+      </c>
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1392,10 +1254,10 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -1422,10 +1284,10 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1440,8 +1302,12 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="N7" s="8">
+        <v>1</v>
+      </c>
+      <c r="O7" s="8">
+        <v>690022</v>
+      </c>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1450,10 +1316,10 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -1480,13 +1346,13 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -1500,8 +1366,12 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="N9" s="8">
+        <v>1</v>
+      </c>
+      <c r="O9" s="8">
+        <v>690032</v>
+      </c>
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1510,10 +1380,10 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1540,10 +1410,10 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1570,7 +1440,7 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>48</v>
@@ -1590,8 +1460,12 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="N12" s="8">
+        <v>1</v>
+      </c>
+      <c r="O12" s="8">
+        <v>690044</v>
+      </c>
       <c r="P12" s="8"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1600,7 +1474,7 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>48</v>
@@ -1620,8 +1494,12 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="N13" s="8">
+        <v>1</v>
+      </c>
+      <c r="O13" s="8">
+        <v>690044</v>
+      </c>
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1630,10 +1508,10 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1660,10 +1538,10 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -1688,10 +1566,10 @@
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -1716,10 +1594,10 @@
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1752,7 +1630,7 @@
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>48</v>
@@ -1782,10 +1660,10 @@
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1810,13 +1688,13 @@
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1840,7 +1718,7 @@
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>48</v>
@@ -1870,7 +1748,7 @@
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>48</v>
@@ -1900,10 +1778,10 @@
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -1928,7 +1806,7 @@
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>48</v>
@@ -1958,10 +1836,10 @@
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -1986,7 +1864,7 @@
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>48</v>
@@ -2016,10 +1894,10 @@
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -2044,7 +1922,7 @@
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>40</v>
@@ -2052,7 +1930,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H28" s="8">
         <v>2000</v>
@@ -2072,10 +1950,10 @@
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -2100,7 +1978,7 @@
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>48</v>
@@ -2125,306 +2003,298 @@
       <c r="P30" s="10"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+      <c r="A31" s="8">
         <v>690220</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8">
+        <v>2000</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>690230</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8">
+        <v>4000</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>690240</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10">
+        <v>6000</v>
+      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>690310</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8">
+        <v>1600</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>690320</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8">
+        <v>1601</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>690330</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10">
+        <v>1602</v>
+      </c>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>690420</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8">
+        <v>690421</v>
+      </c>
+      <c r="J37" s="8">
+        <v>690422</v>
+      </c>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>690421</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8">
+        <v>-1</v>
+      </c>
+      <c r="I38" s="8">
+        <v>5000</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>690422</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13">
-        <v>690221</v>
-      </c>
-      <c r="J31" s="13">
-        <v>690222</v>
-      </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="8"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>690221</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13" t="s">
+      <c r="D39" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="H32" s="13">
-        <v>2000</v>
-      </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="8"/>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <v>690222</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33" s="13">
-        <v>2000</v>
-      </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="8"/>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>690230</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13" t="s">
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8">
+        <v>-1</v>
+      </c>
+      <c r="I39" s="8">
+        <v>5000</v>
+      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>690430</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13">
-        <v>690231</v>
-      </c>
-      <c r="J34" s="13">
-        <v>690232</v>
-      </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="8"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
-        <v>690231</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="H35" s="13">
-        <v>4000</v>
-      </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="8"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
-        <v>690232</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H36" s="13">
-        <v>4000</v>
-      </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="8"/>
-    </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
-        <v>690240</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13">
-        <v>690241</v>
-      </c>
-      <c r="J37" s="13">
-        <v>690242</v>
-      </c>
-      <c r="K37" s="13">
-        <v>690243</v>
-      </c>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="8"/>
-    </row>
-    <row r="38" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
-        <v>690241</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H38" s="13">
-        <v>6000</v>
-      </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="8"/>
-    </row>
-    <row r="39" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
-        <v>690242</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="H39" s="13">
-        <v>6000</v>
-      </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="8"/>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
-        <v>690243</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H40" s="14">
-        <v>6000</v>
-      </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="10"/>
+      <c r="D40" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8">
+        <v>690431</v>
+      </c>
+      <c r="J40" s="8">
+        <v>690432</v>
+      </c>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <v>690310</v>
+        <v>690431</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8">
         <v>-1</v>
       </c>
       <c r="I41" s="8">
-        <v>1600</v>
+        <v>7000</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -2436,23 +2306,25 @@
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <v>690320</v>
+        <v>690432</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E42" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8">
         <v>-1</v>
       </c>
       <c r="I42" s="8">
-        <v>1601</v>
+        <v>7000</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -2463,56 +2335,56 @@
       <c r="P42" s="8"/>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
-        <v>690330</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="8">
-        <v>-1</v>
-      </c>
-      <c r="I43" s="10">
-        <v>1602</v>
-      </c>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
+      <c r="A43" s="8">
+        <v>690440</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8">
+        <v>690441</v>
+      </c>
+      <c r="J43" s="8">
+        <v>690442</v>
+      </c>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
-        <v>690420</v>
+        <v>690441</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8">
         <v>-1</v>
       </c>
       <c r="I44" s="8">
-        <v>690421</v>
-      </c>
-      <c r="J44" s="8">
-        <v>690422</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
@@ -2521,58 +2393,60 @@
       <c r="P44" s="8"/>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>690421</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8">
-        <v>-1</v>
-      </c>
-      <c r="I45" s="8">
-        <v>5000</v>
-      </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
+      <c r="A45" s="10">
+        <v>690442</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I45" s="10">
+        <v>10000</v>
+      </c>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
-        <v>690422</v>
+        <v>691020</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8">
         <v>-1</v>
       </c>
       <c r="I46" s="8">
-        <v>5000</v>
-      </c>
-      <c r="J46" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="J46" s="8">
+        <v>50</v>
+      </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
@@ -2582,26 +2456,28 @@
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
-        <v>690430</v>
+        <v>691030</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
+      <c r="F47" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8">
         <v>-1</v>
       </c>
       <c r="I47" s="8">
-        <v>690431</v>
+        <v>3</v>
       </c>
       <c r="J47" s="8">
-        <v>690432</v>
+        <v>50</v>
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
@@ -2611,56 +2487,54 @@
       <c r="P47" s="8"/>
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <v>690431</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8">
-        <v>-1</v>
-      </c>
-      <c r="I48" s="8">
-        <v>7000</v>
-      </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
+      <c r="A48" s="10">
+        <v>691040</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I48" s="10">
+        <v>2</v>
+      </c>
+      <c r="J48" s="10">
+        <v>50</v>
+      </c>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
-        <v>690432</v>
+        <v>691120</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>145</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="8">
-        <v>-1</v>
-      </c>
+      <c r="H49" s="8"/>
       <c r="I49" s="8">
-        <v>7000</v>
+        <v>5</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -2672,27 +2546,23 @@
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
-        <v>690440</v>
+        <v>691130</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="8">
-        <v>-1</v>
-      </c>
+      <c r="H50" s="8"/>
       <c r="I50" s="8">
-        <v>690441</v>
-      </c>
-      <c r="J50" s="8">
-        <v>690442</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
@@ -2701,347 +2571,339 @@
       <c r="P50" s="8"/>
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
-        <v>690441</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8">
-        <v>-1</v>
-      </c>
-      <c r="I51" s="8">
-        <v>10000</v>
-      </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
+      <c r="A51" s="10">
+        <v>691140</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10">
+        <v>20</v>
+      </c>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>690442</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10">
-        <v>-1</v>
-      </c>
-      <c r="I52" s="10">
-        <v>10000</v>
-      </c>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
+      <c r="A52" s="8">
+        <v>691220</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8">
+        <v>791200</v>
+      </c>
+      <c r="O52" s="8">
+        <v>691221</v>
+      </c>
+      <c r="P52" s="8"/>
     </row>
     <row r="53" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
-        <v>691020</v>
+        <v>691221</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8">
-        <v>-1</v>
+        <v>2000</v>
       </c>
       <c r="I53" s="8">
-        <v>5</v>
-      </c>
-      <c r="J53" s="8">
-        <v>50</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
+      <c r="N53" s="8">
+        <v>1</v>
+      </c>
+      <c r="O53" s="8">
+        <v>691222</v>
+      </c>
       <c r="P53" s="8"/>
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
-        <v>691030</v>
+        <v>691230</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="8">
-        <v>-1</v>
-      </c>
-      <c r="I54" s="8">
-        <v>3</v>
-      </c>
-      <c r="J54" s="8">
-        <v>50</v>
-      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
+      <c r="N54" s="8">
+        <v>791200</v>
+      </c>
+      <c r="O54" s="8">
+        <v>691231</v>
+      </c>
       <c r="P54" s="8"/>
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
-        <v>691040</v>
-      </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10" t="s">
+      <c r="A55" s="8">
+        <v>691231</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10">
-        <v>-1</v>
-      </c>
-      <c r="I55" s="10">
-        <v>2</v>
-      </c>
-      <c r="J55" s="10">
-        <v>50</v>
-      </c>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
+      <c r="E55" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8">
+        <v>2000</v>
+      </c>
+      <c r="I55" s="8">
+        <v>7000</v>
+      </c>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8">
+        <v>1</v>
+      </c>
+      <c r="O55" s="8">
+        <v>691232</v>
+      </c>
+      <c r="P55" s="8"/>
     </row>
     <row r="56" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
-        <v>691120</v>
+        <v>691240</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
-      <c r="I56" s="8">
-        <v>5</v>
-      </c>
+      <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
+      <c r="N56" s="8">
+        <v>791200</v>
+      </c>
+      <c r="O56" s="8">
+        <v>691241</v>
+      </c>
       <c r="P56" s="8"/>
     </row>
     <row r="57" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
-        <v>691130</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D57" s="8" t="s">
+      <c r="A57" s="10">
+        <v>691241</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10">
+        <v>2000</v>
+      </c>
+      <c r="I57" s="10">
+        <v>15000</v>
+      </c>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10">
+        <v>1</v>
+      </c>
+      <c r="O57" s="10">
+        <v>691242</v>
+      </c>
+      <c r="P57" s="10"/>
+    </row>
+    <row r="58" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>691320</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8">
-        <v>10</v>
-      </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-    </row>
-    <row r="58" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
-        <v>691140</v>
-      </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10">
-        <v>20</v>
-      </c>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
     </row>
     <row r="59" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
-        <v>691220</v>
+        <v>691330</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
+      <c r="I59" s="8">
+        <v>5000</v>
+      </c>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
-      <c r="N59" s="8">
-        <v>791200</v>
-      </c>
-      <c r="O59" s="8">
-        <v>691221</v>
-      </c>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
       <c r="P59" s="8"/>
     </row>
     <row r="60" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
-        <v>691221</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8">
-        <v>2000</v>
-      </c>
-      <c r="I60" s="8">
-        <v>5000</v>
-      </c>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
+      <c r="A60" s="10">
+        <v>691340</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10">
+        <v>10000</v>
+      </c>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
     </row>
     <row r="61" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
-        <v>691230</v>
+        <v>691420</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
+      <c r="I61" s="8">
+        <v>691421</v>
+      </c>
+      <c r="J61" s="8">
+        <v>691422</v>
+      </c>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
-      <c r="N61" s="8">
-        <v>791200</v>
-      </c>
-      <c r="O61" s="8">
-        <v>691231</v>
-      </c>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
       <c r="P61" s="8"/>
     </row>
     <row r="62" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
-        <v>691231</v>
+        <v>691421</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>24</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="8">
-        <v>2000</v>
-      </c>
-      <c r="I62" s="8">
-        <v>7000</v>
-      </c>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
@@ -3052,80 +2914,78 @@
     </row>
     <row r="63" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
-        <v>691240</v>
+        <v>691422</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E63" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
+      <c r="H63" s="8">
+        <v>-1</v>
+      </c>
+      <c r="I63" s="8">
+        <v>2500</v>
+      </c>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
-      <c r="N63" s="8">
-        <v>791200</v>
-      </c>
-      <c r="O63" s="8">
-        <v>691241</v>
-      </c>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
       <c r="P63" s="8"/>
     </row>
     <row r="64" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
-        <v>691241</v>
-      </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10">
-        <v>2000</v>
-      </c>
-      <c r="I64" s="10">
-        <v>15000</v>
-      </c>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
+      <c r="A64" s="8">
+        <v>691430</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8">
+        <v>691431</v>
+      </c>
+      <c r="J64" s="8">
+        <v>691432</v>
+      </c>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
     </row>
     <row r="65" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
-        <v>691320</v>
+        <v>691431</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
-      <c r="I65" s="8">
-        <v>2500</v>
-      </c>
+      <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
@@ -3136,19 +2996,23 @@
     </row>
     <row r="66" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
-        <v>691330</v>
+        <v>691432</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E66" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
+      <c r="H66" s="8">
+        <v>-1</v>
+      </c>
       <c r="I66" s="8">
         <v>5000</v>
       </c>
@@ -3161,52 +3025,50 @@
       <c r="P66" s="8"/>
     </row>
     <row r="67" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
-        <v>691340</v>
-      </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10" t="s">
+      <c r="A67" s="8">
+        <v>691440</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10">
-        <v>10000</v>
-      </c>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
+      <c r="D67" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8">
+        <v>691441</v>
+      </c>
+      <c r="J67" s="8">
+        <v>691442</v>
+      </c>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
     </row>
     <row r="68" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
-        <v>691420</v>
+        <v>691441</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
-      <c r="I68" s="8">
-        <v>691421</v>
-      </c>
-      <c r="J68" s="8">
-        <v>691422</v>
-      </c>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
@@ -3215,248 +3077,270 @@
       <c r="P68" s="8"/>
     </row>
     <row r="69" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
-        <v>691421</v>
-      </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D69" s="8" t="s">
+      <c r="A69" s="10">
+        <v>691442</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I69" s="10">
+        <v>7500</v>
+      </c>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+    </row>
+    <row r="70" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>600110</v>
+      </c>
+      <c r="B70" s="1">
+        <v>500110</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I70" s="1">
+        <v>2</v>
+      </c>
+      <c r="J70" s="1">
+        <v>60</v>
+      </c>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>600210</v>
+      </c>
+      <c r="B71" s="1">
+        <v>500210</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-    </row>
-    <row r="70" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
-        <v>691422</v>
-      </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D70" s="8" t="s">
+      <c r="D71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H71" s="1">
+        <v>6000</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+    </row>
+    <row r="72" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11">
+        <v>520011</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11">
+        <v>12000</v>
+      </c>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+    </row>
+    <row r="73" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>600310</v>
+      </c>
+      <c r="B73" s="1">
+        <v>500310</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1">
+        <v>1500</v>
+      </c>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+    </row>
+    <row r="74" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>600311</v>
+      </c>
+      <c r="B74" s="1">
+        <v>500311</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I74" s="1">
+        <v>20000</v>
+      </c>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+    </row>
+    <row r="75" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>600410</v>
+      </c>
+      <c r="B75" s="1">
+        <v>500410</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E75" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8">
-        <v>-1</v>
-      </c>
-      <c r="I70" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-    </row>
-    <row r="71" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
-        <v>691430</v>
-      </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8">
-        <v>691431</v>
-      </c>
-      <c r="J71" s="8">
-        <v>691432</v>
-      </c>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-    </row>
-    <row r="72" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8">
-        <v>691431</v>
-      </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-    </row>
-    <row r="73" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
-        <v>691432</v>
-      </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8">
-        <v>-1</v>
-      </c>
-      <c r="I73" s="8">
-        <v>5000</v>
-      </c>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-    </row>
-    <row r="74" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
-        <v>691440</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8">
-        <v>691441</v>
-      </c>
-      <c r="J74" s="8">
-        <v>691442</v>
-      </c>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-    </row>
-    <row r="75" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
-        <v>691441</v>
-      </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
     </row>
     <row r="76" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10">
-        <v>691442</v>
-      </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10">
-        <v>-1</v>
-      </c>
-      <c r="I76" s="10">
-        <v>7500</v>
-      </c>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="9">
+        <v>500411</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
     </row>
     <row r="77" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>610210</v>
+        <v>600510</v>
       </c>
       <c r="B77" s="1">
-        <v>510210</v>
+        <v>500510</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="1">
-        <v>3000</v>
-      </c>
+      <c r="H77" s="1"/>
       <c r="I77" s="1">
-        <v>1500</v>
-      </c>
-      <c r="J77" s="1"/>
+        <v>600511</v>
+      </c>
+      <c r="J77" s="1">
+        <v>600512</v>
+      </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -3466,28 +3350,20 @@
     </row>
     <row r="78" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>610311</v>
-      </c>
-      <c r="B78" s="1">
-        <v>510310</v>
-      </c>
+        <v>600511</v>
+      </c>
+      <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I78" s="1">
-        <v>12000</v>
-      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -3497,62 +3373,54 @@
       <c r="P78" s="1"/>
     </row>
     <row r="79" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="9">
-        <v>610410</v>
-      </c>
-      <c r="B79" s="9">
-        <v>510410</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9">
-        <v>5000</v>
-      </c>
-      <c r="I79" s="9">
-        <v>20000</v>
-      </c>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
+      <c r="A79" s="1">
+        <v>600512</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
     </row>
     <row r="80" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>600110</v>
+        <v>600611</v>
       </c>
       <c r="B80" s="1">
-        <v>500110</v>
+        <v>500611</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="1">
-        <v>-1</v>
-      </c>
+      <c r="H80" s="1"/>
       <c r="I80" s="1">
-        <v>2</v>
-      </c>
-      <c r="J80" s="1">
-        <v>60</v>
-      </c>
+        <v>500611</v>
+      </c>
+      <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
@@ -3562,28 +3430,30 @@
     </row>
     <row r="81" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>600210</v>
+        <v>600710</v>
       </c>
       <c r="B81" s="1">
-        <v>500210</v>
+        <v>500710</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H81" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1">
+        <v>600711</v>
+      </c>
+      <c r="J81" s="1">
+        <v>600712</v>
+      </c>
+      <c r="K81" s="1">
+        <v>600713</v>
+      </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
@@ -3591,56 +3461,56 @@
       <c r="P81" s="1"/>
     </row>
     <row r="82" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11">
-        <v>600211</v>
-      </c>
-      <c r="B82" s="11">
-        <v>520011</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11">
-        <v>12000</v>
-      </c>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="11"/>
+      <c r="A82" s="1">
+        <v>600711</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1">
+        <v>4000</v>
+      </c>
+      <c r="I82" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
     </row>
     <row r="83" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>600310</v>
-      </c>
-      <c r="B83" s="1">
-        <v>500310</v>
-      </c>
+        <v>600712</v>
+      </c>
+      <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+      <c r="H83" s="1">
+        <v>4000</v>
+      </c>
       <c r="I83" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -3652,27 +3522,25 @@
     </row>
     <row r="84" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>600311</v>
-      </c>
-      <c r="B84" s="1">
-        <v>500311</v>
-      </c>
+        <v>600713</v>
+      </c>
+      <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1">
-        <v>-1</v>
+        <v>4000</v>
       </c>
       <c r="I84" s="1">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -3684,29 +3552,27 @@
     </row>
     <row r="85" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>600410</v>
+        <v>600810</v>
       </c>
       <c r="B85" s="1">
-        <v>500410</v>
+        <v>500810</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="1">
-        <v>0</v>
-      </c>
+      <c r="H85" s="1"/>
       <c r="I85" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J85" s="1"/>
+        <v>600811</v>
+      </c>
+      <c r="J85" s="1">
+        <v>600812</v>
+      </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
@@ -3715,58 +3581,58 @@
       <c r="P85" s="1"/>
     </row>
     <row r="86" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="9">
-        <v>600411</v>
-      </c>
-      <c r="B86" s="9">
-        <v>500411</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9">
-        <v>20000</v>
-      </c>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="9"/>
-      <c r="P86" s="9"/>
+      <c r="A86" s="1">
+        <v>600811</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1">
+        <v>4000</v>
+      </c>
+      <c r="I86" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
     </row>
     <row r="87" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>600510</v>
-      </c>
-      <c r="B87" s="1">
-        <v>500510</v>
-      </c>
+        <v>600812</v>
+      </c>
+      <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E87" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
+      <c r="H87" s="1">
+        <v>4000</v>
+      </c>
       <c r="I87" s="1">
-        <v>600511</v>
-      </c>
-      <c r="J87" s="1">
-        <v>600512</v>
-      </c>
+        <v>6000</v>
+      </c>
+      <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
@@ -3775,49 +3641,59 @@
       <c r="P87" s="1"/>
     </row>
     <row r="88" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>600511</v>
-      </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
+      <c r="A88" s="9">
+        <v>600813</v>
+      </c>
+      <c r="B88" s="9">
+        <v>500811</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9">
+        <v>4000</v>
+      </c>
+      <c r="I88" s="9">
+        <v>6000</v>
+      </c>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
     </row>
     <row r="89" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>600512</v>
-      </c>
-      <c r="B89" s="1"/>
+        <v>600910</v>
+      </c>
+      <c r="B89" s="1">
+        <v>500910</v>
+      </c>
       <c r="C89" s="1" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1">
-        <v>10000</v>
-      </c>
+      <c r="G89" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H89" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -3828,26 +3704,22 @@
     </row>
     <row r="90" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>600610</v>
+        <v>601010</v>
       </c>
       <c r="B90" s="1">
-        <v>500610</v>
+        <v>501010</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I90" s="1">
-        <v>5</v>
-      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -3858,27 +3730,27 @@
     </row>
     <row r="91" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>600611</v>
+        <v>601020</v>
       </c>
       <c r="B91" s="1">
-        <v>500611</v>
+        <v>501020</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="1">
-        <v>6000</v>
-      </c>
+      <c r="H91" s="1"/>
       <c r="I91" s="1">
-        <v>500611</v>
-      </c>
-      <c r="J91" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J91" s="1">
+        <v>501010</v>
+      </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -3888,30 +3760,28 @@
     </row>
     <row r="92" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>600710</v>
+        <v>601210</v>
       </c>
       <c r="B92" s="1">
-        <v>500710</v>
+        <v>501210</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E92" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1">
-        <v>600711</v>
-      </c>
-      <c r="J92" s="1">
-        <v>600712</v>
-      </c>
-      <c r="K92" s="1">
-        <v>600713</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
@@ -3920,27 +3790,27 @@
     </row>
     <row r="93" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>600711</v>
-      </c>
-      <c r="B93" s="1"/>
+        <v>601211</v>
+      </c>
+      <c r="B93" s="1">
+        <v>501211</v>
+      </c>
       <c r="C93" s="1" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="1">
-        <v>4000</v>
-      </c>
+      <c r="H93" s="1"/>
       <c r="I93" s="1">
-        <v>5000</v>
-      </c>
-      <c r="J93" s="1"/>
+        <v>601212</v>
+      </c>
+      <c r="J93" s="1">
+        <v>601213</v>
+      </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
@@ -3950,17 +3820,17 @@
     </row>
     <row r="94" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>600712</v>
+        <v>601212</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -3968,7 +3838,7 @@
         <v>4000</v>
       </c>
       <c r="I94" s="1">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -3979,58 +3849,60 @@
       <c r="P94" s="1"/>
     </row>
     <row r="95" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>600713</v>
-      </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="A95" s="9">
+        <v>601213</v>
+      </c>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1">
+      <c r="E95" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9">
         <v>4000</v>
       </c>
-      <c r="I95" s="1">
+      <c r="I95" s="9">
         <v>5000</v>
       </c>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
     </row>
     <row r="96" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>600810</v>
+        <v>601310</v>
       </c>
       <c r="B96" s="1">
-        <v>500810</v>
+        <v>501310</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E96" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
+      <c r="H96" s="1">
+        <v>-1</v>
+      </c>
       <c r="I96" s="1">
-        <v>600811</v>
-      </c>
-      <c r="J96" s="1">
-        <v>600812</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
@@ -4040,26 +3912,26 @@
     </row>
     <row r="97" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>600811</v>
-      </c>
-      <c r="B97" s="1"/>
+        <v>601311</v>
+      </c>
+      <c r="B97" s="1">
+        <v>501311</v>
+      </c>
       <c r="C97" s="1" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
+      <c r="G97" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="H97" s="1">
-        <v>4000</v>
-      </c>
-      <c r="I97" s="1">
-        <v>6000</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -4070,26 +3942,26 @@
     </row>
     <row r="98" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>600812</v>
-      </c>
-      <c r="B98" s="1"/>
+        <v>601410</v>
+      </c>
+      <c r="B98" s="1">
+        <v>501410</v>
+      </c>
       <c r="C98" s="1" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
+      <c r="G98" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="H98" s="1">
-        <v>4000</v>
-      </c>
-      <c r="I98" s="1">
-        <v>6000</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -4100,28 +3972,26 @@
     </row>
     <row r="99" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
-        <v>600813</v>
+        <v>601510</v>
       </c>
       <c r="B99" s="9">
-        <v>500811</v>
+        <v>501511</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9">
-        <v>4000</v>
-      </c>
-      <c r="I99" s="9">
-        <v>6000</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
@@ -4132,54 +4002,54 @@
     </row>
     <row r="100" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>600910</v>
+        <v>601710</v>
       </c>
       <c r="B100" s="1">
-        <v>500910</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>156</v>
+        <v>501710</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="E100" s="1"/>
-      <c r="F100" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="1">
-        <v>5000</v>
-      </c>
+      <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
+      <c r="N100" s="1">
+        <v>701700</v>
+      </c>
+      <c r="O100" s="1">
+        <v>601711</v>
+      </c>
       <c r="P100" s="1"/>
     </row>
     <row r="101" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>600911</v>
+        <v>601711</v>
       </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="12" t="s">
-        <v>157</v>
+      <c r="C101" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H101" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1">
+        <v>10000</v>
+      </c>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -4190,25 +4060,23 @@
     </row>
     <row r="102" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>601010</v>
+        <v>601810</v>
       </c>
       <c r="B102" s="1">
-        <v>501010</v>
+        <v>501810</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="E102" s="1"/>
-      <c r="F102" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -4220,27 +4088,27 @@
     </row>
     <row r="103" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>601110</v>
+        <v>601910</v>
       </c>
       <c r="B103" s="1">
-        <v>501110</v>
+        <v>501910</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E103" s="1"/>
-      <c r="F103" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J103" s="1"/>
+        <v>601911</v>
+      </c>
+      <c r="J103" s="1">
+        <v>601912</v>
+      </c>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
@@ -4250,26 +4118,24 @@
     </row>
     <row r="104" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>601111</v>
-      </c>
-      <c r="B104" s="1">
-        <v>501111</v>
-      </c>
+        <v>601912</v>
+      </c>
+      <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E104" s="1"/>
-      <c r="F104" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1">
-        <v>3000</v>
-      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H104" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -4280,25 +4146,27 @@
     </row>
     <row r="105" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>601210</v>
+        <v>602010</v>
       </c>
       <c r="B105" s="1">
-        <v>501210</v>
+        <v>502010</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
+      <c r="H105" s="1">
+        <v>-1</v>
+      </c>
       <c r="I105" s="1">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -4309,28 +4177,26 @@
       <c r="P105" s="1"/>
     </row>
     <row r="106" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>601211</v>
-      </c>
-      <c r="B106" s="1">
-        <v>501211</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>163</v>
+      <c r="A106" s="12">
+        <v>600001</v>
+      </c>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1">
-        <v>601212</v>
-      </c>
-      <c r="J106" s="1">
-        <v>601213</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I106" s="14">
+        <v>1</v>
+      </c>
+      <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
@@ -4339,26 +4205,24 @@
       <c r="P106" s="1"/>
     </row>
     <row r="107" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>601212</v>
-      </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1" t="s">
-        <v>164</v>
+      <c r="A107" s="12">
+        <v>600002</v>
+      </c>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1">
-        <v>4000</v>
-      </c>
-      <c r="I107" s="1">
-        <v>5000</v>
+        <v>157</v>
+      </c>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I107" s="14">
+        <v>2</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -4369,26 +4233,24 @@
       <c r="P107" s="1"/>
     </row>
     <row r="108" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>601213</v>
-      </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1" t="s">
-        <v>165</v>
+      <c r="A108" s="12">
+        <v>600003</v>
+      </c>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1">
-        <v>4000</v>
-      </c>
-      <c r="I108" s="1">
-        <v>5000</v>
+        <v>157</v>
+      </c>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I108" s="14">
+        <v>3</v>
       </c>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -4399,28 +4261,24 @@
       <c r="P108" s="1"/>
     </row>
     <row r="109" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>601310</v>
-      </c>
-      <c r="B109" s="1">
-        <v>501310</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>166</v>
+      <c r="A109" s="12">
+        <v>600004</v>
+      </c>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I109" s="1">
-        <v>2000</v>
+        <v>157</v>
+      </c>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I109" s="14">
+        <v>4</v>
       </c>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -4431,27 +4289,25 @@
       <c r="P109" s="1"/>
     </row>
     <row r="110" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>601311</v>
-      </c>
-      <c r="B110" s="1">
-        <v>501311</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>167</v>
+      <c r="A110" s="12">
+        <v>600005</v>
+      </c>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H110" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I110" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I110" s="14">
+        <v>5</v>
+      </c>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -4461,27 +4317,25 @@
       <c r="P110" s="1"/>
     </row>
     <row r="111" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>601410</v>
-      </c>
-      <c r="B111" s="1">
-        <v>501410</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>169</v>
+      <c r="A111" s="12">
+        <v>600006</v>
+      </c>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H111" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I111" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I111" s="14">
+        <v>6</v>
+      </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
@@ -4491,26 +4345,24 @@
       <c r="P111" s="1"/>
     </row>
     <row r="112" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>601411</v>
-      </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="12" t="s">
-        <v>171</v>
+      <c r="A112" s="12">
+        <v>600007</v>
+      </c>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I112" s="1">
-        <v>15000</v>
+        <v>157</v>
+      </c>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I112" s="14">
+        <v>7</v>
       </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -4521,82 +4373,80 @@
       <c r="P112" s="1"/>
     </row>
     <row r="113" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="9">
-        <v>601510</v>
-      </c>
-      <c r="B113" s="9">
-        <v>501511</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9">
-        <v>3000</v>
-      </c>
-      <c r="I113" s="9"/>
-      <c r="J113" s="9"/>
-      <c r="K113" s="9"/>
-      <c r="L113" s="9"/>
-      <c r="M113" s="9"/>
-      <c r="N113" s="9"/>
-      <c r="O113" s="9"/>
-      <c r="P113" s="9"/>
+      <c r="A113" s="12">
+        <v>600008</v>
+      </c>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I113" s="14">
+        <v>8</v>
+      </c>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
     </row>
     <row r="114" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>601710</v>
-      </c>
-      <c r="B114" s="1">
-        <v>501710</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
+      <c r="A114" s="12">
+        <v>600009</v>
+      </c>
+      <c r="B114" s="13"/>
+      <c r="C114" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I114" s="14">
+        <v>9</v>
+      </c>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
-      <c r="N114" s="1">
-        <v>701700</v>
-      </c>
-      <c r="O114" s="1">
-        <v>601711</v>
-      </c>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
       <c r="P114" s="1"/>
     </row>
     <row r="115" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>601711</v>
-      </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1" t="s">
-        <v>176</v>
+      <c r="A115" s="12">
+        <v>600010</v>
+      </c>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1">
-        <v>10000</v>
+        <v>157</v>
+      </c>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I115" s="14">
+        <v>10</v>
       </c>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -4607,27 +4457,19 @@
       <c r="P115" s="1"/>
     </row>
     <row r="116" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>601810</v>
-      </c>
-      <c r="B116" s="1">
-        <v>501810</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1">
-        <v>20000</v>
-      </c>
+      <c r="A116" s="12">
+        <v>0</v>
+      </c>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -4637,13 +4479,9 @@
       <c r="P116" s="1"/>
     </row>
     <row r="117" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>601811</v>
-      </c>
+      <c r="A117" s="1"/>
       <c r="B117" s="1"/>
-      <c r="C117" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -4654,406 +4492,148 @@
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
-      <c r="N117" s="1">
-        <v>701800</v>
-      </c>
-      <c r="O117" s="1">
-        <v>601812</v>
-      </c>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
       <c r="P117" s="1"/>
     </row>
     <row r="118" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>601812</v>
-      </c>
-      <c r="B118" s="1">
-        <v>501811</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1">
-        <v>20000</v>
-      </c>
-      <c r="J118" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="N118" s="6"/>
+      <c r="O118" s="6"/>
     </row>
     <row r="119" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>601910</v>
-      </c>
-      <c r="B119" s="1">
-        <v>501910</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1">
-        <v>601911</v>
-      </c>
-      <c r="J119" s="1">
-        <v>601912</v>
-      </c>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
+      <c r="A119" s="12"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="6"/>
     </row>
     <row r="120" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>601911</v>
-      </c>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1">
-        <v>5000</v>
-      </c>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
     </row>
     <row r="121" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>601912</v>
-      </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H121" s="1">
-        <v>1500</v>
-      </c>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
-      <c r="O121" s="1"/>
-      <c r="P121" s="1"/>
+      <c r="A121" s="12"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="N121" s="6"/>
+      <c r="O121" s="6"/>
     </row>
     <row r="122" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>602010</v>
-      </c>
-      <c r="B122" s="1">
-        <v>502010</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I122" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="N122" s="6"/>
+      <c r="O122" s="6"/>
     </row>
     <row r="123" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="15">
-        <v>600001</v>
-      </c>
-      <c r="B123" s="16"/>
-      <c r="C123" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I123" s="17">
-        <v>1</v>
-      </c>
+      <c r="A123" s="12"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
       <c r="N123" s="6"/>
       <c r="O123" s="6"/>
     </row>
     <row r="124" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="15">
-        <v>600002</v>
-      </c>
-      <c r="B124" s="16"/>
-      <c r="C124" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I124" s="17">
-        <v>2</v>
-      </c>
+      <c r="A124" s="12"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
       <c r="N124" s="6"/>
       <c r="O124" s="6"/>
     </row>
     <row r="125" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="15">
-        <v>600003</v>
-      </c>
-      <c r="B125" s="16"/>
-      <c r="C125" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I125" s="17">
-        <v>3</v>
-      </c>
+      <c r="A125" s="12"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
       <c r="N125" s="6"/>
       <c r="O125" s="6"/>
     </row>
     <row r="126" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="15">
-        <v>600004</v>
-      </c>
-      <c r="B126" s="16"/>
-      <c r="C126" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I126" s="17">
-        <v>4</v>
-      </c>
+      <c r="A126" s="12"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
       <c r="N126" s="6"/>
       <c r="O126" s="6"/>
     </row>
     <row r="127" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="15">
-        <v>600005</v>
-      </c>
-      <c r="B127" s="16"/>
-      <c r="C127" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E127" s="16"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
-      <c r="H127" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I127" s="17">
-        <v>5</v>
-      </c>
-      <c r="N127" s="6"/>
-      <c r="O127" s="6"/>
+      <c r="A127" s="12"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
     </row>
     <row r="128" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="15">
-        <v>600006</v>
-      </c>
-      <c r="B128" s="16"/>
-      <c r="C128" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E128" s="16"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16"/>
-      <c r="H128" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I128" s="17">
-        <v>6</v>
-      </c>
-      <c r="N128" s="6"/>
-      <c r="O128" s="6"/>
-    </row>
-    <row r="129" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="15">
-        <v>600007</v>
-      </c>
-      <c r="B129" s="16"/>
-      <c r="C129" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E129" s="16"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="16"/>
-      <c r="H129" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I129" s="17">
-        <v>7</v>
-      </c>
-      <c r="N129" s="6"/>
-      <c r="O129" s="6"/>
-    </row>
-    <row r="130" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="15">
-        <v>600008</v>
-      </c>
-      <c r="B130" s="16"/>
-      <c r="C130" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E130" s="16"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="16"/>
-      <c r="H130" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I130" s="17">
-        <v>8</v>
-      </c>
-      <c r="N130" s="6"/>
-      <c r="O130" s="6"/>
-    </row>
-    <row r="131" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="15">
-        <v>600009</v>
-      </c>
-      <c r="B131" s="16"/>
-      <c r="C131" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E131" s="16"/>
-      <c r="F131" s="16"/>
-      <c r="G131" s="16"/>
-      <c r="H131" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I131" s="17">
-        <v>9</v>
-      </c>
-      <c r="N131" s="6"/>
-      <c r="O131" s="6"/>
-    </row>
-    <row r="132" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="15">
-        <v>600010</v>
-      </c>
-      <c r="B132" s="16"/>
-      <c r="C132" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E132" s="16"/>
-      <c r="F132" s="16"/>
-      <c r="G132" s="16"/>
-      <c r="H132" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I132" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="15">
-        <v>0</v>
-      </c>
-      <c r="B133" s="16"/>
-      <c r="C133" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16"/>
-      <c r="F133" s="16"/>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="16"/>
+      <c r="A128" s="12"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6B07C4-2B78-4B0F-9075-D9A4E4C9B51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B61ACD-2C42-442D-B200-CAA669D2A054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="1245" windowWidth="24720" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,20 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={375F203E-B246-4879-90A3-A9D17C177D2B}</author>
     <author>tc={95A00D60-E62C-4FD1-B834-2F6BC898A9DF}</author>
     <author>tc={A1200C9A-445F-47D0-B468-3A10680A70A8}</author>
   </authors>
   <commentList>
-    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{95A00D60-E62C-4FD1-B834-2F6BC898A9DF}">
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{375F203E-B246-4879-90A3-A9D17C177D2B}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    지워 주세요! 이제 필요 없는 내용입니다~</t>
+      </text>
+    </comment>
+    <comment ref="H23" authorId="1" shapeId="0" xr:uid="{95A00D60-E62C-4FD1-B834-2F6BC898A9DF}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -34,7 +43,7 @@
     전투 시에 발동하는 function은 -1 아니어도 됨.</t>
       </text>
     </comment>
-    <comment ref="D32" authorId="1" shapeId="0" xr:uid="{A1200C9A-445F-47D0-B468-3A10680A70A8}">
+    <comment ref="D32" authorId="2" shapeId="0" xr:uid="{A1200C9A-445F-47D0-B468-3A10680A70A8}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -611,7 +620,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -649,6 +658,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -691,13 +706,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFF4CCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -772,9 +787,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -784,7 +796,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1008,6 +1027,9 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="N5" dT="2025-06-09T14:24:38.85" personId="{56A5CCA4-4F20-445F-A974-A567A20285DC}" id="{375F203E-B246-4879-90A3-A9D17C177D2B}">
+    <text>지워 주세요! 이제 필요 없는 내용입니다~</text>
+  </threadedComment>
   <threadedComment ref="H23" dT="2025-04-24T06:23:44.78" personId="{56A5CCA4-4F20-445F-A974-A567A20285DC}" id="{95A00D60-E62C-4FD1-B834-2F6BC898A9DF}">
     <text>전투 시에 발동하는 function은 -1 아니어도 됨.</text>
   </threadedComment>
@@ -1024,8 +1046,8 @@
   </sheetPr>
   <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3168,33 +3190,35 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
     </row>
-    <row r="72" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11">
+    <row r="72" spans="1:16" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="15">
+        <v>600220</v>
+      </c>
+      <c r="B72" s="15">
         <v>520011</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11" t="s">
+      <c r="E72" s="15"/>
+      <c r="F72" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11">
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15">
         <v>12000</v>
       </c>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
     </row>
     <row r="73" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -3290,33 +3314,35 @@
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
     </row>
-    <row r="76" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9">
+    <row r="76" spans="1:16" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="17">
+        <v>600420</v>
+      </c>
+      <c r="B76" s="17">
         <v>500411</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9" t="s">
+      <c r="E76" s="17"/>
+      <c r="F76" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9">
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17">
         <v>20000</v>
       </c>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
     </row>
     <row r="77" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
@@ -4007,7 +4033,7 @@
       <c r="B100" s="1">
         <v>501710</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="14" t="s">
         <v>173</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -4177,23 +4203,23 @@
       <c r="P105" s="1"/>
     </row>
     <row r="106" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="12">
+      <c r="A106" s="11">
         <v>600001</v>
       </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13" t="s">
+      <c r="B106" s="12"/>
+      <c r="C106" s="12" t="s">
         <v>156</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I106" s="14">
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I106" s="13">
         <v>1</v>
       </c>
       <c r="J106" s="1"/>
@@ -4205,23 +4231,23 @@
       <c r="P106" s="1"/>
     </row>
     <row r="107" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="12">
+      <c r="A107" s="11">
         <v>600002</v>
       </c>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13" t="s">
+      <c r="B107" s="12"/>
+      <c r="C107" s="12" t="s">
         <v>156</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I107" s="14">
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I107" s="13">
         <v>2</v>
       </c>
       <c r="J107" s="1"/>
@@ -4233,23 +4259,23 @@
       <c r="P107" s="1"/>
     </row>
     <row r="108" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="12">
+      <c r="A108" s="11">
         <v>600003</v>
       </c>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13" t="s">
+      <c r="B108" s="12"/>
+      <c r="C108" s="12" t="s">
         <v>156</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I108" s="14">
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I108" s="13">
         <v>3</v>
       </c>
       <c r="J108" s="1"/>
@@ -4261,23 +4287,23 @@
       <c r="P108" s="1"/>
     </row>
     <row r="109" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="12">
+      <c r="A109" s="11">
         <v>600004</v>
       </c>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13" t="s">
+      <c r="B109" s="12"/>
+      <c r="C109" s="12" t="s">
         <v>156</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I109" s="14">
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I109" s="13">
         <v>4</v>
       </c>
       <c r="J109" s="1"/>
@@ -4289,23 +4315,23 @@
       <c r="P109" s="1"/>
     </row>
     <row r="110" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="12">
+      <c r="A110" s="11">
         <v>600005</v>
       </c>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13" t="s">
+      <c r="B110" s="12"/>
+      <c r="C110" s="12" t="s">
         <v>156</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I110" s="14">
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I110" s="13">
         <v>5</v>
       </c>
       <c r="J110" s="1"/>
@@ -4317,23 +4343,23 @@
       <c r="P110" s="1"/>
     </row>
     <row r="111" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="12">
+      <c r="A111" s="11">
         <v>600006</v>
       </c>
-      <c r="B111" s="13"/>
-      <c r="C111" s="13" t="s">
+      <c r="B111" s="12"/>
+      <c r="C111" s="12" t="s">
         <v>156</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I111" s="14">
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I111" s="13">
         <v>6</v>
       </c>
       <c r="J111" s="1"/>
@@ -4345,23 +4371,23 @@
       <c r="P111" s="1"/>
     </row>
     <row r="112" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="12">
+      <c r="A112" s="11">
         <v>600007</v>
       </c>
-      <c r="B112" s="13"/>
-      <c r="C112" s="13" t="s">
+      <c r="B112" s="12"/>
+      <c r="C112" s="12" t="s">
         <v>156</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I112" s="14">
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I112" s="13">
         <v>7</v>
       </c>
       <c r="J112" s="1"/>
@@ -4373,23 +4399,23 @@
       <c r="P112" s="1"/>
     </row>
     <row r="113" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="12">
+      <c r="A113" s="11">
         <v>600008</v>
       </c>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13" t="s">
+      <c r="B113" s="12"/>
+      <c r="C113" s="12" t="s">
         <v>156</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I113" s="14">
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I113" s="13">
         <v>8</v>
       </c>
       <c r="J113" s="1"/>
@@ -4401,23 +4427,23 @@
       <c r="P113" s="1"/>
     </row>
     <row r="114" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="12">
+      <c r="A114" s="11">
         <v>600009</v>
       </c>
-      <c r="B114" s="13"/>
-      <c r="C114" s="13" t="s">
+      <c r="B114" s="12"/>
+      <c r="C114" s="12" t="s">
         <v>156</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I114" s="14">
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I114" s="13">
         <v>9</v>
       </c>
       <c r="J114" s="1"/>
@@ -4429,23 +4455,23 @@
       <c r="P114" s="1"/>
     </row>
     <row r="115" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="12">
+      <c r="A115" s="11">
         <v>600010</v>
       </c>
-      <c r="B115" s="13"/>
-      <c r="C115" s="13" t="s">
+      <c r="B115" s="12"/>
+      <c r="C115" s="12" t="s">
         <v>156</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I115" s="14">
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I115" s="13">
         <v>10</v>
       </c>
       <c r="J115" s="1"/>
@@ -4457,19 +4483,19 @@
       <c r="P115" s="1"/>
     </row>
     <row r="116" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="12">
+      <c r="A116" s="11">
         <v>0</v>
       </c>
-      <c r="B116" s="13"/>
-      <c r="C116" s="13" t="s">
+      <c r="B116" s="12"/>
+      <c r="C116" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -4497,143 +4523,143 @@
       <c r="P117" s="1"/>
     </row>
     <row r="118" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="12"/>
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
+      <c r="A118" s="11"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
     </row>
     <row r="119" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
+      <c r="A119" s="11"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
       <c r="D119" s="1"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
       <c r="N119" s="6"/>
       <c r="O119" s="6"/>
     </row>
     <row r="120" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
+      <c r="A120" s="11"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
       <c r="D120" s="1"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
       <c r="N120" s="6"/>
       <c r="O120" s="6"/>
     </row>
     <row r="121" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="12"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
+      <c r="A121" s="11"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
       <c r="D121" s="1"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
       <c r="N121" s="6"/>
       <c r="O121" s="6"/>
     </row>
     <row r="122" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="12"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
+      <c r="A122" s="11"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
       <c r="N122" s="6"/>
       <c r="O122" s="6"/>
     </row>
     <row r="123" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="12"/>
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
+      <c r="A123" s="11"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
       <c r="N123" s="6"/>
       <c r="O123" s="6"/>
     </row>
     <row r="124" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
+      <c r="A124" s="11"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
       <c r="D124" s="1"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
       <c r="N124" s="6"/>
       <c r="O124" s="6"/>
     </row>
     <row r="125" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
-      <c r="B125" s="13"/>
-      <c r="C125" s="13"/>
+      <c r="A125" s="11"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="13"/>
       <c r="N125" s="6"/>
       <c r="O125" s="6"/>
     </row>
     <row r="126" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="12"/>
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
+      <c r="A126" s="11"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
       <c r="N126" s="6"/>
       <c r="O126" s="6"/>
     </row>
     <row r="127" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="12"/>
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
+      <c r="A127" s="11"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
     </row>
     <row r="128" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="12"/>
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
+      <c r="A128" s="11"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B61ACD-2C42-442D-B200-CAA669D2A054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1155BE97-4E2F-48C4-A468-E527B815B4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,7 +620,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -658,12 +658,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1046,8 +1040,8 @@
   </sheetPr>
   <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1262,12 +1256,8 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="8">
-        <v>1</v>
-      </c>
-      <c r="O5" s="8">
-        <v>690012</v>
-      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1324,12 +1314,8 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="8">
-        <v>1</v>
-      </c>
-      <c r="O7" s="8">
-        <v>690022</v>
-      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1388,12 +1374,8 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="8">
-        <v>1</v>
-      </c>
-      <c r="O9" s="8">
-        <v>690032</v>
-      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1155BE97-4E2F-48C4-A468-E527B815B4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C3ABF6-A515-4A33-B4E9-FF495BBC6D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="1980" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -1040,8 +1040,8 @@
   </sheetPr>
   <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C3ABF6-A515-4A33-B4E9-FF495BBC6D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C548ACF1-E506-4552-8B7D-058CD4E60E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="1980" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="1875" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:P128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3752,7 +3752,9 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
+      <c r="H91" s="1">
+        <v>-1</v>
+      </c>
       <c r="I91" s="1">
         <v>3</v>
       </c>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C548ACF1-E506-4552-8B7D-058CD4E60E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A78C55-A605-41FC-8710-309EC2911E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1875" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="1560" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -562,12 +562,6 @@
     <t>1) ARMOR를 AP의 100%만큼 추가로 획득함.</t>
   </si>
   <si>
-    <t>그레이스 Skill: 대상과 범위 내 적에게 스플래시 데미지 (다른 평타로 대체)</t>
-  </si>
-  <si>
-    <t>CHANGE_AA</t>
-  </si>
-  <si>
     <t>LISA_PASSIVE_AA</t>
   </si>
   <si>
@@ -615,12 +609,142 @@
   <si>
     <t>포시티아 Skill: 전투를 시작했을 때 1열에 배치해둔 아군들에게 주문력의 100%에 비례한 보호막을 생성함.</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그레이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Skill: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대상과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스플래시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데미지</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOT_BY_AD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -659,6 +783,20 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="9">
@@ -753,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -800,6 +938,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1040,8 +1182,8 @@
   </sheetPr>
   <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3408,25 +3550,27 @@
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
     </row>
-    <row r="80" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>600611</v>
+        <v>600610</v>
       </c>
       <c r="B80" s="1">
-        <v>500611</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E80" s="1"/>
+        <v>500610</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" s="19"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="H80" s="1">
+        <v>6000</v>
+      </c>
       <c r="I80" s="1">
-        <v>500611</v>
+        <v>15000</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -3721,7 +3865,7 @@
         <v>143</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -3744,10 +3888,10 @@
         <v>501020</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -4018,7 +4162,7 @@
         <v>501710</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>105</v>
@@ -4046,7 +4190,7 @@
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>42</v>
@@ -4076,10 +4220,10 @@
         <v>501810</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -4104,7 +4248,7 @@
         <v>501910</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>53</v>
@@ -4162,7 +4306,7 @@
         <v>502010</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>138</v>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A78C55-A605-41FC-8710-309EC2911E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4076E71F-05D0-4FF0-A98A-3497FDD309C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="1560" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5940" yWindow="1710" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -518,9 +518,6 @@
   </si>
   <si>
     <t>이시스 Skill: 가장 가까운 아군 1명의 AS를 3초간 100% 증가.</t>
-  </si>
-  <si>
-    <t>BARRIER</t>
   </si>
   <si>
     <t>2) 주변 1칸 내의 적에게 1.5초간 침묵을 부여함.</t>
@@ -738,6 +735,10 @@
   </si>
   <si>
     <t>DOT_BY_AD</t>
+  </si>
+  <si>
+    <t>AS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1182,8 +1183,8 @@
   </sheetPr>
   <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="B84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2154,10 +2155,10 @@
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -2180,10 +2181,10 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -2206,10 +2207,10 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>163</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -2338,13 +2339,13 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>131</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -2426,13 +2427,13 @@
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>131</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -2514,13 +2515,13 @@
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>131</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -3558,10 +3559,10 @@
         <v>500610</v>
       </c>
       <c r="C80" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D80" s="19" t="s">
         <v>177</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>178</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="1"/>
@@ -3865,7 +3866,7 @@
         <v>143</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -3888,10 +3889,10 @@
         <v>501020</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -4138,14 +4139,16 @@
         <v>48</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9">
         <v>3000</v>
       </c>
-      <c r="I99" s="9"/>
+      <c r="I99" s="9">
+        <v>10000</v>
+      </c>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
@@ -4162,7 +4165,7 @@
         <v>501710</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>105</v>
@@ -4190,7 +4193,7 @@
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>42</v>
@@ -4220,10 +4223,10 @@
         <v>501810</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -4248,7 +4251,7 @@
         <v>501910</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>53</v>
@@ -4276,7 +4279,7 @@
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>40</v>
@@ -4306,7 +4309,7 @@
         <v>502010</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>138</v>
@@ -4336,10 +4339,10 @@
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
@@ -4364,10 +4367,10 @@
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -4392,10 +4395,10 @@
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
@@ -4420,10 +4423,10 @@
       </c>
       <c r="B109" s="12"/>
       <c r="C109" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
@@ -4448,10 +4451,10 @@
       </c>
       <c r="B110" s="12"/>
       <c r="C110" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
@@ -4476,10 +4479,10 @@
       </c>
       <c r="B111" s="12"/>
       <c r="C111" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
@@ -4504,10 +4507,10 @@
       </c>
       <c r="B112" s="12"/>
       <c r="C112" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
@@ -4532,10 +4535,10 @@
       </c>
       <c r="B113" s="12"/>
       <c r="C113" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
@@ -4560,10 +4563,10 @@
       </c>
       <c r="B114" s="12"/>
       <c r="C114" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
@@ -4588,10 +4591,10 @@
       </c>
       <c r="B115" s="12"/>
       <c r="C115" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
@@ -4616,7 +4619,7 @@
       </c>
       <c r="B116" s="12"/>
       <c r="C116" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4076E71F-05D0-4FF0-A98A-3497FDD309C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB05909-8210-469D-AE95-DC838A1C6121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1710" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="176">
   <si>
     <t>ID</t>
   </si>
@@ -487,9 +487,6 @@
     <t>SILENCE</t>
   </si>
   <si>
-    <t>리사 Skill: 3타 (대상 및 대상과 가까운 적 2명에게 AD의 20%에 해당하는 피해)</t>
-  </si>
-  <si>
     <t>아메 Skill 1) 가장 체력이 낮은 아군 2명을 AP의 30%만큼 회복</t>
   </si>
   <si>
@@ -559,19 +556,10 @@
     <t>1) ARMOR를 AP의 100%만큼 추가로 획득함.</t>
   </si>
   <si>
-    <t>LISA_PASSIVE_AA</t>
-  </si>
-  <si>
     <t>리사 Passive: 3타가 바뀜</t>
   </si>
   <si>
     <t>CHANGE_AA_BY_AA_COUNT</t>
-  </si>
-  <si>
-    <t>터틀 Skill Condition: 적의 공격 대상인가?</t>
-  </si>
-  <si>
-    <t>터틀 Skill: 인접한 적에게 주문력의 100%에 해당하는 마법 피해를 가합니다.</t>
   </si>
   <si>
     <r>
@@ -740,12 +728,214 @@
     <t>AS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">터틀 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t>Passive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초마다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인접한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문력의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 100%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피해를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -797,6 +987,19 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -929,9 +1132,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -943,6 +1143,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1181,10 +1384,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P128"/>
+  <dimension ref="A1:P126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2155,10 +2358,10 @@
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -2181,10 +2384,10 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -2207,10 +2410,10 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>162</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -2339,13 +2542,13 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>131</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -2427,13 +2630,13 @@
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>131</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -2515,13 +2718,13 @@
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>131</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -3315,35 +3518,35 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
     </row>
-    <row r="72" spans="1:16" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="15">
+    <row r="72" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
         <v>600220</v>
       </c>
-      <c r="B72" s="15">
+      <c r="B72" s="14">
         <v>520011</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15" t="s">
+      <c r="E72" s="14"/>
+      <c r="F72" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15">
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14">
         <v>12000</v>
       </c>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
     </row>
     <row r="73" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -3439,35 +3642,35 @@
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
     </row>
-    <row r="76" spans="1:16" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="17">
+    <row r="76" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="16">
         <v>600420</v>
       </c>
-      <c r="B76" s="17">
+      <c r="B76" s="16">
         <v>500411</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17" t="s">
+      <c r="E76" s="16"/>
+      <c r="F76" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17">
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16">
         <v>20000</v>
       </c>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
     </row>
     <row r="77" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
@@ -3558,13 +3761,13 @@
       <c r="B80" s="1">
         <v>500610</v>
       </c>
-      <c r="C80" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E80" s="19"/>
+      <c r="C80" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E80" s="18"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1">
@@ -3857,13 +4060,13 @@
     </row>
     <row r="90" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>601010</v>
+        <v>601020</v>
       </c>
       <c r="B90" s="1">
-        <v>501010</v>
+        <v>501020</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>167</v>
@@ -3871,9 +4074,15 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
+      <c r="H90" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I90" s="1">
+        <v>3</v>
+      </c>
+      <c r="J90" s="1">
+        <v>501010</v>
+      </c>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
@@ -3883,29 +4092,27 @@
     </row>
     <row r="91" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>601020</v>
+        <v>601210</v>
       </c>
       <c r="B91" s="1">
-        <v>501020</v>
+        <v>501210</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E91" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="1">
-        <v>-1</v>
-      </c>
+      <c r="H91" s="1"/>
       <c r="I91" s="1">
-        <v>3</v>
-      </c>
-      <c r="J91" s="1">
-        <v>501010</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -3915,27 +4122,27 @@
     </row>
     <row r="92" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>601210</v>
+        <v>601211</v>
       </c>
       <c r="B92" s="1">
-        <v>501210</v>
+        <v>501211</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J92" s="1"/>
+        <v>601212</v>
+      </c>
+      <c r="J92" s="1">
+        <v>601213</v>
+      </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -3945,27 +4152,27 @@
     </row>
     <row r="93" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>601211</v>
-      </c>
-      <c r="B93" s="1">
-        <v>501211</v>
-      </c>
+        <v>601212</v>
+      </c>
+      <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E93" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
+      <c r="H93" s="1">
+        <v>4000</v>
+      </c>
       <c r="I93" s="1">
-        <v>601212</v>
-      </c>
-      <c r="J93" s="1">
-        <v>601213</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
@@ -3974,89 +4181,89 @@
       <c r="P93" s="1"/>
     </row>
     <row r="94" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>601212</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1" t="s">
+      <c r="A94" s="9">
+        <v>601213</v>
+      </c>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1">
+      <c r="E94" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9">
         <v>4000</v>
       </c>
-      <c r="I94" s="1">
+      <c r="I94" s="9">
         <v>5000</v>
       </c>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
     </row>
     <row r="95" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="9">
-        <v>601213</v>
-      </c>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9" t="s">
+      <c r="A95" s="1">
+        <v>601310</v>
+      </c>
+      <c r="B95" s="1">
+        <v>501310</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D95" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9">
-        <v>4000</v>
-      </c>
-      <c r="I95" s="9">
-        <v>5000</v>
-      </c>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="9"/>
-      <c r="O95" s="9"/>
-      <c r="P95" s="9"/>
+      <c r="D95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I95" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
     </row>
     <row r="96" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>601310</v>
+        <v>601311</v>
       </c>
       <c r="B96" s="1">
-        <v>501310</v>
+        <v>501311</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="H96" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I96" s="1">
-        <v>2000</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -4067,13 +4274,13 @@
     </row>
     <row r="97" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>601311</v>
+        <v>601410</v>
       </c>
       <c r="B97" s="1">
-        <v>501311</v>
+        <v>501410</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>40</v>
@@ -4081,7 +4288,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H97" s="1">
         <v>3000</v>
@@ -4096,118 +4303,112 @@
       <c r="P97" s="1"/>
     </row>
     <row r="98" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>601410</v>
-      </c>
-      <c r="B98" s="1">
-        <v>501410</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1" t="s">
+      <c r="A98" s="9">
+        <v>601510</v>
+      </c>
+      <c r="B98" s="9">
+        <v>501511</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H98" s="1">
+      <c r="D98" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9">
         <v>3000</v>
       </c>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-    </row>
-    <row r="99" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="9">
-        <v>601510</v>
-      </c>
-      <c r="B99" s="9">
-        <v>501511</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9">
-        <v>3000</v>
-      </c>
-      <c r="I99" s="9">
+      <c r="I98" s="9">
         <v>10000</v>
       </c>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="9"/>
-      <c r="O99" s="9"/>
-      <c r="P99" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+    </row>
+    <row r="99" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>601710</v>
+      </c>
+      <c r="B99" s="1">
+        <v>501710</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
     </row>
     <row r="100" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>601710</v>
+        <v>601810</v>
       </c>
       <c r="B100" s="1">
-        <v>501710</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>170</v>
+        <v>501810</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
+      <c r="I100" s="1">
+        <v>1000</v>
+      </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
-      <c r="N100" s="1">
-        <v>701700</v>
-      </c>
-      <c r="O100" s="1">
-        <v>601711</v>
-      </c>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
       <c r="P100" s="1"/>
     </row>
     <row r="101" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>601711</v>
-      </c>
-      <c r="B101" s="1"/>
+        <v>601910</v>
+      </c>
+      <c r="B101" s="1">
+        <v>501910</v>
+      </c>
       <c r="C101" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E101" s="1"/>
-      <c r="F101" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J101" s="1"/>
+        <v>601911</v>
+      </c>
+      <c r="J101" s="1">
+        <v>601912</v>
+      </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
@@ -4217,24 +4418,24 @@
     </row>
     <row r="102" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>601810</v>
-      </c>
-      <c r="B102" s="1">
-        <v>501810</v>
-      </c>
+        <v>601912</v>
+      </c>
+      <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1">
-        <v>1000</v>
-      </c>
+      <c r="G102" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H102" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -4245,27 +4446,29 @@
     </row>
     <row r="103" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>601910</v>
+        <v>602010</v>
       </c>
       <c r="B103" s="1">
-        <v>501910</v>
+        <v>502010</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E103" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
+      <c r="H103" s="1">
+        <v>-1</v>
+      </c>
       <c r="I103" s="1">
-        <v>601911</v>
-      </c>
-      <c r="J103" s="1">
-        <v>601912</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
@@ -4274,25 +4477,25 @@
       <c r="P103" s="1"/>
     </row>
     <row r="104" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>601912</v>
-      </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1" t="s">
+      <c r="A104" s="11">
+        <v>600001</v>
+      </c>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12" t="s">
         <v>154</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H104" s="1">
-        <v>1500</v>
-      </c>
-      <c r="I104" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I104" s="13">
+        <v>1</v>
+      </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -4302,28 +4505,24 @@
       <c r="P104" s="1"/>
     </row>
     <row r="105" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>602010</v>
-      </c>
-      <c r="B105" s="1">
-        <v>502010</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>175</v>
+      <c r="A105" s="11">
+        <v>600002</v>
+      </c>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1">
+        <v>155</v>
+      </c>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="13">
         <v>-1</v>
       </c>
-      <c r="I105" s="1">
-        <v>10000</v>
+      <c r="I105" s="13">
+        <v>2</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -4335,14 +4534,14 @@
     </row>
     <row r="106" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
-        <v>600001</v>
+        <v>600003</v>
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
@@ -4351,7 +4550,7 @@
         <v>-1</v>
       </c>
       <c r="I106" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -4363,14 +4562,14 @@
     </row>
     <row r="107" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
-        <v>600002</v>
+        <v>600004</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -4379,7 +4578,7 @@
         <v>-1</v>
       </c>
       <c r="I107" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -4391,14 +4590,14 @@
     </row>
     <row r="108" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
-        <v>600003</v>
+        <v>600005</v>
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
@@ -4407,7 +4606,7 @@
         <v>-1</v>
       </c>
       <c r="I108" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -4419,14 +4618,14 @@
     </row>
     <row r="109" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
-        <v>600004</v>
+        <v>600006</v>
       </c>
       <c r="B109" s="12"/>
       <c r="C109" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
@@ -4435,7 +4634,7 @@
         <v>-1</v>
       </c>
       <c r="I109" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -4447,14 +4646,14 @@
     </row>
     <row r="110" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
-        <v>600005</v>
+        <v>600007</v>
       </c>
       <c r="B110" s="12"/>
       <c r="C110" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
@@ -4463,7 +4662,7 @@
         <v>-1</v>
       </c>
       <c r="I110" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -4475,14 +4674,14 @@
     </row>
     <row r="111" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
-        <v>600006</v>
+        <v>600008</v>
       </c>
       <c r="B111" s="12"/>
       <c r="C111" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
@@ -4491,7 +4690,7 @@
         <v>-1</v>
       </c>
       <c r="I111" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -4503,14 +4702,14 @@
     </row>
     <row r="112" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
-        <v>600007</v>
+        <v>600009</v>
       </c>
       <c r="B112" s="12"/>
       <c r="C112" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
@@ -4519,7 +4718,7 @@
         <v>-1</v>
       </c>
       <c r="I112" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -4531,14 +4730,14 @@
     </row>
     <row r="113" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
-        <v>600008</v>
+        <v>600010</v>
       </c>
       <c r="B113" s="12"/>
       <c r="C113" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
@@ -4547,7 +4746,7 @@
         <v>-1</v>
       </c>
       <c r="I113" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -4559,24 +4758,18 @@
     </row>
     <row r="114" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
-        <v>600009</v>
+        <v>0</v>
       </c>
       <c r="B114" s="12"/>
       <c r="C114" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D114" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
       <c r="G114" s="12"/>
-      <c r="H114" s="13">
-        <v>-1</v>
-      </c>
-      <c r="I114" s="13">
-        <v>9</v>
-      </c>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
@@ -4586,25 +4779,15 @@
       <c r="P114" s="1"/>
     </row>
     <row r="115" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="11">
-        <v>600010</v>
-      </c>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="13">
-        <v>-1</v>
-      </c>
-      <c r="I115" s="13">
-        <v>10</v>
-      </c>
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
@@ -4614,44 +4797,30 @@
       <c r="P115" s="1"/>
     </row>
     <row r="116" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="11">
-        <v>0</v>
-      </c>
+      <c r="A116" s="11"/>
       <c r="B116" s="12"/>
-      <c r="C116" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="1"/>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-      <c r="O116" s="1"/>
-      <c r="P116" s="1"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="6"/>
     </row>
     <row r="117" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
+      <c r="A117" s="11"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
       <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="6"/>
     </row>
     <row r="118" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
@@ -4754,43 +4923,17 @@
       <c r="G125" s="12"/>
       <c r="H125" s="13"/>
       <c r="I125" s="13"/>
-      <c r="N125" s="6"/>
-      <c r="O125" s="6"/>
     </row>
     <row r="126" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
-      <c r="D126" s="1"/>
+      <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
-      <c r="N126" s="6"/>
-      <c r="O126" s="6"/>
-    </row>
-    <row r="127" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="11"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="13"/>
-    </row>
-    <row r="128" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="11"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB05909-8210-469D-AE95-DC838A1C6121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3EDEF3-C4A0-40BD-879E-628EBB4EBE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -1386,8 +1386,8 @@
   </sheetPr>
   <dimension ref="A1:P126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4001,7 +4001,7 @@
         <v>600813</v>
       </c>
       <c r="B88" s="9">
-        <v>500811</v>
+        <v>500810</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>140</v>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3EDEF3-C4A0-40BD-879E-628EBB4EBE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389AD83E-3E36-4AC8-A3A4-966A277DE60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="1470" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -1386,8 +1386,8 @@
   </sheetPr>
   <dimension ref="A1:P126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="B57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3629,7 +3629,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I75" s="1">
         <v>10000</v>
@@ -3742,7 +3742,9 @@
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="H79" s="1">
+        <v>-1</v>
+      </c>
       <c r="I79" s="1">
         <v>10000</v>
       </c>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389AD83E-3E36-4AC8-A3A4-966A277DE60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE5C814-A24D-4CE0-8D95-D7082F6B70A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="1470" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="2280" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="177">
   <si>
     <t>ID</t>
   </si>
@@ -928,6 +928,10 @@
       </rPr>
       <t>.</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_ONCE_PLUS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1386,8 +1390,8 @@
   </sheetPr>
   <dimension ref="A1:P126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2367,9 +2371,11 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8">
+        <v>-1</v>
+      </c>
+      <c r="I31" s="8">
         <v>2000</v>
       </c>
-      <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
@@ -2393,9 +2399,11 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8">
+        <v>-1</v>
+      </c>
+      <c r="I32" s="8">
         <v>4000</v>
       </c>
-      <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -2419,9 +2427,11 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I33" s="10">
         <v>6000</v>
       </c>
-      <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
@@ -3621,7 +3631,7 @@
         <v>47</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>23</v>
@@ -3743,7 +3753,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I79" s="1">
         <v>10000</v>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE5C814-A24D-4CE0-8D95-D7082F6B70A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B2E73D-03E1-4EA1-BA9F-7EFB41E5AB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="2280" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="178">
   <si>
     <t>ID</t>
   </si>
@@ -932,6 +932,10 @@
   </si>
   <si>
     <t>BUFF_ONCE_PLUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TURTLE_PASSIVE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1390,8 +1394,8 @@
   </sheetPr>
   <dimension ref="A1:P126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4356,11 +4360,15 @@
       <c r="C99" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
+      <c r="H99" s="1">
+        <v>-1</v>
+      </c>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>

--- a/DataGenerator/XLSXS/FunctionData.xlsx
+++ b/DataGenerator/XLSXS/FunctionData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B2E73D-03E1-4EA1-BA9F-7EFB41E5AB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98429D7E-7E4A-4FDB-8096-8BDCBE141E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="1575" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -271,16 +271,7 @@
     <t>SWORD(4) Synergy: 2번째 AA마다 50 AD 데미지를 추가로 입힘</t>
   </si>
   <si>
-    <t>RANGED(2) Synergy: AD를 (5 + 지금까지 RANGED 실험체가 처치한 적의 수) 만큼 획득</t>
-  </si>
-  <si>
     <t>RANGED_SYNERGY_ADBUFF</t>
-  </si>
-  <si>
-    <t>RANGED(3) Synergy: AD를 (10 + 지금까지 RANGED 실험체가 처치한 적의 수) 만큼 획득</t>
-  </si>
-  <si>
-    <t>RANGED(4) Synergy: AD를 (20 + RANGED 실험체가 처치한 적의 수) 만큼 획득</t>
   </si>
   <si>
     <t>SHIELD_SYNERGY_HEAL</t>
@@ -938,6 +929,15 @@
     <t>TURTLE_PASSIVE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>RANGED(2) Synergy: 전투 시작 후 매 3초마다 AD를 1획득함.</t>
+  </si>
+  <si>
+    <t>RANGED(3) Synergy: 전투 시작 시 AD를 5 획득함. 이후, 매 3초마다 AD를 1획득함.</t>
+  </si>
+  <si>
+    <t>RANGED(4) Synergy: 전투 시작 시 AD를 10 획득함. 이후, 매 3초마다 AD를 2획득함.</t>
+  </si>
 </sst>
 </file>
 
@@ -1061,7 +1061,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1099,11 +1099,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1152,6 +1167,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1394,8 +1412,8 @@
   </sheetPr>
   <dimension ref="A1:P126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101"/>
+    <sheetView tabSelected="1" topLeftCell="C36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1450,7 +1468,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>33</v>
@@ -1496,7 +1514,7 @@
         <v>8</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>35</v>
@@ -1560,10 +1578,10 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1623,7 +1641,7 @@
         <v>64</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -1650,10 +1668,10 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1681,7 +1699,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -1708,10 +1726,10 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>51</v>
@@ -1738,10 +1756,10 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1768,7 +1786,7 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>53</v>
@@ -1798,7 +1816,7 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>48</v>
@@ -1832,7 +1850,7 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>48</v>
@@ -1866,7 +1884,7 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>53</v>
@@ -1896,10 +1914,10 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -1924,10 +1942,10 @@
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -1952,7 +1970,7 @@
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>53</v>
@@ -1988,7 +2006,7 @@
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>48</v>
@@ -2018,10 +2036,10 @@
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -2046,7 +2064,7 @@
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>48</v>
@@ -2076,7 +2094,7 @@
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>48</v>
@@ -2106,7 +2124,7 @@
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>48</v>
@@ -2136,10 +2154,10 @@
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -2164,7 +2182,7 @@
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>48</v>
@@ -2194,10 +2212,10 @@
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -2222,7 +2240,7 @@
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>48</v>
@@ -2252,10 +2270,10 @@
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -2280,7 +2298,7 @@
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>40</v>
@@ -2308,10 +2326,10 @@
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -2336,7 +2354,7 @@
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>48</v>
@@ -2366,10 +2384,10 @@
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -2394,10 +2412,10 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -2422,10 +2440,10 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -2450,10 +2468,10 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -2476,10 +2494,10 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -2502,10 +2520,10 @@
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -2528,7 +2546,7 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>53</v>
@@ -2556,13 +2574,13 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -2586,13 +2604,13 @@
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -2616,7 +2634,7 @@
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>53</v>
@@ -2644,13 +2662,13 @@
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -2674,13 +2692,13 @@
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -2704,7 +2722,7 @@
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>53</v>
@@ -2732,13 +2750,13 @@
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2762,13 +2780,13 @@
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -2887,21 +2905,25 @@
         <v>691120</v>
       </c>
       <c r="B49" s="8"/>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8">
-        <v>5</v>
-      </c>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20">
+        <v>0</v>
+      </c>
+      <c r="J49" s="20">
+        <v>3000</v>
+      </c>
+      <c r="K49" s="20">
+        <v>1</v>
+      </c>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
@@ -2914,20 +2936,24 @@
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8">
-        <v>10</v>
-      </c>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="J50" s="8">
+        <v>3000</v>
+      </c>
+      <c r="K50" s="8">
+        <v>1</v>
+      </c>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
@@ -2940,20 +2966,24 @@
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10">
-        <v>20</v>
-      </c>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="J51" s="10">
+        <v>3000</v>
+      </c>
+      <c r="K51" s="10">
+        <v>2</v>
+      </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
@@ -2966,10 +2996,10 @@
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -2994,10 +3024,10 @@
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>24</v>
@@ -3028,10 +3058,10 @@
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -3056,10 +3086,10 @@
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>24</v>
@@ -3090,10 +3120,10 @@
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -3118,10 +3148,10 @@
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>24</v>
@@ -3152,10 +3182,10 @@
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -3178,10 +3208,10 @@
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -3204,10 +3234,10 @@
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
@@ -3230,7 +3260,7 @@
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>53</v>
@@ -3258,10 +3288,10 @@
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
@@ -3312,7 +3342,7 @@
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>53</v>
@@ -3340,10 +3370,10 @@
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -3364,7 +3394,7 @@
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>48</v>
@@ -3394,7 +3424,7 @@
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>53</v>
@@ -3422,10 +3452,10 @@
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -3446,7 +3476,7 @@
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>48</v>
@@ -3510,7 +3540,7 @@
         <v>500210</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>40</v>
@@ -3518,7 +3548,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H71" s="1">
         <v>6000</v>
@@ -3635,7 +3665,7 @@
         <v>47</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>23</v>
@@ -3778,10 +3808,10 @@
         <v>500610</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E80" s="18"/>
       <c r="F80" s="1"/>
@@ -3930,7 +3960,7 @@
         <v>500810</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>53</v>
@@ -4020,7 +4050,7 @@
         <v>500810</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>48</v>
@@ -4052,7 +4082,7 @@
         <v>500910</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>40</v>
@@ -4060,7 +4090,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H89" s="1">
         <v>2000</v>
@@ -4082,10 +4112,10 @@
         <v>501020</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -4114,10 +4144,10 @@
         <v>501210</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>24</v>
@@ -4144,7 +4174,7 @@
         <v>501211</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>53</v>
@@ -4172,7 +4202,7 @@
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>48</v>
@@ -4202,7 +4232,7 @@
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>48</v>
@@ -4234,10 +4264,10 @@
         <v>501310</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>24</v>
@@ -4266,7 +4296,7 @@
         <v>501311</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>40</v>
@@ -4274,7 +4304,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H96" s="1">
         <v>3000</v>
@@ -4296,7 +4326,7 @@
         <v>501410</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>40</v>
@@ -4304,7 +4334,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H97" s="1">
         <v>3000</v>
@@ -4326,13 +4356,13 @@
         <v>501511</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
@@ -4358,10 +4388,10 @@
         <v>501710</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -4386,10 +4416,10 @@
         <v>501810</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -4414,7 +4444,7 @@
         <v>501910</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>53</v>
@@ -4442,7 +4472,7 @@
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>40</v>
@@ -4450,7 +4480,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H102" s="1">
         <v>1500</v>
@@ -4472,10 +4502,10 @@
         <v>502010</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>29</v>
@@ -4502,10 +4532,10 @@
       </c>
       <c r="B104" s="12"/>
       <c r="C104" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
@@ -4530,10 +4560,10 @@
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -4558,10 +4588,10 @@
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
@@ -4586,10 +4616,10 @@
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -4614,10 +4644,10 @@
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
@@ -4642,10 +4672,10 @@
       </c>
       <c r="B109" s="12"/>
       <c r="C109" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
@@ -4670,10 +4700,10 @@
       </c>
       <c r="B110" s="12"/>
       <c r="C110" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
@@ -4698,10 +4728,10 @@
       </c>
       <c r="B111" s="12"/>
       <c r="C111" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
@@ -4726,10 +4756,10 @@
       </c>
       <c r="B112" s="12"/>
       <c r="C112" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
@@ -4754,10 +4784,10 @@
       </c>
       <c r="B113" s="12"/>
       <c r="C113" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
@@ -4782,7 +4812,7 @@
       </c>
       <c r="B114" s="12"/>
       <c r="C114" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
